--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A79EC63-EE4A-49AB-AA12-6C50E77BA229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7E2C8-8E11-43E4-8CAC-46C6FC631603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_5.1" sheetId="1" r:id="rId1"/>
+    <sheet name="C_5.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Periodo</t>
   </si>
@@ -47,37 +47,34 @@
     <t>Dirección General de Planeación</t>
   </si>
   <si>
-    <t>Mensual (INPC)</t>
-  </si>
-  <si>
-    <t>Anual (INPC)</t>
-  </si>
-  <si>
-    <t>Acumulada (INPC)</t>
-  </si>
-  <si>
-    <t>Mensual (INPP)</t>
-  </si>
-  <si>
-    <t>Anual (INPP)</t>
-  </si>
-  <si>
-    <t>Acumulada (INPP)</t>
-  </si>
-  <si>
     <t>(Variación porcentual)</t>
   </si>
   <si>
     <t>Fuente: Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t>Nota: El indice Nacial de precios al Productor (INPP), Base julio 2019 = 100.</t>
-  </si>
-  <si>
     <t xml:space="preserve">             El INPP incluye mercancías y servicios finales, excluyendo petróleo.</t>
   </si>
   <si>
-    <t>Inflación, Índice Nacional de Precios Productor</t>
+    <t>Nota: El índice Nacional de precios al Productor (INPP), Base julio 2019 = 100.</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Acumulada</t>
+  </si>
+  <si>
+    <t>INPC subyasente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflación, Índice Nacional de Precios Productor (INPP) y Índice Nacional de Precios al Consumidor (INPC) subyacente </t>
+  </si>
+  <si>
+    <t>INPP</t>
   </si>
 </sst>
 </file>
@@ -85,9 +82,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +111,19 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -124,12 +134,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -137,11 +147,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -149,180 +223,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/\y\y\y\y"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -333,21 +266,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:H81" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Periodo" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{60052B64-29B6-4A81-94B4-6B103416241B}" name="Mensual (INPC)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{03726D84-8347-4B13-A8CA-CF2114774D7A}" name="Anual (INPC)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{0B969ED9-B9B4-4DA8-BFF4-BD018051E923}" name="Acumulada (INPC)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F90C46B7-9926-4854-ACB9-19B0088E2497}" name="Mensual (INPP)" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{ECF085B3-C5CB-4DFC-B295-F3C77973A297}" name="Anual (INPP)" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{7D1A83DC-2D9A-4F07-932B-CE2425F8ABBC}" name="Acumulada (INPP)" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N84"/>
+  <dimension ref="B2:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -592,7 +510,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -609,7 +527,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -624,1846 +542,1870 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6"/>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="9">
         <v>45413</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="10">
         <v>0.17</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="10">
         <v>4.21</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="10">
         <v>1.73</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="10">
         <v>0.42360958839500001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="10">
         <v>3.3687665536420002</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="11">
         <v>1.9087834320920001</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="6">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="9">
         <v>45383</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="10">
         <v>0.21</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="10">
         <v>4.37</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="10">
         <v>1.55</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="10">
         <v>0.25418029563599998</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="10">
         <v>2.7425824040540001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="11">
         <v>1.478909043187</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="9">
         <v>45352</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="10">
         <v>0.44</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="10">
         <v>4.55</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="10">
         <v>1.34</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="10">
         <v>0.53214056444000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="10">
         <v>2.3469442441570001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="11">
         <v>1.2216236210189999</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
         <v>45323</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="10">
         <v>0.49</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="10">
         <v>4.6399999999999997</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="10">
         <v>0.9</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="10">
         <v>0.348921618228</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="10">
         <v>2.3687450634360001</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="11">
         <v>0.68583345854199995</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
         <v>45292</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="10">
         <v>0.4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="10">
         <v>4.76</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="10">
         <v>0.4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="10">
         <v>0.33574036958300002</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="10">
         <v>2.1715546272230002</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="11">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="6">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
         <v>45261</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="10">
         <v>0.44</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="10">
         <v>5.09</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="10">
         <v>5.09</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="10">
         <v>0.147495845343</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="10">
         <v>2.3990681262220002</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="11">
         <v>2.3990681262220002</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
         <v>45231</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="10">
         <v>0.26</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="10">
         <v>5.3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="10">
         <v>4.63</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="10">
         <v>1.8048505045E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="10">
         <v>2.6522066151989998</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="11">
         <v>2.248256196397</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="6">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
         <v>45200</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="10">
         <v>0.39</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="10">
         <v>5.5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="10">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="10">
         <v>0.70603945590799999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="10">
         <v>2.5168997772570001</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="11">
         <v>2.2298052448400001</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
         <v>45170</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="10">
         <v>0.36</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="10">
         <v>5.76</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="10">
         <v>3.95</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="10">
         <v>0.34946700552499999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="10">
         <v>1.9439072454349999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="11">
         <v>1.513082827172</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="6">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
         <v>45139</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="10">
         <v>0.27</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="10">
         <v>6.08</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="10">
         <v>3.58</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="10">
         <v>0.196740307063</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="10">
         <v>1.675847035776</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="11">
         <v>1.159563529703</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
         <v>45108</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="10">
         <v>0.39</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="10">
         <v>6.64</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="10">
         <v>3.3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="10">
         <v>0.15964518918199999</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="10">
         <v>1.530754654866</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="11">
         <v>0.96093268073299998</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="6">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
         <v>45078</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="10">
         <v>0.3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="10">
         <v>6.89</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="10">
         <v>2.89</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="10">
         <v>-0.15132890355199999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="10">
         <v>2.1835078429219998</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="11">
         <v>0.80001031357200003</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
         <v>45047</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="10">
         <v>0.32</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="10">
         <v>7.39</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="10">
         <v>2.59</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="10">
         <v>-0.18473347948900001</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="10">
         <v>2.9355319108579998</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="11">
         <v>0.95278105024100002</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
         <v>45017</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="10">
         <v>0.39</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="10">
         <v>7.67</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="10">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="10">
         <v>-0.13187559751</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="10">
         <v>3.6988889525249999</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="11">
         <v>1.1396197890190001</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
         <v>44986</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="10">
         <v>0.52</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="10">
         <v>8.09</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="10">
         <v>1.86</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="10">
         <v>0.55355481421800001</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="10">
         <v>4.5062159802339998</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="11">
         <v>1.2731743928670001</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
         <v>44958</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="10">
         <v>0.61</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="10">
         <v>8.2899999999999991</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="10">
         <v>1.33</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="10">
         <v>0.15562191903600001</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="10">
         <v>5.242353451924</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="11">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="9">
         <v>44927</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="10">
         <v>0.71</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="10">
         <v>8.4499999999999993</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="10">
         <v>0.71</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="10">
         <v>0.55916591546500005</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="10">
         <v>5.9305104600370004</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="11">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
         <v>44896</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="10">
         <v>0.65</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="10">
         <v>8.35</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="10">
         <v>8.35</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="10">
         <v>0.39506827189900001</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="10">
         <v>5.5533388149269998</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="11">
         <v>5.5533388149269998</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
         <v>44866</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="10">
         <v>0.45</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="10">
         <v>8.51</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="10">
         <v>7.65</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="10">
         <v>-0.113786224344</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="10">
         <v>6.1787824133119997</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="11">
         <v>5.1379720456570004</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
         <v>44835</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="10">
         <v>0.63</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="10">
         <v>8.42</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="10">
         <v>7.17</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="10">
         <v>0.143168274249</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="10">
         <v>7.2420809480689998</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="11">
         <v>5.2577408548060003</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
         <v>44805</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="10">
         <v>0.67</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="10">
         <v>8.2799999999999994</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="10">
         <v>6.5</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="10">
         <v>8.5599356230999998E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="10">
         <v>7.9839703932569996</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="11">
         <v>5.1072606036890003</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="6">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
         <v>44774</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="10">
         <v>0.8</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="10">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="10">
         <v>5.79</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="10">
         <v>5.3758625233999997E-2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="10">
         <v>8.2770800745350002</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="11">
         <v>5.0173664141080003</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
         <v>44743</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="10">
         <v>0.62</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="10">
         <v>7.65</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="10">
         <v>4.95</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="10">
         <v>0.80358335288500005</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="10">
         <v>8.5613806924040006</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="11">
         <v>4.9609408552709997</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="6">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
         <v>44713</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="10">
         <v>0.77</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="10">
         <v>7.49</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="10">
         <v>4.3</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="10">
         <v>0.58351182956699998</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="10">
         <v>8.1206306866349998</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="11">
         <v>4.1242159892599997</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
         <v>44682</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="10">
         <v>0.59</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="10">
         <v>7.28</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="10">
         <v>3.5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="10">
         <v>0.55548406395600003</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="10">
         <v>8.3083117124939996</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="11">
         <v>3.5201635887329998</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="6">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
         <v>44652</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="10">
         <v>0.78</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="10">
         <v>7.22</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="10">
         <v>2.9</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="10">
         <v>0.64562777645299996</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="10">
         <v>8.3624942961670001</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="11">
         <v>2.948302176031</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="5">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
         <v>44621</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="10">
         <v>0.72</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="10">
         <v>6.78</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="10">
         <v>2.1</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="10">
         <v>1.261849903808</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="10">
         <v>7.8586284732739999</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H32" s="11">
         <v>2.2879030619130001</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="9">
         <v>44593</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="10">
         <v>0.76</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="10">
         <v>6.59</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="10">
         <v>1.38</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="10">
         <v>0.81051788881300002</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="10">
         <v>7.882525801491</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H33" s="11">
         <v>1.013267246331</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="5">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="9">
         <v>44562</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="10">
         <v>0.62</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="10">
         <v>6.21</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="10">
         <v>0.62</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="10">
         <v>0.201119250019</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="10">
         <v>7.9360282135400002</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H34" s="11">
         <v>0.201119250019</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="6">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
         <v>44531</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="10">
         <v>0.8</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="10">
         <v>5.94</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E35" s="10">
         <v>5.94</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="10">
         <v>0.98994715934099997</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="10">
         <v>8.4353053849300004</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H35" s="11">
         <v>8.4353053849300004</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="5">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
         <v>44501</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C36" s="10">
         <v>0.37</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D36" s="10">
         <v>5.67</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="10">
         <v>5.09</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="10">
         <v>0.88649709343500005</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G36" s="10">
         <v>7.2086688466229996</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H36" s="11">
         <v>7.3723756027340004</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="6">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
         <v>44470</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C37" s="10">
         <v>0.49</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="10">
         <v>5.19</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E37" s="10">
         <v>4.71</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="10">
         <v>0.83594818763300005</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G37" s="10">
         <v>5.9199708831139999</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H37" s="11">
         <v>6.4288866163060003</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="5">
+    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="9">
         <v>44440</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C38" s="10">
         <v>0.46</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="10">
         <v>4.92</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="10">
         <v>4.1900000000000004</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="10">
         <v>0.35726984603599998</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="10">
         <v>5.164508955364</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H38" s="11">
         <v>5.5465719608899997</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="6">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
         <v>44409</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C39" s="10">
         <v>0.43</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D39" s="10">
         <v>4.78</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="10">
         <v>3.72</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F39" s="10">
         <v>0.316467458699</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G39" s="10">
         <v>4.5155081427589998</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H39" s="11">
         <v>5.1708283045319998</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="5">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
         <v>44378</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C40" s="10">
         <v>0.48</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D40" s="10">
         <v>4.66</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E40" s="10">
         <v>3.28</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F40" s="10">
         <v>0.39432934689400001</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G40" s="10">
         <v>4.3958643907160004</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H40" s="11">
         <v>4.8390468372819999</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="6">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
         <v>44348</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C41" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="10">
         <v>4.58</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="10">
         <v>2.79</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="10">
         <v>0.75810955957199999</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="10">
         <v>4.8265532737239996</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H41" s="11">
         <v>4.4272595068890004</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="5">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
         <v>44317</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="10">
         <v>0.53</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="10">
         <v>4.37</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="10">
         <v>0.60578819891000002</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="10">
         <v>3.1959619273520001</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H42" s="11">
         <v>3.6415430612540001</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="6">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
         <v>44287</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C43" s="10">
         <v>0.37</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="10">
         <v>4.13</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="10">
         <v>1.67</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="10">
         <v>0.17764397458799999</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="10">
         <v>2.1669307819279999</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H43" s="11">
         <v>3.0174753527510001</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
         <v>44256</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C44" s="10">
         <v>0.54</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="10">
         <v>4.12</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="10">
         <v>1.3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="10">
         <v>1.284285639338</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G44" s="10">
         <v>4.1277875031009996</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H44" s="11">
         <v>2.8347955347039999</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="6">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
         <v>44228</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45" s="10">
         <v>0.39</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="10">
         <v>3.87</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="10">
         <v>0.75</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="10">
         <v>0.86051306483400003</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="10">
         <v>5.442223849636</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H45" s="11">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
         <v>44197</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C46" s="10">
         <v>0.36</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="10">
         <v>3.84</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="10">
         <v>0.36</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="10">
         <v>0.66461723319800003</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="10">
         <v>5.0089705057009999</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H46" s="11">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="6">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
         <v>44166</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C47" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="10">
         <v>3.8</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E47" s="10">
         <v>3.8</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F47" s="10">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G47" s="10">
         <v>4.0477807569659996</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H47" s="11">
         <v>4.0477807569659996</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
         <v>44136</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C48" s="10">
         <v>-0.08</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="10">
         <v>3.66</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="10">
         <v>3.24</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="10">
         <v>-0.32620543098400001</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="10">
         <v>4.5265419274339997</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H48" s="11">
         <v>4.2066608629460003</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="6">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
         <v>44105</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C49" s="10">
         <v>0.24</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="10">
         <v>3.98</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="10">
         <v>3.33</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="10">
         <v>0.116747463074</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="10">
         <v>5.1137554069669999</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="11">
         <v>4.5477011420390001</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B49" s="5">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
         <v>44075</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C50" s="10">
         <v>0.32</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D50" s="10">
         <v>3.99</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E50" s="10">
         <v>3.08</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="10">
         <v>-0.26206409397699998</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="10">
         <v>4.8518955410490001</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H50" s="11">
         <v>4.4257866852900003</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B50" s="6">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
         <v>44044</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C51" s="10">
         <v>0.32</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D51" s="10">
         <v>3.97</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E51" s="10">
         <v>2.75</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="10">
         <v>0.201630543376</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G51" s="10">
         <v>5.6406719752800001</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H51" s="11">
         <v>4.7001682325600003</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B51" s="5">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
         <v>44013</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C52" s="10">
         <v>0.4</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D52" s="10">
         <v>3.85</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E52" s="10">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="10">
         <v>0.80850975355200005</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G52" s="10">
         <v>5.3835626013460001</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H52" s="11">
         <v>4.4894855151449997</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B52" s="6">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
         <v>43983</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C53" s="10">
         <v>0.37</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="10">
         <v>3.71</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="10">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="10">
         <v>-0.80919658942999995</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G53" s="10">
         <v>4.684646083144</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="11">
         <v>3.6514534046699998</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
         <v>43952</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C54" s="10">
         <v>0.3</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="10">
         <v>3.64</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="10">
         <v>1.65</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="10">
         <v>-0.39741471264900002</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="10">
         <v>6.0913765134869999</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H54" s="11">
         <v>4.4970398874960003</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" s="6">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
         <v>43922</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C55" s="10">
         <v>0.36</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="10">
         <v>3.5</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="10">
         <v>1.35</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F55" s="10">
         <v>2.100320960141</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G55" s="10">
         <v>6.5491539587240002</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H55" s="11">
         <v>4.9139834935250004</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B55" s="5">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
         <v>43891</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C56" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="10">
         <v>3.6</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="10">
         <v>0.99</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="10">
         <v>2.562827607524</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="10">
         <v>4.6539310234500002</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H56" s="11">
         <v>2.755782260942</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B56" s="6">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="9">
         <v>43862</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C57" s="10">
         <v>0.36</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D57" s="10">
         <v>3.66</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E57" s="10">
         <v>0.69</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="10">
         <v>0.44608559013799998</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G57" s="10">
         <v>2.2791453993499999</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H57" s="11">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" s="5">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="9">
         <v>43831</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C58" s="10">
         <v>0.33</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D58" s="10">
         <v>3.73</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="10">
         <v>0.33</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F58" s="10">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G58" s="10">
         <v>1.84862881086</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H58" s="11">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="6">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
         <v>43800</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C59" s="10">
         <v>0.41</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D59" s="10">
         <v>3.59</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="10">
         <v>3.59</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F59" s="10">
         <v>0.306967963314</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G59" s="10">
         <v>1.586696971267</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H59" s="11">
         <v>1.586696971267</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B59" s="5">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
         <v>43770</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C60" s="10">
         <v>0.22</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D60" s="10">
         <v>3.65</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="10">
         <v>3.17</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="10">
         <v>0.23374608609399999</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G60" s="10">
         <v>1.8270378469140001</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H60" s="11">
         <v>1.2758126717789999</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B60" s="6">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
         <v>43739</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C61" s="10">
         <v>0.25</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D61" s="10">
         <v>3.68</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E61" s="10">
         <v>2.94</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="10">
         <v>-0.13266383391</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G61" s="10">
         <v>3.0075460228350002</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H61" s="11">
         <v>1.0396364761120001</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B61" s="5">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B62" s="9">
         <v>43709</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C62" s="10">
         <v>0.3</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D62" s="10">
         <v>3.75</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E62" s="10">
         <v>2.69</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F62" s="10">
         <v>0.48824121081100003</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G62" s="10">
         <v>3.4825490942520001</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H62" s="11">
         <v>1.173857594512</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B62" s="6">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="9">
         <v>43678</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C63" s="10">
         <v>0.2</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D63" s="10">
         <v>3.78</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E63" s="10">
         <v>2.39</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F63" s="10">
         <v>-4.2241234551999997E-2</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G63" s="10">
         <v>3.5690342385120002</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H63" s="11">
         <v>0.68228518624599999</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B63" s="5">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" s="9">
         <v>43647</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C64" s="10">
         <v>0.26</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D64" s="10">
         <v>3.82</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E64" s="10">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F64" s="10">
         <v>0.139935538533</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G64" s="10">
         <v>3.6017852246089999</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H64" s="11">
         <v>0.72483259903599995</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B64" s="6">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" s="9">
         <v>43617</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C65" s="10">
         <v>0.3</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D65" s="10">
         <v>3.85</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E65" s="10">
         <v>1.91</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F65" s="10">
         <v>0.523708729436</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G65" s="10">
         <v>2.8051480354380001</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H65" s="11">
         <v>0.58407972539399999</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B65" s="5">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B66" s="9">
         <v>43586</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C66" s="10">
         <v>0.16</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D66" s="10">
         <v>3.77</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E66" s="10">
         <v>1.6</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="10">
         <v>3.2364017068000003E-2</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G66" s="10">
         <v>3.4106486148780002</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H66" s="11">
         <v>6.0056474956E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B66" s="6">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" s="9">
         <v>43556</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C67" s="10">
         <v>0.46</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D67" s="10">
         <v>3.87</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E67" s="10">
         <v>1.44</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="10">
         <v>0.28423080087500002</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G67" s="10">
         <v>4.691393512895</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H67" s="11">
         <v>2.7683498397E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B67" s="5">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="9">
         <v>43525</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C68" s="10">
         <v>0.34</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D68" s="10">
         <v>3.55</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E68" s="10">
         <v>0.98</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F68" s="10">
         <v>0.23549287496900001</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G68" s="10">
         <v>4.3140852336069999</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H68" s="11">
         <v>-0.25582018272399998</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B68" s="6">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="9">
         <v>43497</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C69" s="10">
         <v>0.43</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D69" s="10">
         <v>3.54</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E69" s="10">
         <v>0.63</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F69" s="10">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G69" s="10">
         <v>4.5288462181250004</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H69" s="11">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="5">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="9">
         <v>43466</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C70" s="10">
         <v>0.2</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D70" s="10">
         <v>3.6</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E70" s="10">
         <v>0.2</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="10">
         <v>-0.513324016898</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G70" s="10">
         <v>4.7656059104970003</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H70" s="11">
         <v>-0.513324016898</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B70" s="6">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="9">
         <v>43435</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C71" s="10">
         <v>0.47</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="10">
         <v>3.68</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E71" s="10">
         <v>3.68</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="10">
         <v>0.54428116703600005</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="10">
         <v>5.9416820029600004</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H71" s="11">
         <v>5.9416820029600004</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B71" s="5">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="9">
         <v>43405</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C72" s="10">
         <v>0.25</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="10">
         <v>3.63</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="10">
         <v>3.2</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F72" s="10">
         <v>1.395782803059</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G72" s="10">
         <v>5.803199134233</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H72" s="11">
         <v>5.3681828277810002</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B72" s="6">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="9">
         <v>43374</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C73" s="10">
         <v>0.31</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="10">
         <v>3.73</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E73" s="10">
         <v>2.94</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="10">
         <v>0.327858654438</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G73" s="10">
         <v>5.3038402515170002</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H73" s="11">
         <v>3.9177172017480002</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B73" s="5">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="9">
         <v>43344</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C74" s="10">
         <v>0.32</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D74" s="10">
         <v>3.67</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E74" s="10">
         <v>2.62</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F74" s="10">
         <v>0.57222387372000005</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G74" s="10">
         <v>6.0001919453579999</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H74" s="11">
         <v>3.5781273471350001</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B74" s="6">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="9">
         <v>43313</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C75" s="10">
         <v>0.25</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D75" s="10">
         <v>3.63</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E75" s="10">
         <v>2.29</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F75" s="10">
         <v>-1.0632219447E-2</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G75" s="10">
         <v>5.557540466841</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H75" s="11">
         <v>2.988800841462</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B75" s="5">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="9">
         <v>43282</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C76" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D76" s="10">
         <v>3.63</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E76" s="10">
         <v>2.04</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F76" s="10">
         <v>-0.63008204946799995</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>5.7518140773019999</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H76" s="11">
         <v>2.999752001124</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B76" s="6">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="9">
         <v>43252</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C77" s="10">
         <v>0.23</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="10">
         <v>3.62</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E77" s="10">
         <v>1.75</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F77" s="10">
         <v>1.1157721138700001</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G77" s="10">
         <v>6.3180830350320001</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H77" s="11">
         <v>3.6528500027540001</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B77" s="5">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" s="9">
         <v>43221</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C78" s="10">
         <v>0.26</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D78" s="10">
         <v>3.69</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E78" s="10">
         <v>1.51</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F78" s="10">
         <v>1.27126872918</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>4.8472071616769998</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H78" s="11">
         <v>2.5090822488370002</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B78" s="6">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="9">
         <v>43191</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C79" s="10">
         <v>0.15</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D79" s="10">
         <v>3.71</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E79" s="10">
         <v>1.25</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="10">
         <v>-7.7194043074000004E-2</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>3.7330131426480002</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H79" s="11">
         <v>1.2222751182939999</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B79" s="5">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="9">
         <v>43160</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C80" s="10">
         <v>0.33</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D80" s="10">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E80" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="10">
         <v>0.441856886936</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>3.5773911178570001</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H80" s="11">
         <v>1.300473049094</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B80" s="6">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B81" s="9">
         <v>43132</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C81" s="10">
         <v>0.49</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D81" s="10">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E81" s="10">
         <v>0.77</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F81" s="10">
         <v>0.24983929023699999</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>2.9845963579829999</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H81" s="11">
         <v>0.85483899717699996</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="5">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B82" s="12">
         <v>43101</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C82" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D82" s="13">
         <v>4.5599999999999996</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E82" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F82" s="13">
         <v>0.60349194694300001</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="13">
         <v>3.161283780502</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H82" s="14">
         <v>0.60349194694300001</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="K84" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
+  <mergeCells count="5">
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7E2C8-8E11-43E4-8CAC-46C6FC631603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25365DBF-57DB-45CC-B7AB-D9E5D5596371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Periodo</t>
   </si>
@@ -76,15 +76,24 @@
   <si>
     <t>INPP</t>
   </si>
+  <si>
+    <t xml:space="preserve">Mensual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acumulada </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +133,15 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +154,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -211,11 +233,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -229,33 +322,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -266,6 +472,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:H82" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B5:H82" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Periodo" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N87"/>
+  <dimension ref="B2:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -543,19 +771,17 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -564,1794 +790,1796 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
+      <c r="F5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="9">
+      <c r="B6" s="13">
         <v>45413</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="14">
         <v>0.17</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="14">
         <v>4.21</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="14">
         <v>1.73</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="14">
         <v>0.42360958839500001</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="14">
         <v>3.3687665536420002</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="15">
         <v>1.9087834320920001</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>45383</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>0.21</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>4.37</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>1.55</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>0.25418029563599998</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <v>2.7425824040540001</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>1.478909043187</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="9">
+      <c r="B8" s="16">
         <v>45352</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="12">
         <v>0.44</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>4.55</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <v>1.34</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="12">
         <v>0.53214056444000002</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="12">
         <v>2.3469442441570001</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="17">
         <v>1.2216236210189999</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>45323</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>0.49</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>4.6399999999999997</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>0.9</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>0.348921618228</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>2.3687450634360001</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="7">
         <v>0.68583345854199995</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="9">
+      <c r="B10" s="18">
         <v>45292</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="19">
         <v>0.4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="19">
         <v>4.76</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="19">
         <v>0.4</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="19">
         <v>0.33574036958300002</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="19">
         <v>2.1715546272230002</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="20">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="9">
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="21">
         <v>45261</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="22">
         <v>0.44</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="22">
         <v>5.09</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="22">
         <v>5.09</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="22">
         <v>0.147495845343</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="22">
         <v>2.3990681262220002</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="23">
         <v>2.3990681262220002</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="9">
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16">
         <v>45231</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="12">
         <v>0.26</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="12">
         <v>5.3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="12">
         <v>4.63</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="12">
         <v>1.8048505045E-2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="12">
         <v>2.6522066151989998</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="17">
         <v>2.248256196397</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
         <v>45200</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>0.39</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>5.5</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>0.70603945590799999</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <v>2.5168997772570001</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="7">
         <v>2.2298052448400001</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="9">
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16">
         <v>45170</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="12">
         <v>0.36</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="12">
         <v>5.76</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="12">
         <v>3.95</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="12">
         <v>0.34946700552499999</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="12">
         <v>1.9439072454349999</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="17">
         <v>1.513082827172</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
         <v>45139</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>0.27</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>6.08</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <v>3.58</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>0.196740307063</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>1.675847035776</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="7">
         <v>1.159563529703</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="9">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="16">
         <v>45108</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="12">
         <v>0.39</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="12">
         <v>6.64</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="12">
         <v>3.3</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="12">
         <v>0.15964518918199999</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="12">
         <v>1.530754654866</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="17">
         <v>0.96093268073299998</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
+    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
         <v>45078</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>0.3</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>6.89</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>2.89</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>-0.15132890355199999</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="6">
         <v>2.1835078429219998</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="7">
         <v>0.80001031357200003</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="9">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="16">
         <v>45047</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="12">
         <v>0.32</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="12">
         <v>7.39</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="12">
         <v>2.59</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="12">
         <v>-0.18473347948900001</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="12">
         <v>2.9355319108579998</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="17">
         <v>0.95278105024100002</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
         <v>45017</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>0.39</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <v>7.67</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="6">
         <v>-0.13187559751</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="6">
         <v>3.6988889525249999</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="7">
         <v>1.1396197890190001</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16">
         <v>44986</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="12">
         <v>0.52</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="12">
         <v>8.09</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="12">
         <v>1.86</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="12">
         <v>0.55355481421800001</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="12">
         <v>4.5062159802339998</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="17">
         <v>1.2731743928670001</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5">
         <v>44958</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>0.61</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>8.2899999999999991</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>1.33</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <v>0.15562191903600001</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="6">
         <v>5.242353451924</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="7">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="9">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="18">
         <v>44927</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="19">
         <v>0.71</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="19">
         <v>8.4499999999999993</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="19">
         <v>0.71</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="19">
         <v>0.55916591546500005</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="19">
         <v>5.9305104600370004</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="20">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="9">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21">
         <v>44896</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="22">
         <v>0.65</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="22">
         <v>8.35</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="22">
         <v>8.35</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="22">
         <v>0.39506827189900001</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="22">
         <v>5.5533388149269998</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="23">
         <v>5.5533388149269998</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="9">
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16">
         <v>44866</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="12">
         <v>0.45</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="12">
         <v>8.51</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="12">
         <v>7.65</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="12">
         <v>-0.113786224344</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="12">
         <v>6.1787824133119997</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="17">
         <v>5.1379720456570004</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
         <v>44835</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="6">
         <v>0.63</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <v>8.42</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <v>7.17</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <v>0.143168274249</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="6">
         <v>7.2420809480689998</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="7">
         <v>5.2577408548060003</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="9">
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="16">
         <v>44805</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="12">
         <v>0.67</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="12">
         <v>8.2799999999999994</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="12">
         <v>6.5</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="12">
         <v>8.5599356230999998E-2</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="12">
         <v>7.9839703932569996</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="17">
         <v>5.1072606036890003</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5">
         <v>44774</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <v>0.8</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="6">
         <v>5.79</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="6">
         <v>5.3758625233999997E-2</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="6">
         <v>8.2770800745350002</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="7">
         <v>5.0173664141080003</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="9">
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="16">
         <v>44743</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="12">
         <v>0.62</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="12">
         <v>7.65</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="12">
         <v>4.95</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="12">
         <v>0.80358335288500005</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="12">
         <v>8.5613806924040006</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="17">
         <v>4.9609408552709997</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="5">
         <v>44713</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>0.77</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <v>7.49</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>4.3</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <v>0.58351182956699998</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="6">
         <v>8.1206306866349998</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="7">
         <v>4.1242159892599997</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="9">
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="16">
         <v>44682</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="12">
         <v>0.59</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="12">
         <v>7.28</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="12">
         <v>3.5</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="12">
         <v>0.55548406395600003</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="12">
         <v>8.3083117124939996</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="17">
         <v>3.5201635887329998</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5">
         <v>44652</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="6">
         <v>0.78</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="6">
         <v>7.22</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="6">
         <v>2.9</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>0.64562777645299996</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="6">
         <v>8.3624942961670001</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="7">
         <v>2.948302176031</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="9">
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="16">
         <v>44621</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="12">
         <v>0.72</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="12">
         <v>6.78</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="12">
         <v>2.1</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="12">
         <v>1.261849903808</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="12">
         <v>7.8586284732739999</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="17">
         <v>2.2879030619130001</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="5">
         <v>44593</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="6">
         <v>0.76</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <v>6.59</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="6">
         <v>1.38</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="6">
         <v>0.81051788881300002</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="6">
         <v>7.882525801491</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="7">
         <v>1.013267246331</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="9">
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="18">
         <v>44562</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="19">
         <v>0.62</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="19">
         <v>6.21</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="19">
         <v>0.62</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="19">
         <v>0.201119250019</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="19">
         <v>7.9360282135400002</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="20">
         <v>0.201119250019</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="9">
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="21">
         <v>44531</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="22">
         <v>0.8</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="22">
         <v>5.94</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="22">
         <v>5.94</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="22">
         <v>0.98994715934099997</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="22">
         <v>8.4353053849300004</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="23">
         <v>8.4353053849300004</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="9">
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="16">
         <v>44501</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="12">
         <v>0.37</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="12">
         <v>5.67</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="12">
         <v>5.09</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="12">
         <v>0.88649709343500005</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="12">
         <v>7.2086688466229996</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="17">
         <v>7.3723756027340004</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="5">
         <v>44470</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="6">
         <v>0.49</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="6">
         <v>5.19</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="6">
         <v>4.71</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="6">
         <v>0.83594818763300005</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="6">
         <v>5.9199708831139999</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="7">
         <v>6.4288866163060003</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="9">
+    <row r="38" spans="2:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="16">
         <v>44440</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="12">
         <v>0.46</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="12">
         <v>4.92</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="12">
         <v>4.1900000000000004</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="12">
         <v>0.35726984603599998</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="12">
         <v>5.164508955364</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="17">
         <v>5.5465719608899997</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="9">
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="5">
         <v>44409</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="6">
         <v>0.43</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="6">
         <v>4.78</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="6">
         <v>3.72</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="6">
         <v>0.316467458699</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="6">
         <v>4.5155081427589998</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="7">
         <v>5.1708283045319998</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="9">
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16">
         <v>44378</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="12">
         <v>0.48</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="12">
         <v>4.66</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="12">
         <v>3.28</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="12">
         <v>0.39432934689400001</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="12">
         <v>4.3958643907160004</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="17">
         <v>4.8390468372819999</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="9">
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="5">
         <v>44348</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="6">
         <v>4.58</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="6">
         <v>2.79</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="6">
         <v>0.75810955957199999</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="6">
         <v>4.8265532737239996</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="7">
         <v>4.4272595068890004</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="9">
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="16">
         <v>44317</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="12">
         <v>0.53</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="12">
         <v>4.37</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="12">
         <v>0.60578819891000002</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="12">
         <v>3.1959619273520001</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="17">
         <v>3.6415430612540001</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="9">
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="5">
         <v>44287</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="6">
         <v>0.37</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="6">
         <v>4.13</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="6">
         <v>1.67</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="6">
         <v>0.17764397458799999</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="6">
         <v>2.1669307819279999</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="7">
         <v>3.0174753527510001</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="9">
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="16">
         <v>44256</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="12">
         <v>0.54</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="12">
         <v>4.12</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="12">
         <v>1.3</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="12">
         <v>1.284285639338</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="12">
         <v>4.1277875031009996</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="17">
         <v>2.8347955347039999</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="9">
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="5">
         <v>44228</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="6">
         <v>0.39</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="6">
         <v>3.87</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="6">
         <v>0.75</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="6">
         <v>0.86051306483400003</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="6">
         <v>5.442223849636</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="7">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="9">
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="18">
         <v>44197</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="19">
         <v>0.36</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="19">
         <v>3.84</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="19">
         <v>0.36</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="19">
         <v>0.66461723319800003</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="19">
         <v>5.0089705057009999</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="20">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="9">
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="21">
         <v>44166</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="22">
         <v>3.8</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="22">
         <v>3.8</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="22">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="22">
         <v>4.0477807569659996</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="23">
         <v>4.0477807569659996</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="9">
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="16">
         <v>44136</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="12">
         <v>-0.08</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="12">
         <v>3.66</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="12">
         <v>3.24</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="12">
         <v>-0.32620543098400001</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="12">
         <v>4.5265419274339997</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="17">
         <v>4.2066608629460003</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="5">
         <v>44105</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="6">
         <v>0.24</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="6">
         <v>3.98</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="6">
         <v>3.33</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="6">
         <v>0.116747463074</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="6">
         <v>5.1137554069669999</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="7">
         <v>4.5477011420390001</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B50" s="9">
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="16">
         <v>44075</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="12">
         <v>0.32</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="12">
         <v>3.99</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="12">
         <v>3.08</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="12">
         <v>-0.26206409397699998</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="12">
         <v>4.8518955410490001</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="17">
         <v>4.4257866852900003</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B51" s="9">
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="5">
         <v>44044</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="6">
         <v>0.32</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="6">
         <v>3.97</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="6">
         <v>2.75</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="6">
         <v>0.201630543376</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="6">
         <v>5.6406719752800001</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="7">
         <v>4.7001682325600003</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B52" s="9">
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="16">
         <v>44013</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="12">
         <v>0.4</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="12">
         <v>3.85</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="12">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="12">
         <v>0.80850975355200005</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="12">
         <v>5.3835626013460001</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="17">
         <v>4.4894855151449997</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" s="9">
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="5">
         <v>43983</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="6">
         <v>0.37</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="6">
         <v>3.71</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="6">
         <v>-0.80919658942999995</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="6">
         <v>4.684646083144</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="7">
         <v>3.6514534046699998</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" s="9">
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="16">
         <v>43952</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="12">
         <v>0.3</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="12">
         <v>3.64</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="12">
         <v>1.65</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="12">
         <v>-0.39741471264900002</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="12">
         <v>6.0913765134869999</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="17">
         <v>4.4970398874960003</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B55" s="9">
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="5">
         <v>43922</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="6">
         <v>0.36</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="6">
         <v>3.5</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="6">
         <v>1.35</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="6">
         <v>2.100320960141</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="6">
         <v>6.5491539587240002</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="7">
         <v>4.9139834935250004</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B56" s="9">
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="16">
         <v>43891</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="12">
         <v>3.6</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="12">
         <v>0.99</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="12">
         <v>2.562827607524</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="12">
         <v>4.6539310234500002</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="17">
         <v>2.755782260942</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" s="9">
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="5">
         <v>43862</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="6">
         <v>0.36</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="6">
         <v>3.66</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="6">
         <v>0.69</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="6">
         <v>0.44608559013799998</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="6">
         <v>2.2791453993499999</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="7">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="9">
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="18">
         <v>43831</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="19">
         <v>0.33</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="19">
         <v>3.73</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="19">
         <v>0.33</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="19">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="19">
         <v>1.84862881086</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="20">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B59" s="9">
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="21">
         <v>43800</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="22">
         <v>0.41</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="22">
         <v>3.59</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="22">
         <v>3.59</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="22">
         <v>0.306967963314</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="22">
         <v>1.586696971267</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="23">
         <v>1.586696971267</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B60" s="9">
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="16">
         <v>43770</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="12">
         <v>0.22</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="12">
         <v>3.65</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="12">
         <v>3.17</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="12">
         <v>0.23374608609399999</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="12">
         <v>1.8270378469140001</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="17">
         <v>1.2758126717789999</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B61" s="9">
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="5">
         <v>43739</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="6">
         <v>0.25</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="6">
         <v>3.68</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="6">
         <v>2.94</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="6">
         <v>-0.13266383391</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="6">
         <v>3.0075460228350002</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="7">
         <v>1.0396364761120001</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B62" s="9">
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="16">
         <v>43709</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="12">
         <v>0.3</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="12">
         <v>3.75</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="12">
         <v>2.69</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="12">
         <v>0.48824121081100003</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="12">
         <v>3.4825490942520001</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="17">
         <v>1.173857594512</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="5">
         <v>43678</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="6">
         <v>0.2</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="6">
         <v>3.78</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="6">
         <v>2.39</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="6">
         <v>-4.2241234551999997E-2</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="6">
         <v>3.5690342385120002</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="7">
         <v>0.68228518624599999</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B64" s="9">
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="16">
         <v>43647</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="12">
         <v>0.26</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="12">
         <v>3.82</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="12">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="12">
         <v>0.139935538533</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="12">
         <v>3.6017852246089999</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="17">
         <v>0.72483259903599995</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B65" s="9">
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="5">
         <v>43617</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="6">
         <v>0.3</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="6">
         <v>3.85</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="6">
         <v>1.91</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="6">
         <v>0.523708729436</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="6">
         <v>2.8051480354380001</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="7">
         <v>0.58407972539399999</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B66" s="9">
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="16">
         <v>43586</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="12">
         <v>0.16</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="12">
         <v>3.77</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="12">
         <v>1.6</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="12">
         <v>3.2364017068000003E-2</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="12">
         <v>3.4106486148780002</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="17">
         <v>6.0056474956E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B67" s="9">
+    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="5">
         <v>43556</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="6">
         <v>0.46</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="6">
         <v>3.87</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="6">
         <v>1.44</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="6">
         <v>0.28423080087500002</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="6">
         <v>4.691393512895</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="7">
         <v>2.7683498397E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B68" s="9">
+    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="16">
         <v>43525</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="12">
         <v>0.34</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="12">
         <v>3.55</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="12">
         <v>0.98</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="12">
         <v>0.23549287496900001</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="12">
         <v>4.3140852336069999</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="17">
         <v>-0.25582018272399998</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="5">
         <v>43497</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="6">
         <v>0.43</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="6">
         <v>3.54</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="6">
         <v>0.63</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="6">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="6">
         <v>4.5288462181250004</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="7">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B70" s="9">
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="18">
         <v>43466</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="19">
         <v>0.2</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="19">
         <v>3.6</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="19">
         <v>0.2</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="19">
         <v>-0.513324016898</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="19">
         <v>4.7656059104970003</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="20">
         <v>-0.513324016898</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="9">
         <v>43435</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="6">
         <v>0.47</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="6">
         <v>3.68</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="6">
         <v>3.68</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="6">
         <v>0.54428116703600005</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="6">
         <v>5.9416820029600004</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="6">
         <v>5.9416820029600004</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B72" s="9">
+    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="10">
         <v>43405</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="11">
         <v>0.25</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="11">
         <v>3.63</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="11">
         <v>3.2</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="11">
         <v>1.395782803059</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="11">
         <v>5.803199134233</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="12">
         <v>5.3681828277810002</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="9">
         <v>43374</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="6">
         <v>0.31</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="6">
         <v>3.73</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="6">
         <v>2.94</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="6">
         <v>0.327858654438</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="6">
         <v>5.3038402515170002</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="6">
         <v>3.9177172017480002</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B74" s="9">
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="10">
         <v>43344</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="11">
         <v>0.32</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="11">
         <v>3.67</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="11">
         <v>2.62</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="11">
         <v>0.57222387372000005</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="11">
         <v>6.0001919453579999</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="12">
         <v>3.5781273471350001</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="9">
         <v>43313</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="6">
         <v>0.25</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="6">
         <v>3.63</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="6">
         <v>2.29</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="6">
         <v>-1.0632219447E-2</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="6">
         <v>5.557540466841</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="6">
         <v>2.988800841462</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B76" s="9">
+    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="10">
         <v>43282</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="11">
         <v>3.63</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="11">
         <v>2.04</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="11">
         <v>-0.63008204946799995</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="11">
         <v>5.7518140773019999</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="12">
         <v>2.999752001124</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" s="9">
         <v>43252</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="6">
         <v>0.23</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="6">
         <v>3.62</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="6">
         <v>1.75</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="6">
         <v>1.1157721138700001</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="6">
         <v>6.3180830350320001</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="6">
         <v>3.6528500027540001</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B78" s="9">
+    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="10">
         <v>43221</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="11">
         <v>0.26</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="11">
         <v>3.69</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="11">
         <v>1.51</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="11">
         <v>1.27126872918</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="11">
         <v>4.8472071616769998</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="12">
         <v>2.5090822488370002</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="9">
         <v>43191</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="6">
         <v>0.15</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="6">
         <v>3.71</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="6">
         <v>1.25</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="6">
         <v>-7.7194043074000004E-2</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="6">
         <v>3.7330131426480002</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79" s="6">
         <v>1.2222751182939999</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B80" s="9">
+    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="10">
         <v>43160</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="11">
         <v>0.33</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="11">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="11">
         <v>0.441856886936</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="11">
         <v>3.5773911178570001</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="12">
         <v>1.300473049094</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="9">
         <v>43132</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="6">
         <v>0.49</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="6">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="6">
         <v>0.77</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="6">
         <v>0.24983929023699999</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="6">
         <v>2.9845963579829999</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="6">
         <v>0.85483899717699996</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B82" s="12">
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="10">
         <v>43101</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="11">
         <v>4.5599999999999996</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="11">
         <v>0.60349194694300001</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="11">
         <v>3.161283780502</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="12">
         <v>0.60349194694300001</v>
       </c>
     </row>
@@ -2363,6 +2591,10 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
+      <c r="G83" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="24"/>
     </row>
     <row r="84" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="2" t="s">
@@ -2372,6 +2604,10 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
+      <c r="G84" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="24"/>
     </row>
     <row r="85" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="2" t="s">
@@ -2384,28 +2620,18 @@
       <c r="G85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="G86" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="G87" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H87" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="4">
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1BA53-6BD6-40EB-A51A-3AB1CF8FDF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3C5338-42C7-4E19-AD0F-67E30E67AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>(Variación porcentual)</t>
-  </si>
-  <si>
-    <t>Fuente: Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
   </si>
   <si>
     <t xml:space="preserve">             El INPP incluye mercancías y servicios finales, excluyendo petróleo.</t>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Fuente: Para INPC: INEGI. índice Nacional de Precios al Consumidor. En: www.inegi.org.mx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -373,14 +376,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -416,6 +422,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -423,12 +435,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -483,7 +489,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I85" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I85" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B5:I85" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
     <filterColumn colId="0">
       <filters>
@@ -729,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O89"/>
+  <dimension ref="B2:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -749,7 +755,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -786,16 +792,16 @@
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -805,28 +811,28 @@
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="G5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
@@ -2912,31 +2918,31 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -2947,7 +2953,12 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B90" s="31" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3C5338-42C7-4E19-AD0F-67E30E67AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8A4E4D-F946-4587-942F-36A4EBA960CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.2" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
   <si>
     <t>(Variación porcentual)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             El INPP incluye mercancías y servicios finales, excluyendo petróleo.</t>
   </si>
   <si>
     <t>Nota: El índice Nacional de precios al Productor (INPP), Base julio 2019 = 100.</t>
@@ -54,9 +51,6 @@
   </si>
   <si>
     <t>Acumulada</t>
-  </si>
-  <si>
-    <t>INPC subyasente</t>
   </si>
   <si>
     <t xml:space="preserve">Inflación, Índice Nacional de Precios Productor (INPP) y Índice Nacional de Precios al Consumidor (INPC) subyacente </t>
@@ -87,6 +81,48 @@
   </si>
   <si>
     <t xml:space="preserve">   Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
+  </si>
+  <si>
+    <t>INPC subyacente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     El INPP incluye mercancías y servicios finales, excluyendo petróleo.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -311,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -352,32 +388,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,8 +400,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -394,6 +433,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -411,14 +458,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -499,14 +538,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -737,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +794,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -792,16 +831,16 @@
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -811,36 +850,36 @@
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>5</v>
-      </c>
       <c r="G5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
+      <c r="B6" s="29">
         <v>2024</v>
       </c>
-      <c r="C6" s="21">
-        <v>8</v>
+      <c r="C6" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="5">
         <v>0.22</v>
@@ -862,11 +901,11 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="22">
+      <c r="B7" s="30">
         <v>2024</v>
       </c>
-      <c r="C7" s="23">
-        <v>7</v>
+      <c r="C7" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="9">
         <v>0.32</v>
@@ -888,11 +927,11 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
+      <c r="B8" s="29">
         <v>2024</v>
       </c>
-      <c r="C8" s="21">
-        <v>6</v>
+      <c r="C8" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="5">
         <v>0.22</v>
@@ -914,11 +953,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="22">
+      <c r="B9" s="30">
         <v>2024</v>
       </c>
-      <c r="C9" s="23">
-        <v>5</v>
+      <c r="C9" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="9">
         <v>0.17</v>
@@ -940,11 +979,11 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="20">
+      <c r="B10" s="29">
         <v>2024</v>
       </c>
-      <c r="C10" s="21">
-        <v>4</v>
+      <c r="C10" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>0.21</v>
@@ -966,11 +1005,11 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="22">
+      <c r="B11" s="30">
         <v>2024</v>
       </c>
-      <c r="C11" s="23">
-        <v>3</v>
+      <c r="C11" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="9">
         <v>0.44</v>
@@ -992,11 +1031,11 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="20">
+      <c r="B12" s="29">
         <v>2024</v>
       </c>
-      <c r="C12" s="21">
-        <v>2</v>
+      <c r="C12" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="5">
         <v>0.49</v>
@@ -1018,11 +1057,11 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="24">
+      <c r="B13" s="31">
         <v>2024</v>
       </c>
-      <c r="C13" s="25">
-        <v>1</v>
+      <c r="C13" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="11">
         <v>0.4</v>
@@ -1044,11 +1083,11 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="26">
+      <c r="B14" s="32">
         <v>2023</v>
       </c>
-      <c r="C14" s="27">
-        <v>12</v>
+      <c r="C14" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="13">
         <v>0.44</v>
@@ -1070,11 +1109,11 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="22">
+      <c r="B15" s="30">
         <v>2023</v>
       </c>
-      <c r="C15" s="23">
-        <v>11</v>
+      <c r="C15" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="9">
         <v>0.26</v>
@@ -1096,11 +1135,11 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="20">
+      <c r="B16" s="29">
         <v>2023</v>
       </c>
-      <c r="C16" s="21">
-        <v>10</v>
+      <c r="C16" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="5">
         <v>0.39</v>
@@ -1122,11 +1161,11 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="22">
+      <c r="B17" s="30">
         <v>2023</v>
       </c>
-      <c r="C17" s="23">
-        <v>9</v>
+      <c r="C17" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="9">
         <v>0.36</v>
@@ -1148,11 +1187,11 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="20">
+      <c r="B18" s="29">
         <v>2023</v>
       </c>
-      <c r="C18" s="21">
-        <v>8</v>
+      <c r="C18" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="5">
         <v>0.27</v>
@@ -1174,11 +1213,11 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="22">
+      <c r="B19" s="30">
         <v>2023</v>
       </c>
-      <c r="C19" s="23">
-        <v>7</v>
+      <c r="C19" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="9">
         <v>0.39</v>
@@ -1200,11 +1239,11 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="20">
+      <c r="B20" s="29">
         <v>2023</v>
       </c>
-      <c r="C20" s="21">
-        <v>6</v>
+      <c r="C20" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="D20" s="5">
         <v>0.3</v>
@@ -1226,11 +1265,11 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="22">
+      <c r="B21" s="30">
         <v>2023</v>
       </c>
-      <c r="C21" s="23">
-        <v>5</v>
+      <c r="C21" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="9">
         <v>0.32</v>
@@ -1252,11 +1291,11 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="20">
+      <c r="B22" s="29">
         <v>2023</v>
       </c>
-      <c r="C22" s="21">
-        <v>4</v>
+      <c r="C22" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="5">
         <v>0.39</v>
@@ -1278,11 +1317,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="22">
+      <c r="B23" s="30">
         <v>2023</v>
       </c>
-      <c r="C23" s="23">
-        <v>3</v>
+      <c r="C23" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D23" s="9">
         <v>0.52</v>
@@ -1304,11 +1343,11 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="20">
+      <c r="B24" s="29">
         <v>2023</v>
       </c>
-      <c r="C24" s="21">
-        <v>2</v>
+      <c r="C24" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="5">
         <v>0.61</v>
@@ -1330,11 +1369,11 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="24">
+      <c r="B25" s="31">
         <v>2023</v>
       </c>
-      <c r="C25" s="25">
-        <v>1</v>
+      <c r="C25" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D25" s="11">
         <v>0.71</v>
@@ -1356,11 +1395,11 @@
       </c>
     </row>
     <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26">
+      <c r="B26" s="32">
         <v>2022</v>
       </c>
-      <c r="C26" s="27">
-        <v>12</v>
+      <c r="C26" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="D26" s="13">
         <v>0.65</v>
@@ -1382,11 +1421,11 @@
       </c>
     </row>
     <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="22">
+      <c r="B27" s="30">
         <v>2022</v>
       </c>
-      <c r="C27" s="23">
-        <v>11</v>
+      <c r="C27" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="D27" s="9">
         <v>0.45</v>
@@ -1408,11 +1447,11 @@
       </c>
     </row>
     <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="20">
+      <c r="B28" s="29">
         <v>2022</v>
       </c>
-      <c r="C28" s="21">
-        <v>10</v>
+      <c r="C28" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D28" s="5">
         <v>0.63</v>
@@ -1434,11 +1473,11 @@
       </c>
     </row>
     <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="22">
+      <c r="B29" s="30">
         <v>2022</v>
       </c>
-      <c r="C29" s="23">
-        <v>9</v>
+      <c r="C29" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D29" s="9">
         <v>0.67</v>
@@ -1460,11 +1499,11 @@
       </c>
     </row>
     <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20">
+      <c r="B30" s="29">
         <v>2022</v>
       </c>
-      <c r="C30" s="21">
-        <v>8</v>
+      <c r="C30" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="5">
         <v>0.8</v>
@@ -1486,11 +1525,11 @@
       </c>
     </row>
     <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="22">
+      <c r="B31" s="30">
         <v>2022</v>
       </c>
-      <c r="C31" s="23">
-        <v>7</v>
+      <c r="C31" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="9">
         <v>0.62</v>
@@ -1512,11 +1551,11 @@
       </c>
     </row>
     <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="20">
+      <c r="B32" s="29">
         <v>2022</v>
       </c>
-      <c r="C32" s="21">
-        <v>6</v>
+      <c r="C32" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="5">
         <v>0.77</v>
@@ -1538,11 +1577,11 @@
       </c>
     </row>
     <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="22">
+      <c r="B33" s="30">
         <v>2022</v>
       </c>
-      <c r="C33" s="23">
-        <v>5</v>
+      <c r="C33" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="D33" s="9">
         <v>0.59</v>
@@ -1564,11 +1603,11 @@
       </c>
     </row>
     <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="20">
+      <c r="B34" s="29">
         <v>2022</v>
       </c>
-      <c r="C34" s="21">
-        <v>4</v>
+      <c r="C34" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D34" s="5">
         <v>0.78</v>
@@ -1590,11 +1629,11 @@
       </c>
     </row>
     <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="22">
+      <c r="B35" s="30">
         <v>2022</v>
       </c>
-      <c r="C35" s="23">
-        <v>3</v>
+      <c r="C35" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D35" s="9">
         <v>0.72</v>
@@ -1616,11 +1655,11 @@
       </c>
     </row>
     <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20">
+      <c r="B36" s="29">
         <v>2022</v>
       </c>
-      <c r="C36" s="21">
-        <v>2</v>
+      <c r="C36" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D36" s="5">
         <v>0.76</v>
@@ -1642,11 +1681,11 @@
       </c>
     </row>
     <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24">
+      <c r="B37" s="31">
         <v>2022</v>
       </c>
-      <c r="C37" s="25">
-        <v>1</v>
+      <c r="C37" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D37" s="11">
         <v>0.62</v>
@@ -1668,11 +1707,11 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="26">
+      <c r="B38" s="32">
         <v>2021</v>
       </c>
-      <c r="C38" s="27">
-        <v>12</v>
+      <c r="C38" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="13">
         <v>0.8</v>
@@ -1694,11 +1733,11 @@
       </c>
     </row>
     <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="22">
+      <c r="B39" s="30">
         <v>2021</v>
       </c>
-      <c r="C39" s="23">
-        <v>11</v>
+      <c r="C39" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="D39" s="9">
         <v>0.37</v>
@@ -1720,11 +1759,11 @@
       </c>
     </row>
     <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20">
+      <c r="B40" s="29">
         <v>2021</v>
       </c>
-      <c r="C40" s="21">
-        <v>10</v>
+      <c r="C40" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D40" s="5">
         <v>0.49</v>
@@ -1746,11 +1785,11 @@
       </c>
     </row>
     <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="22">
+      <c r="B41" s="30">
         <v>2021</v>
       </c>
-      <c r="C41" s="23">
-        <v>9</v>
+      <c r="C41" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D41" s="9">
         <v>0.46</v>
@@ -1772,11 +1811,11 @@
       </c>
     </row>
     <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="20">
+      <c r="B42" s="29">
         <v>2021</v>
       </c>
-      <c r="C42" s="21">
-        <v>8</v>
+      <c r="C42" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D42" s="5">
         <v>0.43</v>
@@ -1798,11 +1837,11 @@
       </c>
     </row>
     <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="22">
+      <c r="B43" s="30">
         <v>2021</v>
       </c>
-      <c r="C43" s="23">
-        <v>7</v>
+      <c r="C43" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="D43" s="9">
         <v>0.48</v>
@@ -1824,11 +1863,11 @@
       </c>
     </row>
     <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="20">
+      <c r="B44" s="29">
         <v>2021</v>
       </c>
-      <c r="C44" s="21">
-        <v>6</v>
+      <c r="C44" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="D44" s="5">
         <v>0.56999999999999995</v>
@@ -1850,11 +1889,11 @@
       </c>
     </row>
     <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="22">
+      <c r="B45" s="30">
         <v>2021</v>
       </c>
-      <c r="C45" s="23">
-        <v>5</v>
+      <c r="C45" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="D45" s="9">
         <v>0.53</v>
@@ -1876,11 +1915,11 @@
       </c>
     </row>
     <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="20">
+      <c r="B46" s="29">
         <v>2021</v>
       </c>
-      <c r="C46" s="21">
-        <v>4</v>
+      <c r="C46" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D46" s="5">
         <v>0.37</v>
@@ -1902,11 +1941,11 @@
       </c>
     </row>
     <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="22">
+      <c r="B47" s="30">
         <v>2021</v>
       </c>
-      <c r="C47" s="23">
-        <v>3</v>
+      <c r="C47" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D47" s="9">
         <v>0.54</v>
@@ -1928,11 +1967,11 @@
       </c>
     </row>
     <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="20">
+      <c r="B48" s="29">
         <v>2021</v>
       </c>
-      <c r="C48" s="21">
-        <v>2</v>
+      <c r="C48" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D48" s="5">
         <v>0.39</v>
@@ -1954,11 +1993,11 @@
       </c>
     </row>
     <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="24">
+      <c r="B49" s="31">
         <v>2021</v>
       </c>
-      <c r="C49" s="25">
-        <v>1</v>
+      <c r="C49" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D49" s="11">
         <v>0.36</v>
@@ -1980,11 +2019,11 @@
       </c>
     </row>
     <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="26">
+      <c r="B50" s="32">
         <v>2020</v>
       </c>
-      <c r="C50" s="27">
-        <v>12</v>
+      <c r="C50" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="D50" s="13">
         <v>0.55000000000000004</v>
@@ -2006,11 +2045,11 @@
       </c>
     </row>
     <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="22">
+      <c r="B51" s="30">
         <v>2020</v>
       </c>
-      <c r="C51" s="23">
-        <v>11</v>
+      <c r="C51" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="D51" s="9">
         <v>-0.08</v>
@@ -2032,11 +2071,11 @@
       </c>
     </row>
     <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="20">
+      <c r="B52" s="29">
         <v>2020</v>
       </c>
-      <c r="C52" s="21">
-        <v>10</v>
+      <c r="C52" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D52" s="5">
         <v>0.24</v>
@@ -2058,11 +2097,11 @@
       </c>
     </row>
     <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="22">
+      <c r="B53" s="30">
         <v>2020</v>
       </c>
-      <c r="C53" s="23">
-        <v>9</v>
+      <c r="C53" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D53" s="9">
         <v>0.32</v>
@@ -2084,11 +2123,11 @@
       </c>
     </row>
     <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="20">
+      <c r="B54" s="29">
         <v>2020</v>
       </c>
-      <c r="C54" s="21">
-        <v>8</v>
+      <c r="C54" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D54" s="5">
         <v>0.32</v>
@@ -2110,11 +2149,11 @@
       </c>
     </row>
     <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="22">
+      <c r="B55" s="30">
         <v>2020</v>
       </c>
-      <c r="C55" s="23">
-        <v>7</v>
+      <c r="C55" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="D55" s="9">
         <v>0.4</v>
@@ -2136,11 +2175,11 @@
       </c>
     </row>
     <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="20">
+      <c r="B56" s="29">
         <v>2020</v>
       </c>
-      <c r="C56" s="21">
-        <v>6</v>
+      <c r="C56" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="D56" s="5">
         <v>0.37</v>
@@ -2162,11 +2201,11 @@
       </c>
     </row>
     <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="22">
+      <c r="B57" s="30">
         <v>2020</v>
       </c>
-      <c r="C57" s="23">
-        <v>5</v>
+      <c r="C57" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="D57" s="9">
         <v>0.3</v>
@@ -2188,11 +2227,11 @@
       </c>
     </row>
     <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="20">
+      <c r="B58" s="29">
         <v>2020</v>
       </c>
-      <c r="C58" s="21">
-        <v>4</v>
+      <c r="C58" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D58" s="5">
         <v>0.36</v>
@@ -2214,11 +2253,11 @@
       </c>
     </row>
     <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="22">
+      <c r="B59" s="30">
         <v>2020</v>
       </c>
-      <c r="C59" s="23">
-        <v>3</v>
+      <c r="C59" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D59" s="9">
         <v>0.28999999999999998</v>
@@ -2240,11 +2279,11 @@
       </c>
     </row>
     <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="20">
+      <c r="B60" s="29">
         <v>2020</v>
       </c>
-      <c r="C60" s="21">
-        <v>2</v>
+      <c r="C60" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D60" s="5">
         <v>0.36</v>
@@ -2266,11 +2305,11 @@
       </c>
     </row>
     <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="24">
+      <c r="B61" s="31">
         <v>2020</v>
       </c>
-      <c r="C61" s="25">
-        <v>1</v>
+      <c r="C61" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D61" s="11">
         <v>0.33</v>
@@ -2292,11 +2331,11 @@
       </c>
     </row>
     <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="26">
+      <c r="B62" s="32">
         <v>2019</v>
       </c>
-      <c r="C62" s="27">
-        <v>12</v>
+      <c r="C62" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="D62" s="13">
         <v>0.41</v>
@@ -2318,11 +2357,11 @@
       </c>
     </row>
     <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="22">
+      <c r="B63" s="30">
         <v>2019</v>
       </c>
-      <c r="C63" s="23">
-        <v>11</v>
+      <c r="C63" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="D63" s="9">
         <v>0.22</v>
@@ -2344,11 +2383,11 @@
       </c>
     </row>
     <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="20">
+      <c r="B64" s="29">
         <v>2019</v>
       </c>
-      <c r="C64" s="21">
-        <v>10</v>
+      <c r="C64" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D64" s="5">
         <v>0.25</v>
@@ -2370,11 +2409,11 @@
       </c>
     </row>
     <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="22">
+      <c r="B65" s="30">
         <v>2019</v>
       </c>
-      <c r="C65" s="23">
-        <v>9</v>
+      <c r="C65" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D65" s="9">
         <v>0.3</v>
@@ -2396,11 +2435,11 @@
       </c>
     </row>
     <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="20">
+      <c r="B66" s="29">
         <v>2019</v>
       </c>
-      <c r="C66" s="21">
-        <v>8</v>
+      <c r="C66" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D66" s="5">
         <v>0.2</v>
@@ -2422,11 +2461,11 @@
       </c>
     </row>
     <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="22">
+      <c r="B67" s="30">
         <v>2019</v>
       </c>
-      <c r="C67" s="23">
-        <v>7</v>
+      <c r="C67" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="D67" s="9">
         <v>0.26</v>
@@ -2448,11 +2487,11 @@
       </c>
     </row>
     <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="20">
+      <c r="B68" s="29">
         <v>2019</v>
       </c>
-      <c r="C68" s="21">
-        <v>6</v>
+      <c r="C68" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="D68" s="5">
         <v>0.3</v>
@@ -2474,11 +2513,11 @@
       </c>
     </row>
     <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="22">
+      <c r="B69" s="30">
         <v>2019</v>
       </c>
-      <c r="C69" s="23">
-        <v>5</v>
+      <c r="C69" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="D69" s="9">
         <v>0.16</v>
@@ -2500,11 +2539,11 @@
       </c>
     </row>
     <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="20">
+      <c r="B70" s="29">
         <v>2019</v>
       </c>
-      <c r="C70" s="21">
-        <v>4</v>
+      <c r="C70" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D70" s="5">
         <v>0.46</v>
@@ -2526,11 +2565,11 @@
       </c>
     </row>
     <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="22">
+      <c r="B71" s="30">
         <v>2019</v>
       </c>
-      <c r="C71" s="23">
-        <v>3</v>
+      <c r="C71" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D71" s="9">
         <v>0.34</v>
@@ -2552,11 +2591,11 @@
       </c>
     </row>
     <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="20">
+      <c r="B72" s="29">
         <v>2019</v>
       </c>
-      <c r="C72" s="21">
-        <v>2</v>
+      <c r="C72" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D72" s="5">
         <v>0.43</v>
@@ -2578,11 +2617,11 @@
       </c>
     </row>
     <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="24">
+      <c r="B73" s="31">
         <v>2019</v>
       </c>
-      <c r="C73" s="25">
-        <v>1</v>
+      <c r="C73" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D73" s="11">
         <v>0.2</v>
@@ -2604,11 +2643,11 @@
       </c>
     </row>
     <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="21">
+      <c r="B74" s="25">
         <v>2018</v>
       </c>
-      <c r="C74" s="21">
-        <v>12</v>
+      <c r="C74" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="D74" s="5">
         <v>0.47</v>
@@ -2630,11 +2669,11 @@
       </c>
     </row>
     <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="23">
+      <c r="B75" s="26">
         <v>2018</v>
       </c>
-      <c r="C75" s="23">
-        <v>11</v>
+      <c r="C75" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="D75" s="8">
         <v>0.25</v>
@@ -2656,11 +2695,11 @@
       </c>
     </row>
     <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="21">
+      <c r="B76" s="25">
         <v>2018</v>
       </c>
-      <c r="C76" s="21">
-        <v>10</v>
+      <c r="C76" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D76" s="5">
         <v>0.31</v>
@@ -2682,11 +2721,11 @@
       </c>
     </row>
     <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="23">
+      <c r="B77" s="26">
         <v>2018</v>
       </c>
-      <c r="C77" s="23">
-        <v>9</v>
+      <c r="C77" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D77" s="8">
         <v>0.32</v>
@@ -2708,11 +2747,11 @@
       </c>
     </row>
     <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="21">
+      <c r="B78" s="25">
         <v>2018</v>
       </c>
-      <c r="C78" s="21">
-        <v>8</v>
+      <c r="C78" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D78" s="5">
         <v>0.25</v>
@@ -2734,11 +2773,11 @@
       </c>
     </row>
     <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="23">
+      <c r="B79" s="26">
         <v>2018</v>
       </c>
-      <c r="C79" s="23">
-        <v>7</v>
+      <c r="C79" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="D79" s="8">
         <v>0.28999999999999998</v>
@@ -2760,11 +2799,11 @@
       </c>
     </row>
     <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="21">
+      <c r="B80" s="25">
         <v>2018</v>
       </c>
-      <c r="C80" s="21">
-        <v>6</v>
+      <c r="C80" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="D80" s="5">
         <v>0.23</v>
@@ -2786,11 +2825,11 @@
       </c>
     </row>
     <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="23">
+      <c r="B81" s="26">
         <v>2018</v>
       </c>
-      <c r="C81" s="23">
-        <v>5</v>
+      <c r="C81" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="D81" s="8">
         <v>0.26</v>
@@ -2812,11 +2851,11 @@
       </c>
     </row>
     <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="21">
+      <c r="B82" s="25">
         <v>2018</v>
       </c>
-      <c r="C82" s="21">
-        <v>4</v>
+      <c r="C82" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D82" s="5">
         <v>0.15</v>
@@ -2838,11 +2877,11 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="23">
+      <c r="B83" s="26">
         <v>2018</v>
       </c>
-      <c r="C83" s="23">
-        <v>3</v>
+      <c r="C83" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D83" s="8">
         <v>0.33</v>
@@ -2864,11 +2903,11 @@
       </c>
     </row>
     <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="21">
+      <c r="B84" s="25">
         <v>2018</v>
       </c>
-      <c r="C84" s="21">
-        <v>2</v>
+      <c r="C84" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D84" s="5">
         <v>0.49</v>
@@ -2890,11 +2929,11 @@
       </c>
     </row>
     <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="23">
+      <c r="B85" s="26">
         <v>2018</v>
       </c>
-      <c r="C85" s="23">
-        <v>1</v>
+      <c r="C85" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="D85" s="8">
         <v>0.28000000000000003</v>
@@ -2917,32 +2956,32 @@
       <c r="L85" s="3"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>14</v>
+      <c r="B86" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B88" s="2" t="s">
-        <v>1</v>
+      <c r="B88" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -2953,12 +2992,12 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B90" s="31" t="s">
-        <v>16</v>
+      <c r="B90" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D650A5-DD5D-4B5C-A46C-4CDB3E04AAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E2B568-4BEC-48A2-A6C8-419F2A61EF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>(Variación porcentual)</t>
   </si>
@@ -122,7 +122,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -132,23 +132,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,28 +156,43 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -347,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -421,6 +436,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,7 +453,7 @@
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -492,7 +513,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -514,6 +535,16 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -528,8 +559,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I86" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I86" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I87" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I87" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -554,7 +585,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -562,28 +593,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -592,14 +623,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -774,26 +805,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O91"/>
+  <dimension ref="B2:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.69921875" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
@@ -810,8 +841,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
@@ -828,19 +859,19 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -848,7 +879,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
@@ -874,2128 +905,2142 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28">
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.08</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.36347128034499998</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.5839230062159997</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5.4093956461269999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="28">
         <v>2024</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>3.91</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>2.79</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>0.82606636652200005</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H7" s="9">
         <v>5.9443100216460003</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="10">
         <v>5.0276503008609996</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="27">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="27">
         <v>2024</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="5">
         <v>0.22</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <v>2.5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <v>0.369278560704</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="5">
         <v>5.4435169997889998</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="6">
         <v>4.1671604236400004</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="28">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="28">
         <v>2024</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>0.32</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>4.05</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>2.27</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>0.57640336761699995</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <v>5.2622559551570003</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I9" s="10">
         <v>3.7839086993529998</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="27">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
         <v>2024</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>0.22</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>4.13</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <v>1.95</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>1.2563585232509999</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="5">
         <v>4.8260810216649999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I10" s="6">
         <v>3.1891231186829998</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="28">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="28">
         <v>2024</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>0.17</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>4.21</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>1.73</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>0.42360958839500001</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>3.3687665536420002</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I11" s="10">
         <v>1.9087834320920001</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="27">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="27">
         <v>2024</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>0.21</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>4.37</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>1.55</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="5">
         <v>0.25418029563599998</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="5">
         <v>2.7425824040540001</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I12" s="6">
         <v>1.478909043187</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="28">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="28">
         <v>2024</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>0.44</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>4.55</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>1.34</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>0.53214056444000002</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <v>2.3469442441570001</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I13" s="10">
         <v>1.2216236210189999</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="27">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
         <v>2024</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="5">
         <v>0.49</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <v>0.9</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G14" s="5">
         <v>0.348921618228</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="5">
         <v>2.3687450634360001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <v>0.68583345854199995</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="29">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="29">
         <v>2024</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>0.4</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>4.76</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>0.4</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>0.33574036958300002</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <v>2.1715546272230002</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="12">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="30">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="30">
         <v>2023</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>0.44</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>5.09</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>5.09</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>0.147495845343</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>2.3990681262220002</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>2.3990681262220002</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="28">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="28">
         <v>2023</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>0.26</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>5.3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>4.63</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>1.8048505045E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="9">
         <v>2.6522066151989998</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I17" s="10">
         <v>2.248256196397</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="27">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="27">
         <v>2023</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>0.39</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>5.5</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <v>0.70603945590799999</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="5">
         <v>2.5168997772570001</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I18" s="6">
         <v>2.2298052448400001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="28">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="28">
         <v>2023</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>0.36</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>5.76</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>3.95</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>0.34946700552499999</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <v>1.9439072454349999</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I19" s="10">
         <v>1.513082827172</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="27">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="27">
         <v>2023</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>0.27</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>6.08</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <v>3.58</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>0.196740307063</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="5">
         <v>1.675847035776</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="6">
         <v>1.159563529703</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="28">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="28">
         <v>2023</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>0.39</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>6.64</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>3.3</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>0.15964518918199999</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
         <v>1.530754654866</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I21" s="10">
         <v>0.96093268073299998</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="27">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
         <v>2023</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <v>0.3</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>6.89</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>2.89</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="5">
         <v>-0.15132890355199999</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="5">
         <v>2.1835078429219998</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="6">
         <v>0.80001031357200003</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="28">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="28">
         <v>2023</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>0.32</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>7.39</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>2.59</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>-0.18473347948900001</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <v>2.9355319108579998</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I23" s="10">
         <v>0.95278105024100002</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="27">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="27">
         <v>2023</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <v>0.39</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>7.67</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <v>-0.13187559751</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="5">
         <v>3.6988889525249999</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="6">
         <v>1.1396197890190001</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="28">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="28">
         <v>2023</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>0.52</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>8.09</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>1.86</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <v>0.55355481421800001</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H25" s="9">
         <v>4.5062159802339998</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I25" s="10">
         <v>1.2731743928670001</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="27">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="27">
         <v>2023</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <v>0.61</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F26" s="5">
         <v>1.33</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G26" s="5">
         <v>0.15562191903600001</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H26" s="5">
         <v>5.242353451924</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="29">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="29">
         <v>2023</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>0.71</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>0.71</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>0.55916591546500005</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <v>5.9305104600370004</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="12">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="30">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="30">
         <v>2022</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>0.65</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>8.35</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>8.35</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>0.39506827189900001</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>5.5533388149269998</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>5.5533388149269998</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="28">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="28">
         <v>2022</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>0.45</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>8.51</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>7.65</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>-0.113786224344</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="9">
         <v>6.1787824133119997</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I29" s="10">
         <v>5.1379720456570004</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="27">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="27">
         <v>2022</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D30" s="5">
         <v>0.63</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>8.42</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <v>7.17</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <v>0.143168274249</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H30" s="5">
         <v>7.2420809480689998</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I30" s="6">
         <v>5.2577408548060003</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="28">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="28">
         <v>2022</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>0.67</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>6.5</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>8.5599356230999998E-2</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <v>7.9839703932569996</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I31" s="10">
         <v>5.1072606036890003</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="27">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="27">
         <v>2022</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D32" s="5">
         <v>0.8</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F32" s="5">
         <v>5.79</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G32" s="5">
         <v>5.3758625233999997E-2</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H32" s="5">
         <v>8.2770800745350002</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I32" s="6">
         <v>5.0173664141080003</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="28">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="28">
         <v>2022</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>0.62</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>7.65</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>4.95</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>0.80358335288500005</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H33" s="9">
         <v>8.5613806924040006</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I33" s="10">
         <v>4.9609408552709997</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="27">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="27">
         <v>2022</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C34" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <v>0.77</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>7.49</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F34" s="5">
         <v>4.3</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G34" s="5">
         <v>0.58351182956699998</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H34" s="5">
         <v>8.1206306866349998</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I34" s="6">
         <v>4.1242159892599997</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="28">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="28">
         <v>2022</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>0.59</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>7.28</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>3.5</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>0.55548406395600003</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H35" s="9">
         <v>8.3083117124939996</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I35" s="10">
         <v>3.5201635887329998</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="27">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="27">
         <v>2022</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C36" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <v>0.78</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>7.22</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F36" s="5">
         <v>2.9</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G36" s="5">
         <v>0.64562777645299996</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H36" s="5">
         <v>8.3624942961670001</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I36" s="6">
         <v>2.948302176031</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="28">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="28">
         <v>2022</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>0.72</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>6.78</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>2.1</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="9">
         <v>1.261849903808</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H37" s="9">
         <v>7.8586284732739999</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I37" s="10">
         <v>2.2879030619130001</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="27">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="27">
         <v>2022</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C38" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D38" s="5">
         <v>0.76</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E38" s="5">
         <v>6.59</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F38" s="5">
         <v>1.38</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G38" s="5">
         <v>0.81051788881300002</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H38" s="5">
         <v>7.882525801491</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <v>1.013267246331</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="29">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="29">
         <v>2022</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>0.62</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>6.21</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>0.62</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>0.201119250019</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="11">
         <v>7.9360282135400002</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I39" s="12">
         <v>0.201119250019</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="30">
+    <row r="40" spans="2:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="30">
         <v>2021</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C40" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>0.8</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>5.94</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>5.94</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>0.98994715934099997</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>8.4353053849300004</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="14">
         <v>8.4353053849300004</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="28">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="28">
         <v>2021</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C41" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>0.37</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>5.67</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>5.09</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>0.88649709343500005</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H41" s="9">
         <v>7.2086688466229996</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I41" s="10">
         <v>7.3723756027340004</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="27">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="27">
         <v>2021</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C42" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>0.49</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>5.19</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F42" s="5">
         <v>4.71</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G42" s="5">
         <v>0.83594818763300005</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H42" s="5">
         <v>5.9199708831139999</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I42" s="6">
         <v>6.4288866163060003</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="28">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="28">
         <v>2021</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C43" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>0.46</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>4.92</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="9">
         <v>0.35726984603599998</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H43" s="9">
         <v>5.164508955364</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I43" s="10">
         <v>5.5465719608899997</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="27">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="27">
         <v>2021</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C44" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D44" s="5">
         <v>0.43</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>4.78</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F44" s="5">
         <v>3.72</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G44" s="5">
         <v>0.316467458699</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H44" s="5">
         <v>4.5155081427589998</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I44" s="6">
         <v>5.1708283045319998</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="28">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="28">
         <v>2021</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C45" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>0.48</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>4.66</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>3.28</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G45" s="9">
         <v>0.39432934689400001</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H45" s="9">
         <v>4.3958643907160004</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I45" s="10">
         <v>4.8390468372819999</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="27">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="27">
         <v>2021</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C46" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D46" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>4.58</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F46" s="5">
         <v>2.79</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G46" s="5">
         <v>0.75810955957199999</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H46" s="5">
         <v>4.8265532737239996</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I46" s="6">
         <v>4.4272595068890004</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="28">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="28">
         <v>2021</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C47" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>0.53</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>4.37</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>0.60578819891000002</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H47" s="9">
         <v>3.1959619273520001</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I47" s="10">
         <v>3.6415430612540001</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="27">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="27">
         <v>2021</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C48" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D48" s="5">
         <v>0.37</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>4.13</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F48" s="5">
         <v>1.67</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G48" s="5">
         <v>0.17764397458799999</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H48" s="5">
         <v>2.1669307819279999</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I48" s="6">
         <v>3.0174753527510001</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="28">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="28">
         <v>2021</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>0.54</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>4.12</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>1.3</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G49" s="9">
         <v>1.284285639338</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H49" s="9">
         <v>4.1277875031009996</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I49" s="10">
         <v>2.8347955347039999</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="27">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="27">
         <v>2021</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C50" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D50" s="5">
         <v>0.39</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E50" s="5">
         <v>3.87</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F50" s="5">
         <v>0.75</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G50" s="5">
         <v>0.86051306483400003</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H50" s="5">
         <v>5.442223849636</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I50" s="6">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="29">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="29">
         <v>2021</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>0.36</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>3.84</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>0.36</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>0.66461723319800003</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H51" s="11">
         <v>5.0089705057009999</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I51" s="12">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="30">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="30">
         <v>2020</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C52" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>3.8</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>3.8</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>4.0477807569659996</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="14">
         <v>4.0477807569659996</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="28">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="28">
         <v>2020</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C53" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>-0.08</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>3.66</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>3.24</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="9">
         <v>-0.32620543098400001</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H53" s="9">
         <v>4.5265419274339997</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I53" s="10">
         <v>4.2066608629460003</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="27">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="27">
         <v>2020</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C54" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D54" s="5">
         <v>0.24</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E54" s="5">
         <v>3.98</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F54" s="5">
         <v>3.33</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G54" s="5">
         <v>0.116747463074</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H54" s="5">
         <v>5.1137554069669999</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I54" s="6">
         <v>4.5477011420390001</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="28">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="28">
         <v>2020</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C55" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>0.32</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>3.99</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>3.08</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G55" s="9">
         <v>-0.26206409397699998</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H55" s="9">
         <v>4.8518955410490001</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I55" s="10">
         <v>4.4257866852900003</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="27">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="27">
         <v>2020</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C56" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D56" s="5">
         <v>0.32</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="5">
         <v>3.97</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F56" s="5">
         <v>2.75</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G56" s="5">
         <v>0.201630543376</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H56" s="5">
         <v>5.6406719752800001</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I56" s="6">
         <v>4.7001682325600003</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="28">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="28">
         <v>2020</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C57" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>0.4</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>3.85</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G57" s="9">
         <v>0.80850975355200005</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H57" s="9">
         <v>5.3835626013460001</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I57" s="10">
         <v>4.4894855151449997</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="27">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="27">
         <v>2020</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C58" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D58" s="5">
         <v>0.37</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E58" s="5">
         <v>3.71</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F58" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G58" s="5">
         <v>-0.80919658942999995</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H58" s="5">
         <v>4.684646083144</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I58" s="6">
         <v>3.6514534046699998</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="28">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="28">
         <v>2020</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C59" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>0.3</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>3.64</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>1.65</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>-0.39741471264900002</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H59" s="9">
         <v>6.0913765134869999</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I59" s="10">
         <v>4.4970398874960003</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="27">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="27">
         <v>2020</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C60" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D60" s="5">
         <v>0.36</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E60" s="5">
         <v>3.5</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F60" s="5">
         <v>1.35</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G60" s="5">
         <v>2.100320960141</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H60" s="5">
         <v>6.5491539587240002</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I60" s="6">
         <v>4.9139834935250004</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="28">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="28">
         <v>2020</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C61" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>3.6</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>0.99</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G61" s="9">
         <v>2.562827607524</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H61" s="9">
         <v>4.6539310234500002</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I61" s="10">
         <v>2.755782260942</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="27">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="27">
         <v>2020</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C62" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D62" s="5">
         <v>0.36</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E62" s="5">
         <v>3.66</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F62" s="5">
         <v>0.69</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G62" s="5">
         <v>0.44608559013799998</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H62" s="5">
         <v>2.2791453993499999</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="6">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="29">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="29">
         <v>2020</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C63" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>0.33</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>3.73</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>0.33</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H63" s="11">
         <v>1.84862881086</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I63" s="12">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="30">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="30">
         <v>2019</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C64" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>0.41</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>3.59</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>3.59</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>0.306967963314</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>1.586696971267</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="14">
         <v>1.586696971267</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="28">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="28">
         <v>2019</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C65" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>0.22</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>3.65</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>3.17</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="9">
         <v>0.23374608609399999</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H65" s="9">
         <v>1.8270378469140001</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I65" s="10">
         <v>1.2758126717789999</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="27">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="27">
         <v>2019</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C66" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D66" s="5">
         <v>0.25</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E66" s="5">
         <v>3.68</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F66" s="5">
         <v>2.94</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G66" s="5">
         <v>-0.13266383391</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H66" s="5">
         <v>3.0075460228350002</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I66" s="6">
         <v>1.0396364761120001</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="28">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="28">
         <v>2019</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>0.3</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>3.75</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>2.69</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G67" s="9">
         <v>0.48824121081100003</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H67" s="9">
         <v>3.4825490942520001</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I67" s="10">
         <v>1.173857594512</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="27">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="27">
         <v>2019</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C68" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D68" s="5">
         <v>0.2</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E68" s="5">
         <v>3.78</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F68" s="5">
         <v>2.39</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G68" s="5">
         <v>-4.2241234551999997E-2</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H68" s="5">
         <v>3.5690342385120002</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="6">
         <v>0.68228518624599999</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="28">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="28">
         <v>2019</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C69" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>0.26</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>3.82</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G69" s="9">
         <v>0.139935538533</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H69" s="9">
         <v>3.6017852246089999</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I69" s="10">
         <v>0.72483259903599995</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="27">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="27">
         <v>2019</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C70" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D70" s="5">
         <v>0.3</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <v>3.85</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <v>1.91</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G70" s="5">
         <v>0.523708729436</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H70" s="5">
         <v>2.8051480354380001</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I70" s="6">
         <v>0.58407972539399999</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="28">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="28">
         <v>2019</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C71" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>0.16</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>3.77</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>1.6</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>3.2364017068000003E-2</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H71" s="9">
         <v>3.4106486148780002</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I71" s="10">
         <v>6.0056474956E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="27">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="27">
         <v>2019</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C72" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D72" s="5">
         <v>0.46</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E72" s="5">
         <v>3.87</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F72" s="5">
         <v>1.44</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G72" s="5">
         <v>0.28423080087500002</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H72" s="5">
         <v>4.691393512895</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I72" s="6">
         <v>2.7683498397E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="28">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="28">
         <v>2019</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C73" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>0.34</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>3.55</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>0.98</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G73" s="9">
         <v>0.23549287496900001</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H73" s="9">
         <v>4.3140852336069999</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I73" s="10">
         <v>-0.25582018272399998</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="27">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="27">
         <v>2019</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C74" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D74" s="5">
         <v>0.43</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E74" s="5">
         <v>3.54</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F74" s="5">
         <v>0.63</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G74" s="5">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H74" s="5">
         <v>4.5288462181250004</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I74" s="6">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="29">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="29">
         <v>2019</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C75" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>0.2</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>3.6</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>0.2</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>-0.513324016898</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H75" s="11">
         <v>4.7656059104970003</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I75" s="12">
         <v>-0.513324016898</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="23">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="23">
         <v>2018</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C76" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <v>0.47</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E76" s="5">
         <v>3.68</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F76" s="5">
         <v>3.68</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G76" s="5">
         <v>0.54428116703600005</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H76" s="5">
         <v>5.9416820029600004</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I76" s="5">
         <v>5.9416820029600004</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="24">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="24">
         <v>2018</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C77" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <v>0.25</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="8">
         <v>3.63</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F77" s="8">
         <v>3.2</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="8">
         <v>1.395782803059</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H77" s="8">
         <v>5.803199134233</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I77" s="9">
         <v>5.3681828277810002</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="23">
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="23">
         <v>2018</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C78" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D78" s="5">
         <v>0.31</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>3.73</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F78" s="5">
         <v>2.94</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G78" s="5">
         <v>0.327858654438</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H78" s="5">
         <v>5.3038402515170002</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I78" s="5">
         <v>3.9177172017480002</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="24">
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="24">
         <v>2018</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C79" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <v>0.32</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="8">
         <v>3.67</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F79" s="8">
         <v>2.62</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G79" s="8">
         <v>0.57222387372000005</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H79" s="8">
         <v>6.0001919453579999</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I79" s="9">
         <v>3.5781273471350001</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="23">
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="23">
         <v>2018</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C80" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D80" s="5">
         <v>0.25</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>3.63</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F80" s="5">
         <v>2.29</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G80" s="5">
         <v>-1.0632219447E-2</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H80" s="5">
         <v>5.557540466841</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I80" s="5">
         <v>2.988800841462</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="24">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="24">
         <v>2018</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E81" s="8">
         <v>3.63</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F81" s="8">
         <v>2.04</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G81" s="8">
         <v>-0.63008204946799995</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H81" s="8">
         <v>5.7518140773019999</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I81" s="9">
         <v>2.999752001124</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="23">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="23">
         <v>2018</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C82" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D82" s="5">
         <v>0.23</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="5">
         <v>3.62</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F82" s="5">
         <v>1.75</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G82" s="5">
         <v>1.1157721138700001</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H82" s="5">
         <v>6.3180830350320001</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I82" s="5">
         <v>3.6528500027540001</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="24">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="24">
         <v>2018</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <v>0.26</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="8">
         <v>3.69</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F83" s="8">
         <v>1.51</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="8">
         <v>1.27126872918</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H83" s="8">
         <v>4.8472071616769998</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I83" s="9">
         <v>2.5090822488370002</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="23">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="23">
         <v>2018</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C84" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D84" s="5">
         <v>0.15</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <v>3.71</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F84" s="5">
         <v>1.25</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G84" s="5">
         <v>-7.7194043074000004E-2</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H84" s="5">
         <v>3.7330131426480002</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I84" s="5">
         <v>1.2222751182939999</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="24">
+    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="24">
         <v>2018</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <v>0.33</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="8">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F85" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G85" s="8">
         <v>0.441856886936</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H85" s="8">
         <v>3.5773911178570001</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I85" s="9">
         <v>1.300473049094</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="23">
+    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="23">
         <v>2018</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C86" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D86" s="5">
         <v>0.49</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E86" s="5">
         <v>4.2699999999999996</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F86" s="5">
         <v>0.77</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G86" s="5">
         <v>0.24983929023699999</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H86" s="5">
         <v>2.9845963579829999</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I86" s="5">
         <v>0.85483899717699996</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="24">
+    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="24">
         <v>2018</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="8">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F87" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="8">
         <v>0.60349194694300001</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H87" s="8">
         <v>3.161283780502</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I87" s="9">
         <v>0.60349194694300001</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B87" s="2" t="s">
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B88" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -3005,24 +3050,36 @@
       <c r="H88" s="20"/>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B89" s="22" t="s">
-        <v>15</v>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B90" s="2" t="s">
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B91" s="21" t="s">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3032,6 +3089,9 @@
     <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8261DB8C-74B8-4583-B9C9-BC247E35359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0323040-8CC7-44B7-9BC2-28C6E4FE3933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
   <si>
     <t>(Variación porcentual)</t>
   </si>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">    El INPP incluye mercancías y servicios finales, excluyendo petróleo.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t xml:space="preserve"> Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -338,12 +338,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -424,12 +435,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -546,13 +575,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -576,6 +598,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -613,16 +642,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -637,8 +656,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I89" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I90" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="B5:I90" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -646,14 +665,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O94"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -984,2205 +1003,2219 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="15">
+      <c r="B6" s="34">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.41</v>
+      </c>
+      <c r="E6" s="36">
+        <v>3.66</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0.41</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0.30404639613599999</v>
+      </c>
+      <c r="H6" s="36">
+        <v>6.9843789054740002</v>
+      </c>
+      <c r="I6" s="37">
+        <v>0.30404639613599999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D7" s="17">
         <v>0.51</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>3.65</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>3.65</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>0.59079793727399998</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="17">
         <v>7.0181837237850004</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="18">
         <v>7.0181837237850004</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+    <row r="8" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <v>0.05</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>3.58</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>3.13</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>0.92993636571899996</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="13">
         <v>6.5465562420249999</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>6.3896359491250001</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="15">
+    <row r="9" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>3.8</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>3.08</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>0.36347128034499998</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>5.5839230062159997</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="18">
         <v>5.4093956461269999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>3.91</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>2.79</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>0.82606636652200005</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>5.9443100216460003</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>5.0276503008609996</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="17">
         <v>0.22</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>4</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>2.5</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>0.369278560704</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H11" s="17">
         <v>5.4435169997889998</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="18">
         <v>4.1671604236400004</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>0.32</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>4.05</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>2.27</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>0.57640336761699995</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>5.2622559551570003</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="14">
         <v>3.7839086993529998</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="17">
         <v>0.22</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>4.13</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>1.95</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>1.2563585232509999</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>4.8260810216649999</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="18">
         <v>3.1891231186829998</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>0.17</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>4.21</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>1.73</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>0.42360958839500001</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>3.3687665536420002</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>1.9087834320920001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="17">
         <v>0.21</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>4.37</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>1.55</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>0.25418029563599998</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="17">
         <v>2.7425824040540001</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I15" s="18">
         <v>1.478909043187</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>0.44</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>4.55</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>1.34</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>0.53214056444000002</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>2.3469442441570001</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>1.2216236210189999</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="17">
         <v>0.49</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>0.9</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="17">
         <v>0.348921618228</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="17">
         <v>2.3687450634360001</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="18">
         <v>0.68583345854199995</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="19">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="19">
         <v>2024</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D18" s="21">
         <v>0.4</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E18" s="21">
         <v>4.76</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F18" s="21">
         <v>0.4</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G18" s="21">
         <v>0.33574036958300002</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H18" s="21">
         <v>2.1715546272230002</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I18" s="22">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="23">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="23">
         <v>2023</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D19" s="25">
         <v>0.44</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E19" s="25">
         <v>5.09</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F19" s="25">
         <v>5.09</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G19" s="25">
         <v>0.147495845343</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H19" s="25">
         <v>2.3990681262220002</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I19" s="26">
         <v>2.3990681262220002</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>0.26</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>5.3</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>4.63</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>1.8048505045E-2</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>2.6522066151989998</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I20" s="14">
         <v>2.248256196397</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="17">
         <v>0.39</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>5.5</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>0.70603945590799999</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H21" s="17">
         <v>2.5168997772570001</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="18">
         <v>2.2298052448400001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>0.36</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>5.76</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>3.95</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>0.34946700552499999</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>1.9439072454349999</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>1.513082827172</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="17">
         <v>0.27</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>6.08</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>3.58</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="17">
         <v>0.196740307063</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H23" s="17">
         <v>1.675847035776</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="18">
         <v>1.159563529703</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <v>0.39</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>6.64</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>3.3</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>0.15964518918199999</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>1.530754654866</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="14">
         <v>0.96093268073299998</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <v>0.3</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>6.89</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>2.89</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="17">
         <v>-0.15132890355199999</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H25" s="17">
         <v>2.1835078429219998</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="18">
         <v>0.80001031357200003</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>0.32</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>7.39</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>2.59</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>-0.18473347948900001</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>2.9355319108579998</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>0.95278105024100002</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="17">
         <v>0.39</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>7.67</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="17">
         <v>-0.13187559751</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H27" s="17">
         <v>3.6988889525249999</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="18">
         <v>1.1396197890190001</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>0.52</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>8.09</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>1.86</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>0.55355481421800001</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>4.5062159802339998</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>1.2731743928670001</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="15">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="17">
         <v>0.61</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>1.33</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="17">
         <v>0.15562191903600001</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="17">
         <v>5.242353451924</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I29" s="18">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="19">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="19">
         <v>2023</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D30" s="21">
         <v>0.71</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E30" s="21">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F30" s="21">
         <v>0.71</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G30" s="21">
         <v>0.55916591546500005</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H30" s="21">
         <v>5.9305104600370004</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I30" s="22">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="23">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="23">
         <v>2022</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D31" s="25">
         <v>0.65</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E31" s="25">
         <v>8.35</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F31" s="25">
         <v>8.35</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G31" s="25">
         <v>0.39506827189900001</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H31" s="25">
         <v>5.5533388149269998</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I31" s="26">
         <v>5.5533388149269998</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="11">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>0.45</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>8.51</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>7.65</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>-0.113786224344</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>6.1787824133119997</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I32" s="14">
         <v>5.1379720456570004</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="17">
         <v>0.63</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>8.42</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>7.17</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G33" s="17">
         <v>0.143168274249</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="17">
         <v>7.2420809480689998</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I33" s="18">
         <v>5.2577408548060003</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>0.67</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>6.5</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>8.5599356230999998E-2</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>7.9839703932569996</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="14">
         <v>5.1072606036890003</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="15">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="17">
         <v>0.8</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>5.79</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G35" s="17">
         <v>5.3758625233999997E-2</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <v>8.2770800745350002</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I35" s="18">
         <v>5.0173664141080003</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="11">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>0.62</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>7.65</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>4.95</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>0.80358335288500005</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>8.5613806924040006</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I36" s="14">
         <v>4.9609408552709997</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="15">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="17">
         <v>0.77</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>7.49</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>4.3</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="17">
         <v>0.58351182956699998</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <v>8.1206306866349998</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I37" s="18">
         <v>4.1242159892599997</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="11">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>0.59</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>7.28</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>3.5</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>0.55548406395600003</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>8.3083117124939996</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="14">
         <v>3.5201635887329998</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="15">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="17">
         <v>0.78</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>7.22</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>2.9</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G39" s="17">
         <v>0.64562777645299996</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H39" s="17">
         <v>8.3624942961670001</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I39" s="18">
         <v>2.948302176031</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="11">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>0.72</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>6.78</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>2.1</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>1.261849903808</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>7.8586284732739999</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="14">
         <v>2.2879030619130001</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="15">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <v>0.76</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>6.59</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>1.38</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="17">
         <v>0.81051788881300002</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="17">
         <v>7.882525801491</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I41" s="18">
         <v>1.013267246331</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="19">
+    <row r="42" spans="2:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="19">
         <v>2022</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D42" s="21">
         <v>0.62</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E42" s="21">
         <v>6.21</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F42" s="21">
         <v>0.62</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G42" s="21">
         <v>0.201119250019</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H42" s="21">
         <v>7.9360282135400002</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I42" s="22">
         <v>0.201119250019</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="23">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="23">
         <v>2021</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C43" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D43" s="25">
         <v>0.8</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E43" s="25">
         <v>5.94</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F43" s="25">
         <v>5.94</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G43" s="25">
         <v>0.98994715934099997</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H43" s="25">
         <v>8.4353053849300004</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I43" s="26">
         <v>8.4353053849300004</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="11">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="11">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <v>0.37</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>5.67</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>5.09</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>0.88649709343500005</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>7.2086688466229996</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I44" s="14">
         <v>7.3723756027340004</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="17">
         <v>0.49</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>5.19</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>4.71</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="17">
         <v>0.83594818763300005</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="17">
         <v>5.9199708831139999</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I45" s="18">
         <v>6.4288866163060003</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="11">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <v>0.46</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>4.92</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>0.35726984603599998</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>5.164508955364</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="14">
         <v>5.5465719608899997</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="15">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C47" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="17">
         <v>0.43</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>4.78</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>3.72</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G47" s="17">
         <v>0.316467458699</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H47" s="17">
         <v>4.5155081427589998</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I47" s="18">
         <v>5.1708283045319998</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="11">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>0.48</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>4.66</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>3.28</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>0.39432934689400001</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="13">
         <v>4.3958643907160004</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I48" s="14">
         <v>4.8390468372819999</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="15">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>4.58</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>2.79</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="17">
         <v>0.75810955957199999</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="17">
         <v>4.8265532737239996</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I49" s="18">
         <v>4.4272595068890004</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="11">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>0.53</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>4.37</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>0.60578819891000002</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>3.1959619273520001</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I50" s="14">
         <v>3.6415430612540001</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="15">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="17">
         <v>0.37</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>4.13</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>1.67</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="17">
         <v>0.17764397458799999</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H51" s="17">
         <v>2.1669307819279999</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I51" s="18">
         <v>3.0174753527510001</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="11">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>0.54</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>4.12</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>1.3</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>1.284285639338</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>4.1277875031009996</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="14">
         <v>2.8347955347039999</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="15">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <v>0.39</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>3.87</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>0.75</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="17">
         <v>0.86051306483400003</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="17">
         <v>5.442223849636</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I53" s="18">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="19">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="19">
         <v>2021</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D54" s="21">
         <v>0.36</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E54" s="21">
         <v>3.84</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F54" s="21">
         <v>0.36</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G54" s="21">
         <v>0.66461723319800003</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H54" s="21">
         <v>5.0089705057009999</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I54" s="22">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="23">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="23">
         <v>2020</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C55" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D55" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E55" s="25">
         <v>3.8</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F55" s="25">
         <v>3.8</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G55" s="25">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H55" s="25">
         <v>4.0477807569659996</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I55" s="26">
         <v>4.0477807569659996</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="11">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="11">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>-0.08</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>3.66</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>3.24</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>-0.32620543098400001</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>4.5265419274339997</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I56" s="14">
         <v>4.2066608629460003</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="15">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <v>0.24</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>3.98</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>3.33</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="17">
         <v>0.116747463074</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H57" s="17">
         <v>5.1137554069669999</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I57" s="18">
         <v>4.5477011420390001</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="11">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <v>0.32</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>3.99</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>3.08</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>-0.26206409397699998</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>4.8518955410490001</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I58" s="14">
         <v>4.4257866852900003</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="15">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="17">
         <v>0.32</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>3.97</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>2.75</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="17">
         <v>0.201630543376</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H59" s="17">
         <v>5.6406719752800001</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I59" s="18">
         <v>4.7001682325600003</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="11">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>0.4</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>3.85</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>0.80850975355200005</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="13">
         <v>5.3835626013460001</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I60" s="14">
         <v>4.4894855151449997</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="15">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <v>0.37</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>3.71</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="17">
         <v>-0.80919658942999995</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H61" s="17">
         <v>4.684646083144</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I61" s="18">
         <v>3.6514534046699998</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="11">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <v>0.3</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>3.64</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>1.65</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>-0.39741471264900002</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>6.0913765134869999</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I62" s="14">
         <v>4.4970398874960003</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="15">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="17">
         <v>0.36</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>3.5</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>1.35</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="17">
         <v>2.100320960141</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H63" s="17">
         <v>6.5491539587240002</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I63" s="18">
         <v>4.9139834935250004</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="11">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>3.6</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>0.99</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>2.562827607524</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>4.6539310234500002</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="14">
         <v>2.755782260942</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="15">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="17">
         <v>0.36</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>3.66</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>0.69</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="17">
         <v>0.44608559013799998</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="17">
         <v>2.2791453993499999</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I65" s="18">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="19">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="19">
         <v>2020</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D66" s="21">
         <v>0.33</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E66" s="21">
         <v>3.73</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F66" s="21">
         <v>0.33</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G66" s="21">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H66" s="21">
         <v>1.84862881086</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I66" s="22">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="23">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="23">
         <v>2019</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D67" s="25">
         <v>0.41</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E67" s="25">
         <v>3.59</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F67" s="25">
         <v>3.59</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G67" s="25">
         <v>0.306967963314</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H67" s="25">
         <v>1.586696971267</v>
       </c>
-      <c r="I66" s="26">
+      <c r="I67" s="26">
         <v>1.586696971267</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="11">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="11">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <v>0.22</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>3.65</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>3.17</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>0.23374608609399999</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H68" s="13">
         <v>1.8270378469140001</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I68" s="14">
         <v>1.2758126717789999</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="15">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="17">
         <v>0.25</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>3.68</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>2.94</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G69" s="17">
         <v>-0.13266383391</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H69" s="17">
         <v>3.0075460228350002</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I69" s="18">
         <v>1.0396364761120001</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="11">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <v>0.3</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>3.75</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>2.69</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>0.48824121081100003</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>3.4825490942520001</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="14">
         <v>1.173857594512</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="15">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="17">
         <v>0.2</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>3.78</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>2.39</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G71" s="17">
         <v>-4.2241234551999997E-2</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H71" s="17">
         <v>3.5690342385120002</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I71" s="18">
         <v>0.68228518624599999</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="11">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>0.26</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>3.82</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>0.139935538533</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H72" s="13">
         <v>3.6017852246089999</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I72" s="14">
         <v>0.72483259903599995</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="15">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="17">
         <v>0.3</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>3.85</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>1.91</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G73" s="17">
         <v>0.523708729436</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H73" s="17">
         <v>2.8051480354380001</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I73" s="18">
         <v>0.58407972539399999</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="11">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>0.16</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>3.77</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>1.6</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>3.2364017068000003E-2</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>3.4106486148780002</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="14">
         <v>6.0056474956E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="15">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="17">
         <v>0.46</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>3.87</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>1.44</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G75" s="17">
         <v>0.28423080087500002</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H75" s="17">
         <v>4.691393512895</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I75" s="18">
         <v>2.7683498397E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="11">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>0.34</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>3.55</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>0.98</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>0.23549287496900001</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>4.3140852336069999</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="14">
         <v>-0.25582018272399998</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="15">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="17">
         <v>0.43</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>3.54</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>0.63</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G77" s="17">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H77" s="17">
         <v>4.5288462181250004</v>
       </c>
-      <c r="I76" s="18">
+      <c r="I77" s="18">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="19">
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="19">
         <v>2019</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D78" s="21">
         <v>0.2</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E78" s="21">
         <v>3.6</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F78" s="21">
         <v>0.2</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G78" s="21">
         <v>-0.513324016898</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H78" s="21">
         <v>4.7656059104970003</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I78" s="22">
         <v>-0.513324016898</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="16">
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="16">
         <v>2018</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="17">
         <v>0.47</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>3.68</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>3.68</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G79" s="17">
         <v>0.54428116703600005</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H79" s="17">
         <v>5.9416820029600004</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I79" s="17">
         <v>5.9416820029600004</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="12">
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="27">
+      <c r="D80" s="27">
         <v>0.25</v>
       </c>
-      <c r="E79" s="27">
+      <c r="E80" s="27">
         <v>3.63</v>
       </c>
-      <c r="F79" s="27">
+      <c r="F80" s="27">
         <v>3.2</v>
       </c>
-      <c r="G79" s="27">
+      <c r="G80" s="27">
         <v>1.395782803059</v>
       </c>
-      <c r="H79" s="27">
+      <c r="H80" s="27">
         <v>5.803199134233</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I80" s="13">
         <v>5.3681828277810002</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="16">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="16">
         <v>2018</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="17">
         <v>0.31</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>3.73</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>2.94</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="17">
         <v>0.327858654438</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="17">
         <v>5.3038402515170002</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="17">
         <v>3.9177172017480002</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="12">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D82" s="27">
         <v>0.32</v>
       </c>
-      <c r="E81" s="27">
+      <c r="E82" s="27">
         <v>3.67</v>
       </c>
-      <c r="F81" s="27">
+      <c r="F82" s="27">
         <v>2.62</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G82" s="27">
         <v>0.57222387372000005</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H82" s="27">
         <v>6.0001919453579999</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>3.5781273471350001</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="16">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="16">
         <v>2018</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="17">
         <v>0.25</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>3.63</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>2.29</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G83" s="17">
         <v>-1.0632219447E-2</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H83" s="17">
         <v>5.557540466841</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I83" s="17">
         <v>2.988800841462</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="12">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D84" s="27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E83" s="27">
+      <c r="E84" s="27">
         <v>3.63</v>
       </c>
-      <c r="F83" s="27">
+      <c r="F84" s="27">
         <v>2.04</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G84" s="27">
         <v>-0.63008204946799995</v>
       </c>
-      <c r="H83" s="27">
+      <c r="H84" s="27">
         <v>5.7518140773019999</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="13">
         <v>2.999752001124</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="16">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="17">
         <v>0.23</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>3.62</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>1.75</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="17">
         <v>1.1157721138700001</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="17">
         <v>6.3180830350320001</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="17">
         <v>3.6528500027540001</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="12">
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D86" s="27">
         <v>0.26</v>
       </c>
-      <c r="E85" s="27">
+      <c r="E86" s="27">
         <v>3.69</v>
       </c>
-      <c r="F85" s="27">
+      <c r="F86" s="27">
         <v>1.51</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G86" s="27">
         <v>1.27126872918</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H86" s="27">
         <v>4.8472071616769998</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>2.5090822488370002</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="16">
+    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="17">
         <v>0.15</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>3.71</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>1.25</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G87" s="17">
         <v>-7.7194043074000004E-2</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H87" s="17">
         <v>3.7330131426480002</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I87" s="17">
         <v>1.2222751182939999</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="12">
+    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D88" s="27">
         <v>0.33</v>
       </c>
-      <c r="E87" s="27">
+      <c r="E88" s="27">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F88" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G88" s="27">
         <v>0.441856886936</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H88" s="27">
         <v>3.5773911178570001</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>1.300473049094</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="16">
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="16">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="17">
         <v>0.49</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>4.2699999999999996</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>0.77</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G89" s="17">
         <v>0.24983929023699999</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H89" s="17">
         <v>2.9845963579829999</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I89" s="17">
         <v>0.85483899717699996</v>
       </c>
-      <c r="L88" s="28"/>
-    </row>
-    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="12">
+      <c r="L89" s="28"/>
+    </row>
+    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D90" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E89" s="27">
+      <c r="E90" s="27">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F89" s="27">
+      <c r="F90" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G89" s="27">
+      <c r="G90" s="27">
         <v>0.60349194694300001</v>
       </c>
-      <c r="H89" s="27">
+      <c r="H90" s="27">
         <v>3.161283780502</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>0.60349194694300001</v>
       </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="28"/>
@@ -3193,24 +3226,36 @@
       <c r="I91" s="29"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B92" s="30" t="s">
-        <v>26</v>
+      <c r="B92" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
       <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B94" s="31" t="s">
-        <v>28</v>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B95" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3220,7 +3265,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0323040-8CC7-44B7-9BC2-28C6E4FE3933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6BCC15-7C99-4A0F-A1C9-66E7820BC66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
   <si>
     <t>(Variación porcentual)</t>
   </si>
@@ -122,7 +122,7 @@
     <t xml:space="preserve"> Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -338,23 +338,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -435,30 +424,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -575,6 +546,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -598,13 +576,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -642,6 +613,16 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -656,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I90" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="B5:I90" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I91" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I91" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -665,14 +646,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -901,13 +882,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O95"/>
+  <dimension ref="B2:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="3" customWidth="1"/>
@@ -920,7 +901,7 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -938,7 +919,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -956,7 +937,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="32" t="s">
@@ -976,7 +957,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" s="10" customFormat="1">
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1002,2232 +983,2246 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="34">
+    <row r="6" spans="2:15" s="10" customFormat="1">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3.65</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.65903225873000004</v>
+      </c>
+      <c r="H6" s="17">
+        <v>7.3149952562139999</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.96508241869900002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="10" customFormat="1">
+      <c r="B7" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D7" s="21">
         <v>0.41</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E7" s="21">
         <v>3.66</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F7" s="21">
         <v>0.41</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G7" s="21">
         <v>0.30404639613599999</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H7" s="21">
         <v>6.9843789054740002</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I7" s="22">
         <v>0.30404639613599999</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="15">
+    <row r="8" spans="2:15" s="10" customFormat="1">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="17">
         <v>0.51</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>3.65</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>3.65</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>0.59079793727399998</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <v>7.0181837237850004</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I8" s="18">
         <v>7.0181837237850004</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+    <row r="9" spans="2:15" s="10" customFormat="1">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <v>0.05</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>3.58</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>3.13</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>0.92993636571899996</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="13">
         <v>6.5465562420249999</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>6.3896359491250001</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15">
+    <row r="10" spans="2:15" s="10" customFormat="1">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>3.8</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>3.08</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="17">
         <v>0.36347128034499998</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H10" s="17">
         <v>5.5839230062159997</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I10" s="18">
         <v>5.4093956461269999</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+    <row r="11" spans="2:15">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>3.91</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>2.79</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>0.82606636652200005</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>5.9443100216460003</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>5.0276503008609996</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="15">
+    <row r="12" spans="2:15">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="17">
         <v>0.22</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>4</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>2.5</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>0.369278560704</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H12" s="17">
         <v>5.4435169997889998</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I12" s="18">
         <v>4.1671604236400004</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="2:15">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <v>0.32</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>4.05</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>2.27</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>0.57640336761699995</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="13">
         <v>5.2622559551570003</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>3.7839086993529998</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="15">
+    <row r="14" spans="2:15">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D14" s="17">
         <v>0.22</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>4.13</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>1.95</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>1.2563585232509999</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H14" s="17">
         <v>4.8260810216649999</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <v>3.1891231186829998</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+    <row r="15" spans="2:15">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <v>0.17</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>4.21</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>1.73</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>0.42360958839500001</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>3.3687665536420002</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>1.9087834320920001</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="15">
+    <row r="16" spans="2:15">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <v>0.21</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>4.37</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>1.55</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="17">
         <v>0.25418029563599998</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="17">
         <v>2.7425824040540001</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I16" s="18">
         <v>1.478909043187</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+    <row r="17" spans="2:9">
+      <c r="B17" s="11">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>0.44</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>4.55</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>1.34</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>0.53214056444000002</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>2.3469442441570001</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>1.2216236210189999</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
+    <row r="18" spans="2:9">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="17">
         <v>0.49</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>0.9</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G18" s="17">
         <v>0.348921618228</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H18" s="17">
         <v>2.3687450634360001</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I18" s="18">
         <v>0.68583345854199995</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="19">
+    <row r="19" spans="2:9">
+      <c r="B19" s="19">
         <v>2024</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D19" s="21">
         <v>0.4</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E19" s="21">
         <v>4.76</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F19" s="21">
         <v>0.4</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G19" s="21">
         <v>0.33574036958300002</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H19" s="21">
         <v>2.1715546272230002</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I19" s="22">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="23">
+    <row r="20" spans="2:9" hidden="1">
+      <c r="B20" s="23">
         <v>2023</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D20" s="25">
         <v>0.44</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E20" s="25">
         <v>5.09</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F20" s="25">
         <v>5.09</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G20" s="25">
         <v>0.147495845343</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H20" s="25">
         <v>2.3990681262220002</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I20" s="26">
         <v>2.3990681262220002</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+    <row r="21" spans="2:9" hidden="1">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>0.26</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>5.3</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>4.63</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>1.8048505045E-2</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>2.6522066151989998</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>2.248256196397</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D22" s="17">
         <v>0.39</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="17">
         <v>5.5</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="17">
         <v>0.70603945590799999</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H22" s="17">
         <v>2.5168997772570001</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I22" s="18">
         <v>2.2298052448400001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>0.36</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>5.76</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>3.95</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>0.34946700552499999</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>1.9439072454349999</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>1.513082827172</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>0.27</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>6.08</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>3.58</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>0.196740307063</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>1.675847035776</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <v>1.159563529703</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <v>0.39</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>6.64</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>3.3</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>0.15964518918199999</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="13">
         <v>1.530754654866</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>0.96093268073299998</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="17">
         <v>0.3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="17">
         <v>6.89</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="17">
         <v>2.89</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="17">
         <v>-0.15132890355199999</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H26" s="17">
         <v>2.1835078429219998</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I26" s="18">
         <v>0.80001031357200003</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <v>0.32</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>7.39</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>2.59</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>-0.18473347948900001</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>2.9355319108579998</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>0.95278105024100002</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="15">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D28" s="17">
         <v>0.39</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>7.67</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>-0.13187559751</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <v>3.6988889525249999</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I28" s="18">
         <v>1.1396197890190001</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="11">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="11">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>0.52</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>8.09</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>1.86</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>0.55355481421800001</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>4.5062159802339998</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>1.2731743928670001</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="17">
         <v>0.61</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>1.33</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G30" s="17">
         <v>0.15562191903600001</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H30" s="17">
         <v>5.242353451924</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I30" s="18">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="19">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="19">
         <v>2023</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D31" s="21">
         <v>0.71</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E31" s="21">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F31" s="21">
         <v>0.71</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G31" s="21">
         <v>0.55916591546500005</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H31" s="21">
         <v>5.9305104600370004</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I31" s="22">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="23">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="23">
         <v>2022</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C32" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D32" s="25">
         <v>0.65</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E32" s="25">
         <v>8.35</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F32" s="25">
         <v>8.35</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G32" s="25">
         <v>0.39506827189900001</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H32" s="25">
         <v>5.5533388149269998</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I32" s="26">
         <v>5.5533388149269998</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <v>0.45</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>8.51</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>7.65</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>-0.113786224344</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="13">
         <v>6.1787824133119997</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>5.1379720456570004</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="15">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="17">
         <v>0.63</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>8.42</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <v>7.17</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="17">
         <v>0.143168274249</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="17">
         <v>7.2420809480689998</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I34" s="18">
         <v>5.2577408548060003</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>0.67</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>6.5</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>8.5599356230999998E-2</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>7.9839703932569996</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I35" s="14">
         <v>5.1072606036890003</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="15">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <v>0.8</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>5.79</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>5.3758625233999997E-2</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>8.2770800745350002</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I36" s="18">
         <v>5.0173664141080003</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="11">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <v>0.62</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>7.65</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>4.95</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>0.80358335288500005</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="13">
         <v>8.5613806924040006</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I37" s="14">
         <v>4.9609408552709997</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="15">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D38" s="17">
         <v>0.77</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>7.49</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>4.3</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G38" s="17">
         <v>0.58351182956699998</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H38" s="17">
         <v>8.1206306866349998</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I38" s="18">
         <v>4.1242159892599997</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="11">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <v>0.59</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>7.28</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>3.5</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>0.55548406395600003</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>8.3083117124939996</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I39" s="14">
         <v>3.5201635887329998</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="15">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="17">
         <v>0.78</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>7.22</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>2.9</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="17">
         <v>0.64562777645299996</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <v>8.3624942961670001</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I40" s="18">
         <v>2.948302176031</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="11">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="11">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>0.72</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>6.78</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>2.1</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>1.261849903808</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>7.8586284732739999</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>2.2879030619130001</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <v>0.76</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>6.59</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>1.38</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G42" s="17">
         <v>0.81051788881300002</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H42" s="17">
         <v>7.882525801491</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I42" s="18">
         <v>1.013267246331</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="19">
+    <row r="43" spans="2:9" ht="18" hidden="1" customHeight="1">
+      <c r="B43" s="19">
         <v>2022</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D43" s="21">
         <v>0.62</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E43" s="21">
         <v>6.21</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F43" s="21">
         <v>0.62</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G43" s="21">
         <v>0.201119250019</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H43" s="21">
         <v>7.9360282135400002</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I43" s="22">
         <v>0.201119250019</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="23">
+    <row r="44" spans="2:9" hidden="1">
+      <c r="B44" s="23">
         <v>2021</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D44" s="25">
         <v>0.8</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E44" s="25">
         <v>5.94</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F44" s="25">
         <v>5.94</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G44" s="25">
         <v>0.98994715934099997</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H44" s="25">
         <v>8.4353053849300004</v>
       </c>
-      <c r="I43" s="26">
+      <c r="I44" s="26">
         <v>8.4353053849300004</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="11">
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <v>0.37</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>5.67</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>5.09</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>0.88649709343500005</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>7.2086688466229996</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I45" s="14">
         <v>7.3723756027340004</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="15">
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C46" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <v>0.49</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>5.19</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>4.71</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G46" s="17">
         <v>0.83594818763300005</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H46" s="17">
         <v>5.9199708831139999</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I46" s="18">
         <v>6.4288866163060003</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="11">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>0.46</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>4.92</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>0.35726984603599998</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>5.164508955364</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I47" s="14">
         <v>5.5465719608899997</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="15">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <v>0.43</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>4.78</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>3.72</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="17">
         <v>0.316467458699</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="17">
         <v>4.5155081427589998</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I48" s="18">
         <v>5.1708283045319998</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="11">
+    <row r="49" spans="2:9" hidden="1">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <v>0.48</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>4.66</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>3.28</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>0.39432934689400001</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="13">
         <v>4.3958643907160004</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="14">
         <v>4.8390468372819999</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="15">
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D50" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>4.58</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>2.79</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G50" s="17">
         <v>0.75810955957199999</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H50" s="17">
         <v>4.8265532737239996</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I50" s="18">
         <v>4.4272595068890004</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="11">
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <v>0.53</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>4.37</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>0.60578819891000002</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>3.1959619273520001</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I51" s="14">
         <v>3.6415430612540001</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="15">
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="17">
         <v>0.37</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>4.13</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>1.67</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="17">
         <v>0.17764397458799999</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="17">
         <v>2.1669307819279999</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I52" s="18">
         <v>3.0174753527510001</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="11">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="11">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>0.54</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>4.12</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>1.3</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>1.284285639338</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>4.1277875031009996</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I53" s="14">
         <v>2.8347955347039999</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <v>0.39</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>3.87</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>0.75</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G54" s="17">
         <v>0.86051306483400003</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H54" s="17">
         <v>5.442223849636</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I54" s="18">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="19">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="19">
         <v>2021</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D55" s="21">
         <v>0.36</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E55" s="21">
         <v>3.84</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F55" s="21">
         <v>0.36</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G55" s="21">
         <v>0.66461723319800003</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H55" s="21">
         <v>5.0089705057009999</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I55" s="22">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="23">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="23">
         <v>2020</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C56" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D56" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E56" s="25">
         <v>3.8</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F56" s="25">
         <v>3.8</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G56" s="25">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H56" s="25">
         <v>4.0477807569659996</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I56" s="26">
         <v>4.0477807569659996</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="11">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <v>-0.08</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>3.66</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>3.24</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>-0.32620543098400001</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <v>4.5265419274339997</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="14">
         <v>4.2066608629460003</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="15">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D58" s="17">
         <v>0.24</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>3.98</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="17">
         <v>3.33</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G58" s="17">
         <v>0.116747463074</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H58" s="17">
         <v>5.1137554069669999</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I58" s="18">
         <v>4.5477011420390001</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="11">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>0.32</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>3.99</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>3.08</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>-0.26206409397699998</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>4.8518955410490001</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <v>4.4257866852900003</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="15">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="17">
         <v>0.32</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>3.97</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>2.75</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>0.201630543376</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="17">
         <v>5.6406719752800001</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I60" s="18">
         <v>4.7001682325600003</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="11">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <v>0.4</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>3.85</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>0.80850975355200005</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>5.3835626013460001</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I61" s="14">
         <v>4.4894855151449997</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="15">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D62" s="17">
         <v>0.37</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>3.71</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="17">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G62" s="17">
         <v>-0.80919658942999995</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H62" s="17">
         <v>4.684646083144</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I62" s="18">
         <v>3.6514534046699998</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="11">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <v>0.3</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>3.64</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>1.65</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>-0.39741471264900002</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>6.0913765134869999</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="14">
         <v>4.4970398874960003</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="15">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="17">
         <v>0.36</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>3.5</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>1.35</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="17">
         <v>2.100320960141</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H64" s="17">
         <v>6.5491539587240002</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I64" s="18">
         <v>4.9139834935250004</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="11">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="11">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>3.6</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>0.99</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>2.562827607524</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>4.6539310234500002</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="14">
         <v>2.755782260942</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="17">
         <v>0.36</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>3.66</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>0.69</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="17">
         <v>0.44608559013799998</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H66" s="17">
         <v>2.2791453993499999</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I66" s="18">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="19">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="19">
         <v>2020</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D67" s="21">
         <v>0.33</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E67" s="21">
         <v>3.73</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F67" s="21">
         <v>0.33</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G67" s="21">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H67" s="21">
         <v>1.84862881086</v>
       </c>
-      <c r="I66" s="22">
+      <c r="I67" s="22">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="23">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="23">
         <v>2019</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C68" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D68" s="25">
         <v>0.41</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E68" s="25">
         <v>3.59</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F68" s="25">
         <v>3.59</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G68" s="25">
         <v>0.306967963314</v>
       </c>
-      <c r="H67" s="25">
+      <c r="H68" s="25">
         <v>1.586696971267</v>
       </c>
-      <c r="I67" s="26">
+      <c r="I68" s="26">
         <v>1.586696971267</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="11">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <v>0.22</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>3.65</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>3.17</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>0.23374608609399999</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="13">
         <v>1.8270378469140001</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="14">
         <v>1.2758126717789999</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="15">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D70" s="17">
         <v>0.25</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>3.68</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="17">
         <v>2.94</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G70" s="17">
         <v>-0.13266383391</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H70" s="17">
         <v>3.0075460228350002</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I70" s="18">
         <v>1.0396364761120001</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="11">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>0.3</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>3.75</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>2.69</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>0.48824121081100003</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>3.4825490942520001</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I71" s="14">
         <v>1.173857594512</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="15">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D72" s="17">
         <v>0.2</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>3.78</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>2.39</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="17">
         <v>-4.2241234551999997E-2</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H72" s="17">
         <v>3.5690342385120002</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I72" s="18">
         <v>0.68228518624599999</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="11">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <v>0.26</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>3.82</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>0.139935538533</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H73" s="13">
         <v>3.6017852246089999</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I73" s="14">
         <v>0.72483259903599995</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="15">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D74" s="17">
         <v>0.3</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>3.85</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="17">
         <v>1.91</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G74" s="17">
         <v>0.523708729436</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H74" s="17">
         <v>2.8051480354380001</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I74" s="18">
         <v>0.58407972539399999</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="11">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <v>0.16</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>3.77</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>1.6</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>3.2364017068000003E-2</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>3.4106486148780002</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="14">
         <v>6.0056474956E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="15">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D76" s="17">
         <v>0.46</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>3.87</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>1.44</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G76" s="17">
         <v>0.28423080087500002</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H76" s="17">
         <v>4.691393512895</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I76" s="18">
         <v>2.7683498397E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="11">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="11">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>0.34</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>3.55</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>0.98</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>0.23549287496900001</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>4.3140852336069999</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <v>-0.25582018272399998</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D78" s="17">
         <v>0.43</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>3.54</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>0.63</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G78" s="17">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H78" s="17">
         <v>4.5288462181250004</v>
       </c>
-      <c r="I77" s="18">
+      <c r="I78" s="18">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="19">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="19">
         <v>2019</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C79" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D79" s="21">
         <v>0.2</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E79" s="21">
         <v>3.6</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F79" s="21">
         <v>0.2</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G79" s="21">
         <v>-0.513324016898</v>
       </c>
-      <c r="H78" s="21">
+      <c r="H79" s="21">
         <v>4.7656059104970003</v>
       </c>
-      <c r="I78" s="22">
+      <c r="I79" s="22">
         <v>-0.513324016898</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="16">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="16">
         <v>2018</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D80" s="17">
         <v>0.47</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>3.68</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>3.68</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>0.54428116703600005</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="17">
         <v>5.9416820029600004</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I80" s="17">
         <v>5.9416820029600004</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="12">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="27">
+      <c r="D81" s="27">
         <v>0.25</v>
       </c>
-      <c r="E80" s="27">
+      <c r="E81" s="27">
         <v>3.63</v>
       </c>
-      <c r="F80" s="27">
+      <c r="F81" s="27">
         <v>3.2</v>
       </c>
-      <c r="G80" s="27">
+      <c r="G81" s="27">
         <v>1.395782803059</v>
       </c>
-      <c r="H80" s="27">
+      <c r="H81" s="27">
         <v>5.803199134233</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="13">
         <v>5.3681828277810002</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="16">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D82" s="17">
         <v>0.31</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>3.73</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>2.94</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="17">
         <v>0.327858654438</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H82" s="17">
         <v>5.3038402515170002</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I82" s="17">
         <v>3.9177172017480002</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="12">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D83" s="27">
         <v>0.32</v>
       </c>
-      <c r="E82" s="27">
+      <c r="E83" s="27">
         <v>3.67</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F83" s="27">
         <v>2.62</v>
       </c>
-      <c r="G82" s="27">
+      <c r="G83" s="27">
         <v>0.57222387372000005</v>
       </c>
-      <c r="H82" s="27">
+      <c r="H83" s="27">
         <v>6.0001919453579999</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>3.5781273471350001</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="16">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D84" s="17">
         <v>0.25</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>3.63</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>2.29</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="17">
         <v>-1.0632219447E-2</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H84" s="17">
         <v>5.557540466841</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I84" s="17">
         <v>2.988800841462</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="12">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="27">
+      <c r="D85" s="27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E84" s="27">
+      <c r="E85" s="27">
         <v>3.63</v>
       </c>
-      <c r="F84" s="27">
+      <c r="F85" s="27">
         <v>2.04</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G85" s="27">
         <v>-0.63008204946799995</v>
       </c>
-      <c r="H84" s="27">
+      <c r="H85" s="27">
         <v>5.7518140773019999</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="13">
         <v>2.999752001124</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="16">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D86" s="17">
         <v>0.23</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>3.62</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>1.75</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G86" s="17">
         <v>1.1157721138700001</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H86" s="17">
         <v>6.3180830350320001</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I86" s="17">
         <v>3.6528500027540001</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="12">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D87" s="27">
         <v>0.26</v>
       </c>
-      <c r="E86" s="27">
+      <c r="E87" s="27">
         <v>3.69</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F87" s="27">
         <v>1.51</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G87" s="27">
         <v>1.27126872918</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H87" s="27">
         <v>4.8472071616769998</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>2.5090822488370002</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="16">
+    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D88" s="17">
         <v>0.15</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>3.71</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>1.25</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G88" s="17">
         <v>-7.7194043074000004E-2</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H88" s="17">
         <v>3.7330131426480002</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I88" s="17">
         <v>1.2222751182939999</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="12">
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D89" s="27">
         <v>0.33</v>
       </c>
-      <c r="E88" s="27">
+      <c r="E89" s="27">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F89" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G89" s="27">
         <v>0.441856886936</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H89" s="27">
         <v>3.5773911178570001</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>1.300473049094</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="16">
+    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B90" s="16">
         <v>2018</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C90" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D90" s="17">
         <v>0.49</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>4.2699999999999996</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>0.77</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G90" s="17">
         <v>0.24983929023699999</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H90" s="17">
         <v>2.9845963579829999</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I90" s="17">
         <v>0.85483899717699996</v>
       </c>
-      <c r="L89" s="28"/>
-    </row>
-    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="12">
+      <c r="L90" s="28"/>
+    </row>
+    <row r="91" spans="2:12" hidden="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D91" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E90" s="27">
+      <c r="E91" s="27">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F90" s="27">
+      <c r="F91" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G91" s="27">
         <v>0.60349194694300001</v>
       </c>
-      <c r="H90" s="27">
+      <c r="H91" s="27">
         <v>3.161283780502</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>0.60349194694300001</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
+    <row r="92" spans="2:12">
+      <c r="B92" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="28"/>
@@ -3237,9 +3232,9 @@
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B93" s="30" t="s">
-        <v>26</v>
+    <row r="93" spans="2:12">
+      <c r="B93" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="28"/>
@@ -3248,13 +3243,18 @@
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B94" s="2" t="s">
+    <row r="94" spans="2:12">
+      <c r="B94" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B95" s="31" t="s">
+    <row r="96" spans="2:12">
+      <c r="B96" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6BCC15-7C99-4A0F-A1C9-66E7820BC66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A600A0E-FB04-4638-BACB-0A5CEE8F8760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>(Variación porcentual)</t>
   </si>
@@ -122,7 +122,7 @@
     <t xml:space="preserve"> Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -432,6 +432,16 @@
   <dxfs count="13">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -613,16 +623,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -637,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I91" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I91" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I92" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:I92" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -646,14 +646,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O96"/>
+  <dimension ref="B2:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -984,2277 +984,2303 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="10" customFormat="1">
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>2025</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3.64</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1.33</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.31101414616</v>
+      </c>
+      <c r="H6" s="13">
+        <v>7.0789495459019998</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1.2790981077029999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="10" customFormat="1">
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D7" s="17">
         <v>0.48</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>3.65</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>0.9</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>0.65903225873000004</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="17">
         <v>7.3149952562139999</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="18">
         <v>0.96508241869900002</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="10" customFormat="1">
-      <c r="B7" s="19">
+    <row r="8" spans="2:15" s="10" customFormat="1">
+      <c r="B8" s="19">
         <v>2025</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D8" s="21">
         <v>0.41</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E8" s="21">
         <v>3.66</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F8" s="21">
         <v>0.41</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G8" s="21">
         <v>0.30404639613599999</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H8" s="21">
         <v>6.9843789054740002</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I8" s="22">
         <v>0.30404639613599999</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="10" customFormat="1">
-      <c r="B8" s="15">
+    <row r="9" spans="2:15" s="10" customFormat="1">
+      <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="17">
         <v>0.51</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>3.65</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>3.65</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>0.59079793727399998</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>7.0181837237850004</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="18">
         <v>7.0181837237850004</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="10" customFormat="1">
-      <c r="B9" s="11">
+    <row r="10" spans="2:15" s="10" customFormat="1">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>0.05</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>3.58</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>3.13</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>0.92993636571899996</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>6.5465562420249999</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>6.3896359491250001</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="10" customFormat="1">
-      <c r="B10" s="15">
+    <row r="11" spans="2:15" s="10" customFormat="1">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>3.8</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>3.08</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>0.36347128034499998</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H11" s="17">
         <v>5.5839230062159997</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="18">
         <v>5.4093956461269999</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="11">
+    <row r="12" spans="2:15">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>3.91</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>2.79</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>0.82606636652200005</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>5.9443100216460003</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="14">
         <v>5.0276503008609996</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="15">
+    <row r="13" spans="2:15">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="17">
         <v>0.22</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>4</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>2.5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>0.369278560704</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>5.4435169997889998</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="18">
         <v>4.1671604236400004</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="11">
+    <row r="14" spans="2:15">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>0.32</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>4.05</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>2.27</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>0.57640336761699995</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>5.2622559551570003</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>3.7839086993529998</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="15">
+    <row r="15" spans="2:15">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="17">
         <v>0.22</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>4.13</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>1.95</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>1.2563585232509999</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="17">
         <v>4.8260810216649999</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I15" s="18">
         <v>3.1891231186829998</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="11">
+    <row r="16" spans="2:15">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>0.17</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>4.21</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>1.73</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>0.42360958839500001</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>3.3687665536420002</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>1.9087834320920001</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="15">
+    <row r="17" spans="2:9">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="17">
         <v>0.21</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>4.37</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>1.55</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="17">
         <v>0.25418029563599998</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="17">
         <v>2.7425824040540001</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="18">
         <v>1.478909043187</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="11">
+    <row r="18" spans="2:9">
+      <c r="B18" s="11">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>0.44</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>4.55</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>1.34</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>0.53214056444000002</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>2.3469442441570001</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>1.2216236210189999</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="15">
+    <row r="19" spans="2:9">
+      <c r="B19" s="15">
         <v>2024</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="17">
         <v>0.49</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>0.9</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G19" s="17">
         <v>0.348921618228</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H19" s="17">
         <v>2.3687450634360001</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="18">
         <v>0.68583345854199995</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="19">
+    <row r="20" spans="2:9">
+      <c r="B20" s="19">
         <v>2024</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D20" s="21">
         <v>0.4</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E20" s="21">
         <v>4.76</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F20" s="21">
         <v>0.4</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G20" s="21">
         <v>0.33574036958300002</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H20" s="21">
         <v>2.1715546272230002</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I20" s="22">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1">
-      <c r="B20" s="23">
+    <row r="21" spans="2:9" hidden="1">
+      <c r="B21" s="23">
         <v>2023</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D21" s="25">
         <v>0.44</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E21" s="25">
         <v>5.09</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F21" s="25">
         <v>5.09</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G21" s="25">
         <v>0.147495845343</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H21" s="25">
         <v>2.3990681262220002</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I21" s="26">
         <v>2.3990681262220002</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1">
-      <c r="B21" s="11">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>0.26</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>5.3</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>4.63</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>1.8048505045E-2</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>2.6522066151989998</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>2.248256196397</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="15">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="17">
         <v>0.39</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>5.5</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="17">
         <v>0.70603945590799999</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H23" s="17">
         <v>2.5168997772570001</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="18">
         <v>2.2298052448400001</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="11">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <v>0.36</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>5.76</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>3.95</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>0.34946700552499999</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>1.9439072454349999</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="14">
         <v>1.513082827172</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="15">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <v>0.27</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>6.08</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>3.58</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="17">
         <v>0.196740307063</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H25" s="17">
         <v>1.675847035776</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="18">
         <v>1.159563529703</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="11">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>0.39</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>6.64</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>3.3</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>0.15964518918199999</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>1.530754654866</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>0.96093268073299998</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="15">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="17">
         <v>0.3</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>6.89</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>2.89</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="17">
         <v>-0.15132890355199999</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H27" s="17">
         <v>2.1835078429219998</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="18">
         <v>0.80001031357200003</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="11">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>0.32</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>7.39</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>2.59</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>-0.18473347948900001</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>2.9355319108579998</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>0.95278105024100002</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="15">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="17">
         <v>0.39</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>7.67</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="17">
         <v>-0.13187559751</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="17">
         <v>3.6988889525249999</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I29" s="18">
         <v>1.1396197890190001</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="11">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="11">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <v>0.52</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>8.09</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>1.86</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>0.55355481421800001</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>4.5062159802339998</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="14">
         <v>1.2731743928670001</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="15">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="15">
         <v>2023</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="17">
         <v>0.61</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>1.33</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G31" s="17">
         <v>0.15562191903600001</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H31" s="17">
         <v>5.242353451924</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I31" s="18">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="19">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="19">
         <v>2023</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D32" s="21">
         <v>0.71</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E32" s="21">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F32" s="21">
         <v>0.71</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G32" s="21">
         <v>0.55916591546500005</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H32" s="21">
         <v>5.9305104600370004</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I32" s="22">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="23">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="23">
         <v>2022</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C33" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D33" s="25">
         <v>0.65</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E33" s="25">
         <v>8.35</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F33" s="25">
         <v>8.35</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G33" s="25">
         <v>0.39506827189900001</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H33" s="25">
         <v>5.5533388149269998</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I33" s="26">
         <v>5.5533388149269998</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="11">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>0.45</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>8.51</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>7.65</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>-0.113786224344</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>6.1787824133119997</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="14">
         <v>5.1379720456570004</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="15">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="17">
         <v>0.63</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>8.42</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>7.17</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G35" s="17">
         <v>0.143168274249</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <v>7.2420809480689998</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I35" s="18">
         <v>5.2577408548060003</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="11">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>0.67</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>6.5</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>8.5599356230999998E-2</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>7.9839703932569996</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I36" s="14">
         <v>5.1072606036890003</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="15">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="17">
         <v>0.8</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>5.79</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="17">
         <v>5.3758625233999997E-2</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <v>8.2770800745350002</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I37" s="18">
         <v>5.0173664141080003</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="11">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>0.62</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>7.65</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>4.95</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>0.80358335288500005</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>8.5613806924040006</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="14">
         <v>4.9609408552709997</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="15">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="17">
         <v>0.77</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>7.49</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>4.3</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G39" s="17">
         <v>0.58351182956699998</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H39" s="17">
         <v>8.1206306866349998</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I39" s="18">
         <v>4.1242159892599997</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="11">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>0.59</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>7.28</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>3.5</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>0.55548406395600003</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>8.3083117124939996</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="14">
         <v>3.5201635887329998</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="15">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <v>0.78</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>7.22</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>2.9</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="17">
         <v>0.64562777645299996</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="17">
         <v>8.3624942961670001</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I41" s="18">
         <v>2.948302176031</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="11">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="11">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <v>0.72</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>6.78</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>2.1</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>1.261849903808</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>7.8586284732739999</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I42" s="14">
         <v>2.2879030619130001</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="15">
+    <row r="43" spans="2:9" hidden="1">
+      <c r="B43" s="15">
         <v>2022</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <v>0.76</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>6.59</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>1.38</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G43" s="17">
         <v>0.81051788881300002</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H43" s="17">
         <v>7.882525801491</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I43" s="18">
         <v>1.013267246331</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="18" hidden="1" customHeight="1">
-      <c r="B43" s="19">
+    <row r="44" spans="2:9" ht="18" hidden="1" customHeight="1">
+      <c r="B44" s="19">
         <v>2022</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D44" s="21">
         <v>0.62</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E44" s="21">
         <v>6.21</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F44" s="21">
         <v>0.62</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G44" s="21">
         <v>0.201119250019</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H44" s="21">
         <v>7.9360282135400002</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I44" s="22">
         <v>0.201119250019</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1">
-      <c r="B44" s="23">
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="23">
         <v>2021</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C45" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D45" s="25">
         <v>0.8</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E45" s="25">
         <v>5.94</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F45" s="25">
         <v>5.94</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G45" s="25">
         <v>0.98994715934099997</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H45" s="25">
         <v>8.4353053849300004</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I45" s="26">
         <v>8.4353053849300004</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="11">
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <v>0.37</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>5.67</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>5.09</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>0.88649709343500005</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>7.2086688466229996</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="14">
         <v>7.3723756027340004</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="15">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C47" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="17">
         <v>0.49</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>5.19</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>4.71</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G47" s="17">
         <v>0.83594818763300005</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H47" s="17">
         <v>5.9199708831139999</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I47" s="18">
         <v>6.4288866163060003</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="11">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>0.46</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>4.92</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>0.35726984603599998</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="13">
         <v>5.164508955364</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I48" s="14">
         <v>5.5465719608899997</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="15">
+    <row r="49" spans="2:9" hidden="1">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <v>0.43</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>4.78</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>3.72</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="17">
         <v>0.316467458699</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="17">
         <v>4.5155081427589998</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I49" s="18">
         <v>5.1708283045319998</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="11">
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>0.48</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>4.66</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>3.28</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>0.39432934689400001</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>4.3958643907160004</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I50" s="14">
         <v>4.8390468372819999</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="15">
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>4.58</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>2.79</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="17">
         <v>0.75810955957199999</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H51" s="17">
         <v>4.8265532737239996</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I51" s="18">
         <v>4.4272595068890004</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="11">
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>0.53</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>4.37</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>0.60578819891000002</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>3.1959619273520001</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="14">
         <v>3.6415430612540001</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="15">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <v>0.37</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>4.13</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>1.67</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="17">
         <v>0.17764397458799999</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="17">
         <v>2.1669307819279999</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I53" s="18">
         <v>3.0174753527510001</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="11">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="11">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <v>0.54</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>4.12</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>1.3</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>1.284285639338</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>4.1277875031009996</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I54" s="14">
         <v>2.8347955347039999</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="15">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="15">
         <v>2021</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="17">
         <v>0.39</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>3.87</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>0.75</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G55" s="17">
         <v>0.86051306483400003</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H55" s="17">
         <v>5.442223849636</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I55" s="18">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="19">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="19">
         <v>2021</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D56" s="21">
         <v>0.36</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E56" s="21">
         <v>3.84</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F56" s="21">
         <v>0.36</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G56" s="21">
         <v>0.66461723319800003</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H56" s="21">
         <v>5.0089705057009999</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I56" s="22">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="23">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="23">
         <v>2020</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C57" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D57" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E57" s="25">
         <v>3.8</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F57" s="25">
         <v>3.8</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G57" s="25">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H57" s="25">
         <v>4.0477807569659996</v>
       </c>
-      <c r="I56" s="26">
+      <c r="I57" s="26">
         <v>4.0477807569659996</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="11">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <v>-0.08</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>3.66</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>3.24</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>-0.32620543098400001</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>4.5265419274339997</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I58" s="14">
         <v>4.2066608629460003</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="15">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="17">
         <v>0.24</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>3.98</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>3.33</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="17">
         <v>0.116747463074</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H59" s="17">
         <v>5.1137554069669999</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I59" s="18">
         <v>4.5477011420390001</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="11">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>0.32</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>3.99</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>3.08</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>-0.26206409397699998</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="13">
         <v>4.8518955410490001</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I60" s="14">
         <v>4.4257866852900003</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="15">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <v>0.32</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>3.97</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>2.75</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="17">
         <v>0.201630543376</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H61" s="17">
         <v>5.6406719752800001</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I61" s="18">
         <v>4.7001682325600003</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="11">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <v>0.4</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>3.85</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>0.80850975355200005</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>5.3835626013460001</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I62" s="14">
         <v>4.4894855151449997</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="15">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="17">
         <v>0.37</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>3.71</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="17">
         <v>-0.80919658942999995</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H63" s="17">
         <v>4.684646083144</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I63" s="18">
         <v>3.6514534046699998</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="11">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>0.3</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>3.64</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>1.65</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>-0.39741471264900002</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>6.0913765134869999</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="14">
         <v>4.4970398874960003</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="15">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="17">
         <v>0.36</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>3.5</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>1.35</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="17">
         <v>2.100320960141</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="17">
         <v>6.5491539587240002</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I65" s="18">
         <v>4.9139834935250004</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="11">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="11">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>3.6</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>0.99</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>2.562827607524</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>4.6539310234500002</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I66" s="14">
         <v>2.755782260942</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="15">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="15">
         <v>2020</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="17">
         <v>0.36</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>3.66</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="17">
         <v>0.69</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G67" s="17">
         <v>0.44608559013799998</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H67" s="17">
         <v>2.2791453993499999</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I67" s="18">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="19">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="19">
         <v>2020</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D68" s="21">
         <v>0.33</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E68" s="21">
         <v>3.73</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F68" s="21">
         <v>0.33</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G68" s="21">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H68" s="21">
         <v>1.84862881086</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I68" s="22">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="23">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="23">
         <v>2019</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C69" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D69" s="25">
         <v>0.41</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E69" s="25">
         <v>3.59</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F69" s="25">
         <v>3.59</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G69" s="25">
         <v>0.306967963314</v>
       </c>
-      <c r="H68" s="25">
+      <c r="H69" s="25">
         <v>1.586696971267</v>
       </c>
-      <c r="I68" s="26">
+      <c r="I69" s="26">
         <v>1.586696971267</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="11">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <v>0.22</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>3.65</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>3.17</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>0.23374608609399999</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>1.8270378469140001</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="14">
         <v>1.2758126717789999</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="15">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="17">
         <v>0.25</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>3.68</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>2.94</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G71" s="17">
         <v>-0.13266383391</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H71" s="17">
         <v>3.0075460228350002</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I71" s="18">
         <v>1.0396364761120001</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="11">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>0.3</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>3.75</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>2.69</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>0.48824121081100003</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H72" s="13">
         <v>3.4825490942520001</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I72" s="14">
         <v>1.173857594512</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="15">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="17">
         <v>0.2</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>3.78</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>2.39</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G73" s="17">
         <v>-4.2241234551999997E-2</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H73" s="17">
         <v>3.5690342385120002</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I73" s="18">
         <v>0.68228518624599999</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="11">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>0.26</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>3.82</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>0.139935538533</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>3.6017852246089999</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="14">
         <v>0.72483259903599995</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="15">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="17">
         <v>0.3</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>3.85</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>1.91</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G75" s="17">
         <v>0.523708729436</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H75" s="17">
         <v>2.8051480354380001</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I75" s="18">
         <v>0.58407972539399999</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="11">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>0.16</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>3.77</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>1.6</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>3.2364017068000003E-2</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>3.4106486148780002</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="14">
         <v>6.0056474956E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="15">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="17">
         <v>0.46</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>3.87</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>1.44</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G77" s="17">
         <v>0.28423080087500002</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H77" s="17">
         <v>4.691393512895</v>
       </c>
-      <c r="I76" s="18">
+      <c r="I77" s="18">
         <v>2.7683498397E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="11">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="11">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <v>0.34</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>3.55</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>0.98</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>0.23549287496900001</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H78" s="13">
         <v>4.3140852336069999</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I78" s="14">
         <v>-0.25582018272399998</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="15">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="15">
         <v>2019</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="17">
         <v>0.43</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>3.54</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>0.63</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G79" s="17">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H79" s="17">
         <v>4.5288462181250004</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I79" s="18">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="19">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="19">
         <v>2019</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C80" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D80" s="21">
         <v>0.2</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E80" s="21">
         <v>3.6</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F80" s="21">
         <v>0.2</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G80" s="21">
         <v>-0.513324016898</v>
       </c>
-      <c r="H79" s="21">
+      <c r="H80" s="21">
         <v>4.7656059104970003</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I80" s="22">
         <v>-0.513324016898</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="16">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="16">
         <v>2018</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="17">
         <v>0.47</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>3.68</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>3.68</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="17">
         <v>0.54428116703600005</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="17">
         <v>5.9416820029600004</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="17">
         <v>5.9416820029600004</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="12">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D82" s="27">
         <v>0.25</v>
       </c>
-      <c r="E81" s="27">
+      <c r="E82" s="27">
         <v>3.63</v>
       </c>
-      <c r="F81" s="27">
+      <c r="F82" s="27">
         <v>3.2</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G82" s="27">
         <v>1.395782803059</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H82" s="27">
         <v>5.803199134233</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>5.3681828277810002</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="16">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="16">
         <v>2018</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="17">
         <v>0.31</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>3.73</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>2.94</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G83" s="17">
         <v>0.327858654438</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H83" s="17">
         <v>5.3038402515170002</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I83" s="17">
         <v>3.9177172017480002</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="12">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D84" s="27">
         <v>0.32</v>
       </c>
-      <c r="E83" s="27">
+      <c r="E84" s="27">
         <v>3.67</v>
       </c>
-      <c r="F83" s="27">
+      <c r="F84" s="27">
         <v>2.62</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G84" s="27">
         <v>0.57222387372000005</v>
       </c>
-      <c r="H83" s="27">
+      <c r="H84" s="27">
         <v>6.0001919453579999</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="13">
         <v>3.5781273471350001</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="16">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="17">
         <v>0.25</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>3.63</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>2.29</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="17">
         <v>-1.0632219447E-2</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="17">
         <v>5.557540466841</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="17">
         <v>2.988800841462</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="12">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D86" s="27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E85" s="27">
+      <c r="E86" s="27">
         <v>3.63</v>
       </c>
-      <c r="F85" s="27">
+      <c r="F86" s="27">
         <v>2.04</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G86" s="27">
         <v>-0.63008204946799995</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H86" s="27">
         <v>5.7518140773019999</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>2.999752001124</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="16">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="17">
         <v>0.23</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>3.62</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>1.75</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G87" s="17">
         <v>1.1157721138700001</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H87" s="17">
         <v>6.3180830350320001</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I87" s="17">
         <v>3.6528500027540001</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1">
-      <c r="B87" s="12">
+    <row r="88" spans="2:12" hidden="1">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D88" s="27">
         <v>0.26</v>
       </c>
-      <c r="E87" s="27">
+      <c r="E88" s="27">
         <v>3.69</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F88" s="27">
         <v>1.51</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G88" s="27">
         <v>1.27126872918</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H88" s="27">
         <v>4.8472071616769998</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>2.5090822488370002</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B88" s="16">
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B89" s="16">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="17">
         <v>0.15</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>3.71</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>1.25</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G89" s="17">
         <v>-7.7194043074000004E-2</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H89" s="17">
         <v>3.7330131426480002</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I89" s="17">
         <v>1.2222751182939999</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B89" s="12">
+    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D90" s="27">
         <v>0.33</v>
       </c>
-      <c r="E89" s="27">
+      <c r="E90" s="27">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F89" s="27">
+      <c r="F90" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G89" s="27">
+      <c r="G90" s="27">
         <v>0.441856886936</v>
       </c>
-      <c r="H89" s="27">
+      <c r="H90" s="27">
         <v>3.5773911178570001</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>1.300473049094</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B90" s="16">
+    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B91" s="16">
         <v>2018</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C91" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D91" s="17">
         <v>0.49</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E91" s="17">
         <v>4.2699999999999996</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F91" s="17">
         <v>0.77</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G91" s="17">
         <v>0.24983929023699999</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H91" s="17">
         <v>2.9845963579829999</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I91" s="17">
         <v>0.85483899717699996</v>
       </c>
-      <c r="L90" s="28"/>
-    </row>
-    <row r="91" spans="2:12" hidden="1">
-      <c r="B91" s="12">
+      <c r="L91" s="28"/>
+    </row>
+    <row r="92" spans="2:12" hidden="1">
+      <c r="B92" s="12">
         <v>2018</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C92" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="27">
+      <c r="D92" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E91" s="27">
+      <c r="E92" s="27">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F91" s="27">
+      <c r="F92" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G91" s="27">
+      <c r="G92" s="27">
         <v>0.60349194694300001</v>
       </c>
-      <c r="H91" s="27">
+      <c r="H92" s="27">
         <v>3.161283780502</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>0.60349194694300001</v>
       </c>
-    </row>
-    <row r="92" spans="2:12">
-      <c r="B92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="2:12">
       <c r="B93" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
     </row>
     <row r="94" spans="2:12">
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:12">
-      <c r="B95" s="2" t="s">
+    <row r="96" spans="2:12">
+      <c r="B96" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:12">
-      <c r="B96" s="31" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3265,7 +3291,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A600A0E-FB04-4638-BACB-0A5CEE8F8760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDABBED5-86A3-4B6A-9446-6E83C213924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>(Variación porcentual)</t>
   </si>
@@ -116,13 +116,13 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t xml:space="preserve">    El INPP incluye mercancías y servicios finales, excluyendo petróleo.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
+    <t xml:space="preserve">     El INPP incluye mercancías y servicios finales, excluyendo petróleo.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t xml:space="preserve">  Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
   </si>
 </sst>
 </file>
@@ -432,16 +432,6 @@
   <dxfs count="13">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -623,6 +613,16 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -637,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I92" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:I92" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I93" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -646,14 +646,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O97"/>
+  <dimension ref="B2:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -897,11 +897,10 @@
     <col min="12" max="12" width="18.875" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="3"/>
+    <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1">
+    <row r="2" spans="2:14" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,9 +916,8 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="2:15">
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -935,9 +933,8 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="2:15">
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="32" t="s">
@@ -955,9 +952,8 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="2:15" s="10" customFormat="1">
+    </row>
+    <row r="5" spans="2:14" s="10" customFormat="1">
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
@@ -983,2305 +979,2331 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="10" customFormat="1">
-      <c r="B6" s="11">
+    <row r="6" spans="2:14" s="10" customFormat="1">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3.93</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1.83</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.32117934472600002</v>
+      </c>
+      <c r="H6" s="17">
+        <v>7.1505095324869998</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.604385651349</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="10" customFormat="1">
+      <c r="B7" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="13">
         <v>0.43</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>3.64</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>1.33</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>0.31101414616</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>7.0789495459019998</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I7" s="14">
         <v>1.2790981077029999</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="10" customFormat="1">
-      <c r="B7" s="15">
+    <row r="8" spans="2:14" s="10" customFormat="1">
+      <c r="B8" s="15">
         <v>2025</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="17">
         <v>0.48</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>3.65</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>0.9</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>0.65903225873000004</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <v>7.3149952562139999</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I8" s="18">
         <v>0.96508241869900002</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="10" customFormat="1">
-      <c r="B8" s="19">
+    <row r="9" spans="2:14" s="10" customFormat="1">
+      <c r="B9" s="19">
         <v>2025</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D9" s="21">
         <v>0.41</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E9" s="21">
         <v>3.66</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F9" s="21">
         <v>0.41</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G9" s="21">
         <v>0.30404639613599999</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H9" s="21">
         <v>6.9843789054740002</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I9" s="22">
         <v>0.30404639613599999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="10" customFormat="1">
-      <c r="B9" s="15">
+    <row r="10" spans="2:14" s="10" customFormat="1">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="17">
         <v>0.51</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>3.65</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>3.65</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="17">
         <v>0.59079793727399998</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H10" s="17">
         <v>7.0181837237850004</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I10" s="18">
         <v>7.0181837237850004</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="10" customFormat="1">
-      <c r="B10" s="11">
+    <row r="11" spans="2:14" s="10" customFormat="1">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <v>0.05</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>3.58</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>3.13</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>0.92993636571899996</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>6.5465562420249999</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>6.3896359491250001</v>
       </c>
     </row>
-    <row r="11" spans="2:15" s="10" customFormat="1">
-      <c r="B11" s="15">
+    <row r="12" spans="2:14" s="10" customFormat="1">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>3.8</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>3.08</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>0.36347128034499998</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H12" s="17">
         <v>5.5839230062159997</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I12" s="18">
         <v>5.4093956461269999</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="11">
+    <row r="13" spans="2:14">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>3.91</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>2.79</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>0.82606636652200005</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="13">
         <v>5.9443100216460003</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>5.0276503008609996</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="15">
+    <row r="14" spans="2:14">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D14" s="17">
         <v>0.22</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>4</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>2.5</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>0.369278560704</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H14" s="17">
         <v>5.4435169997889998</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <v>4.1671604236400004</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="11">
+    <row r="15" spans="2:14">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <v>0.32</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>4.05</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>2.27</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>0.57640336761699995</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>5.2622559551570003</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>3.7839086993529998</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="15">
+    <row r="16" spans="2:14">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <v>0.22</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>4.13</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>1.95</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="17">
         <v>1.2563585232509999</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="17">
         <v>4.8260810216649999</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I16" s="18">
         <v>3.1891231186829998</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="11">
+    <row r="17" spans="2:9">
+      <c r="B17" s="11">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>0.17</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>4.21</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>1.73</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>0.42360958839500001</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>3.3687665536420002</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>1.9087834320920001</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="15">
+    <row r="18" spans="2:9">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="17">
         <v>0.21</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>4.37</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>1.55</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G18" s="17">
         <v>0.25418029563599998</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H18" s="17">
         <v>2.7425824040540001</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I18" s="18">
         <v>1.478909043187</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="11">
+    <row r="19" spans="2:9">
+      <c r="B19" s="11">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>0.44</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>4.55</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>1.34</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>0.53214056444000002</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <v>2.3469442441570001</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>1.2216236210189999</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="15">
+    <row r="20" spans="2:9">
+      <c r="B20" s="15">
         <v>2024</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>0.49</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>0.9</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>0.348921618228</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="17">
         <v>2.3687450634360001</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="18">
         <v>0.68583345854199995</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="19">
+    <row r="21" spans="2:9">
+      <c r="B21" s="19">
         <v>2024</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D21" s="21">
         <v>0.4</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E21" s="21">
         <v>4.76</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F21" s="21">
         <v>0.4</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G21" s="21">
         <v>0.33574036958300002</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H21" s="21">
         <v>2.1715546272230002</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I21" s="22">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1">
-      <c r="B21" s="23">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" s="23">
         <v>2023</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D22" s="25">
         <v>0.44</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E22" s="25">
         <v>5.09</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F22" s="25">
         <v>5.09</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G22" s="25">
         <v>0.147495845343</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H22" s="25">
         <v>2.3990681262220002</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I22" s="26">
         <v>2.3990681262220002</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="11">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>0.26</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>5.3</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>4.63</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>1.8048505045E-2</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>2.6522066151989998</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>2.248256196397</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="15">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>0.39</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>5.5</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>0.70603945590799999</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>2.5168997772570001</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <v>2.2298052448400001</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="11">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <v>0.36</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>5.76</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>3.95</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>0.34946700552499999</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="13">
         <v>1.9439072454349999</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>1.513082827172</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="15">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="17">
         <v>0.27</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="17">
         <v>6.08</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="17">
         <v>3.58</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="17">
         <v>0.196740307063</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H26" s="17">
         <v>1.675847035776</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I26" s="18">
         <v>1.159563529703</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="11">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <v>0.39</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>6.64</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>3.3</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>0.15964518918199999</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>1.530754654866</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>0.96093268073299998</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="15">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D28" s="17">
         <v>0.3</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>6.89</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>2.89</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>-0.15132890355199999</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <v>2.1835078429219998</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I28" s="18">
         <v>0.80001031357200003</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="11">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="11">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>0.32</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>7.39</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>2.59</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>-0.18473347948900001</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>2.9355319108579998</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>0.95278105024100002</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="15">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="17">
         <v>0.39</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>7.67</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G30" s="17">
         <v>-0.13187559751</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H30" s="17">
         <v>3.6988889525249999</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I30" s="18">
         <v>1.1396197890190001</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="11">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="11">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <v>0.52</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>8.09</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>1.86</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>0.55355481421800001</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>4.5062159802339998</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I31" s="14">
         <v>1.2731743928670001</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="15">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="15">
         <v>2023</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="17">
         <v>0.61</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>1.33</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="17">
         <v>0.15562191903600001</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="17">
         <v>5.242353451924</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I32" s="18">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="19">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="19">
         <v>2023</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D33" s="21">
         <v>0.71</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E33" s="21">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F33" s="21">
         <v>0.71</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G33" s="21">
         <v>0.55916591546500005</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H33" s="21">
         <v>5.9305104600370004</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I33" s="22">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="23">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="23">
         <v>2022</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C34" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D34" s="25">
         <v>0.65</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E34" s="25">
         <v>8.35</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F34" s="25">
         <v>8.35</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G34" s="25">
         <v>0.39506827189900001</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H34" s="25">
         <v>5.5533388149269998</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I34" s="26">
         <v>5.5533388149269998</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="11">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>0.45</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>8.51</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>7.65</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>-0.113786224344</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>6.1787824133119997</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I35" s="14">
         <v>5.1379720456570004</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="15">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <v>0.63</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>8.42</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>7.17</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>0.143168274249</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>7.2420809480689998</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I36" s="18">
         <v>5.2577408548060003</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="11">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <v>0.67</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>6.5</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>8.5599356230999998E-2</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="13">
         <v>7.9839703932569996</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I37" s="14">
         <v>5.1072606036890003</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="15">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D38" s="17">
         <v>0.8</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>5.79</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G38" s="17">
         <v>5.3758625233999997E-2</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H38" s="17">
         <v>8.2770800745350002</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I38" s="18">
         <v>5.0173664141080003</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="11">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <v>0.62</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>7.65</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>4.95</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>0.80358335288500005</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>8.5613806924040006</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I39" s="14">
         <v>4.9609408552709997</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="15">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="17">
         <v>0.77</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>7.49</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>4.3</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="17">
         <v>0.58351182956699998</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <v>8.1206306866349998</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I40" s="18">
         <v>4.1242159892599997</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="11">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="11">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>0.59</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>7.28</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>3.5</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>0.55548406395600003</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>8.3083117124939996</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>3.5201635887329998</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="15">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <v>0.78</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>7.22</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>2.9</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G42" s="17">
         <v>0.64562777645299996</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H42" s="17">
         <v>8.3624942961670001</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I42" s="18">
         <v>2.948302176031</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="11">
+    <row r="43" spans="2:9" hidden="1">
+      <c r="B43" s="11">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <v>0.72</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>6.78</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>2.1</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>1.261849903808</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="13">
         <v>7.8586284732739999</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I43" s="14">
         <v>2.2879030619130001</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1">
-      <c r="B43" s="15">
+    <row r="44" spans="2:9" hidden="1">
+      <c r="B44" s="15">
         <v>2022</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <v>0.76</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>6.59</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>1.38</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G44" s="17">
         <v>0.81051788881300002</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H44" s="17">
         <v>7.882525801491</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I44" s="18">
         <v>1.013267246331</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="18" hidden="1" customHeight="1">
-      <c r="B44" s="19">
+    <row r="45" spans="2:9" ht="18" hidden="1" customHeight="1">
+      <c r="B45" s="19">
         <v>2022</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D45" s="21">
         <v>0.62</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E45" s="21">
         <v>6.21</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F45" s="21">
         <v>0.62</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G45" s="21">
         <v>0.201119250019</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H45" s="21">
         <v>7.9360282135400002</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I45" s="22">
         <v>0.201119250019</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="23">
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="23">
         <v>2021</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C46" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D46" s="25">
         <v>0.8</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E46" s="25">
         <v>5.94</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F46" s="25">
         <v>5.94</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G46" s="25">
         <v>0.98994715934099997</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H46" s="25">
         <v>8.4353053849300004</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I46" s="26">
         <v>8.4353053849300004</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="11">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>0.37</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>5.67</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>5.09</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>0.88649709343500005</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>7.2086688466229996</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I47" s="14">
         <v>7.3723756027340004</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="15">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <v>0.49</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>5.19</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>4.71</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="17">
         <v>0.83594818763300005</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="17">
         <v>5.9199708831139999</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I48" s="18">
         <v>6.4288866163060003</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="11">
+    <row r="49" spans="2:9" hidden="1">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <v>0.46</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>4.92</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>0.35726984603599998</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="13">
         <v>5.164508955364</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="14">
         <v>5.5465719608899997</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="15">
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D50" s="17">
         <v>0.43</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>4.78</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>3.72</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G50" s="17">
         <v>0.316467458699</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H50" s="17">
         <v>4.5155081427589998</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I50" s="18">
         <v>5.1708283045319998</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="11">
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <v>0.48</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>4.66</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>3.28</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>0.39432934689400001</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>4.3958643907160004</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I51" s="14">
         <v>4.8390468372819999</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="15">
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>4.58</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>2.79</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="17">
         <v>0.75810955957199999</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="17">
         <v>4.8265532737239996</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I52" s="18">
         <v>4.4272595068890004</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="11">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="11">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>0.53</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>4.37</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>0.60578819891000002</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>3.1959619273520001</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I53" s="14">
         <v>3.6415430612540001</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="15">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <v>0.37</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>4.13</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>1.67</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G54" s="17">
         <v>0.17764397458799999</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H54" s="17">
         <v>2.1669307819279999</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I54" s="18">
         <v>3.0174753527510001</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="11">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="11">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <v>0.54</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>4.12</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>1.3</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>1.284285639338</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>4.1277875031009996</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I55" s="14">
         <v>2.8347955347039999</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="15">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="15">
         <v>2021</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="17">
         <v>0.39</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>3.87</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>0.75</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="17">
         <v>0.86051306483400003</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H56" s="17">
         <v>5.442223849636</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I56" s="18">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="19">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="19">
         <v>2021</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D57" s="21">
         <v>0.36</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E57" s="21">
         <v>3.84</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F57" s="21">
         <v>0.36</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G57" s="21">
         <v>0.66461723319800003</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H57" s="21">
         <v>5.0089705057009999</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I57" s="22">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="23">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="23">
         <v>2020</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C58" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D58" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E58" s="25">
         <v>3.8</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F58" s="25">
         <v>3.8</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G58" s="25">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="H57" s="25">
+      <c r="H58" s="25">
         <v>4.0477807569659996</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I58" s="26">
         <v>4.0477807569659996</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="11">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>-0.08</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>3.66</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>3.24</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>-0.32620543098400001</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>4.5265419274339997</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <v>4.2066608629460003</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="15">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="17">
         <v>0.24</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>3.98</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>3.33</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>0.116747463074</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="17">
         <v>5.1137554069669999</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I60" s="18">
         <v>4.5477011420390001</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="11">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <v>0.32</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>3.99</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>3.08</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>-0.26206409397699998</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>4.8518955410490001</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I61" s="14">
         <v>4.4257866852900003</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="15">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D62" s="17">
         <v>0.32</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>3.97</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="17">
         <v>2.75</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G62" s="17">
         <v>0.201630543376</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H62" s="17">
         <v>5.6406719752800001</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I62" s="18">
         <v>4.7001682325600003</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="11">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <v>0.4</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>3.85</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>0.80850975355200005</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>5.3835626013460001</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="14">
         <v>4.4894855151449997</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="15">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="17">
         <v>0.37</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>3.71</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="17">
         <v>-0.80919658942999995</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H64" s="17">
         <v>4.684646083144</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I64" s="18">
         <v>3.6514534046699998</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="11">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="11">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>0.3</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>3.64</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>1.65</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>-0.39741471264900002</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>6.0913765134869999</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="14">
         <v>4.4970398874960003</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="15">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="17">
         <v>0.36</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>3.5</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>1.35</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="17">
         <v>2.100320960141</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H66" s="17">
         <v>6.5491539587240002</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I66" s="18">
         <v>4.9139834935250004</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="11">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="11">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>3.6</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>0.99</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>2.562827607524</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="13">
         <v>4.6539310234500002</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I67" s="14">
         <v>2.755782260942</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="15">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="15">
         <v>2020</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D68" s="17">
         <v>0.36</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>3.66</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="17">
         <v>0.69</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G68" s="17">
         <v>0.44608559013799998</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H68" s="17">
         <v>2.2791453993499999</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I68" s="18">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="19">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="19">
         <v>2020</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C69" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D69" s="21">
         <v>0.33</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E69" s="21">
         <v>3.73</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F69" s="21">
         <v>0.33</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G69" s="21">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H69" s="21">
         <v>1.84862881086</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I69" s="22">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="23">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="23">
         <v>2019</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C70" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D70" s="25">
         <v>0.41</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E70" s="25">
         <v>3.59</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F70" s="25">
         <v>3.59</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G70" s="25">
         <v>0.306967963314</v>
       </c>
-      <c r="H69" s="25">
+      <c r="H70" s="25">
         <v>1.586696971267</v>
       </c>
-      <c r="I69" s="26">
+      <c r="I70" s="26">
         <v>1.586696971267</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="11">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>0.22</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>3.65</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>3.17</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>0.23374608609399999</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>1.8270378469140001</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I71" s="14">
         <v>1.2758126717789999</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="15">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D72" s="17">
         <v>0.25</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>3.68</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>2.94</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="17">
         <v>-0.13266383391</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H72" s="17">
         <v>3.0075460228350002</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I72" s="18">
         <v>1.0396364761120001</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="11">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <v>0.3</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>3.75</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>2.69</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>0.48824121081100003</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H73" s="13">
         <v>3.4825490942520001</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I73" s="14">
         <v>1.173857594512</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="15">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D74" s="17">
         <v>0.2</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>3.78</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="17">
         <v>2.39</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G74" s="17">
         <v>-4.2241234551999997E-2</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H74" s="17">
         <v>3.5690342385120002</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I74" s="18">
         <v>0.68228518624599999</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="11">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <v>0.26</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>3.82</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>0.139935538533</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>3.6017852246089999</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="14">
         <v>0.72483259903599995</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="15">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D76" s="17">
         <v>0.3</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>3.85</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>1.91</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G76" s="17">
         <v>0.523708729436</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H76" s="17">
         <v>2.8051480354380001</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I76" s="18">
         <v>0.58407972539399999</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="11">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="11">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>0.16</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>3.77</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>1.6</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>3.2364017068000003E-2</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>3.4106486148780002</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <v>6.0056474956E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="15">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D78" s="17">
         <v>0.46</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>3.87</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>1.44</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G78" s="17">
         <v>0.28423080087500002</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H78" s="17">
         <v>4.691393512895</v>
       </c>
-      <c r="I77" s="18">
+      <c r="I78" s="18">
         <v>2.7683498397E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="11">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="11">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <v>0.34</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>3.55</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>0.98</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>0.23549287496900001</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="13">
         <v>4.3140852336069999</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="14">
         <v>-0.25582018272399998</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="15">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="15">
         <v>2019</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D80" s="17">
         <v>0.43</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>3.54</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>0.63</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="17">
         <v>4.5288462181250004</v>
       </c>
-      <c r="I79" s="18">
+      <c r="I80" s="18">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="19">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="19">
         <v>2019</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C81" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D81" s="21">
         <v>0.2</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E81" s="21">
         <v>3.6</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F81" s="21">
         <v>0.2</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G81" s="21">
         <v>-0.513324016898</v>
       </c>
-      <c r="H80" s="21">
+      <c r="H81" s="21">
         <v>4.7656059104970003</v>
       </c>
-      <c r="I80" s="22">
+      <c r="I81" s="22">
         <v>-0.513324016898</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="16">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D82" s="17">
         <v>0.47</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>3.68</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>3.68</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="17">
         <v>0.54428116703600005</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H82" s="17">
         <v>5.9416820029600004</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I82" s="17">
         <v>5.9416820029600004</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="12">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D83" s="27">
         <v>0.25</v>
       </c>
-      <c r="E82" s="27">
+      <c r="E83" s="27">
         <v>3.63</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F83" s="27">
         <v>3.2</v>
       </c>
-      <c r="G82" s="27">
+      <c r="G83" s="27">
         <v>1.395782803059</v>
       </c>
-      <c r="H82" s="27">
+      <c r="H83" s="27">
         <v>5.803199134233</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>5.3681828277810002</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="16">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D84" s="17">
         <v>0.31</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>3.73</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>2.94</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="17">
         <v>0.327858654438</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H84" s="17">
         <v>5.3038402515170002</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I84" s="17">
         <v>3.9177172017480002</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="12">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="27">
+      <c r="D85" s="27">
         <v>0.32</v>
       </c>
-      <c r="E84" s="27">
+      <c r="E85" s="27">
         <v>3.67</v>
       </c>
-      <c r="F84" s="27">
+      <c r="F85" s="27">
         <v>2.62</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G85" s="27">
         <v>0.57222387372000005</v>
       </c>
-      <c r="H84" s="27">
+      <c r="H85" s="27">
         <v>6.0001919453579999</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="13">
         <v>3.5781273471350001</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="16">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D86" s="17">
         <v>0.25</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>3.63</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>2.29</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G86" s="17">
         <v>-1.0632219447E-2</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H86" s="17">
         <v>5.557540466841</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I86" s="17">
         <v>2.988800841462</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="12">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D87" s="27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E86" s="27">
+      <c r="E87" s="27">
         <v>3.63</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F87" s="27">
         <v>2.04</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G87" s="27">
         <v>-0.63008204946799995</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H87" s="27">
         <v>5.7518140773019999</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>2.999752001124</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1">
-      <c r="B87" s="16">
+    <row r="88" spans="2:12" hidden="1">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D88" s="17">
         <v>0.23</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>3.62</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>1.75</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G88" s="17">
         <v>1.1157721138700001</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H88" s="17">
         <v>6.3180830350320001</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I88" s="17">
         <v>3.6528500027540001</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1">
-      <c r="B88" s="12">
+    <row r="89" spans="2:12" hidden="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D89" s="27">
         <v>0.26</v>
       </c>
-      <c r="E88" s="27">
+      <c r="E89" s="27">
         <v>3.69</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F89" s="27">
         <v>1.51</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G89" s="27">
         <v>1.27126872918</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H89" s="27">
         <v>4.8472071616769998</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>2.5090822488370002</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B89" s="16">
+    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B90" s="16">
         <v>2018</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C90" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D90" s="17">
         <v>0.15</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>3.71</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>1.25</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G90" s="17">
         <v>-7.7194043074000004E-2</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H90" s="17">
         <v>3.7330131426480002</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I90" s="17">
         <v>1.2222751182939999</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B90" s="12">
+    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D91" s="27">
         <v>0.33</v>
       </c>
-      <c r="E90" s="27">
+      <c r="E91" s="27">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F90" s="27">
+      <c r="F91" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G91" s="27">
         <v>0.441856886936</v>
       </c>
-      <c r="H90" s="27">
+      <c r="H91" s="27">
         <v>3.5773911178570001</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>1.300473049094</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B91" s="16">
+    <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B92" s="16">
         <v>2018</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D92" s="17">
         <v>0.49</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E92" s="17">
         <v>4.2699999999999996</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F92" s="17">
         <v>0.77</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G92" s="17">
         <v>0.24983929023699999</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H92" s="17">
         <v>2.9845963579829999</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I92" s="17">
         <v>0.85483899717699996</v>
       </c>
-      <c r="L91" s="28"/>
-    </row>
-    <row r="92" spans="2:12" hidden="1">
-      <c r="B92" s="12">
+      <c r="L92" s="28"/>
+    </row>
+    <row r="93" spans="2:12" hidden="1">
+      <c r="B93" s="12">
         <v>2018</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="27">
+      <c r="D93" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E92" s="27">
+      <c r="E93" s="27">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F92" s="27">
+      <c r="F93" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G92" s="27">
+      <c r="G93" s="27">
         <v>0.60349194694300001</v>
       </c>
-      <c r="H92" s="27">
+      <c r="H93" s="27">
         <v>3.161283780502</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I93" s="13">
         <v>0.60349194694300001</v>
       </c>
-    </row>
-    <row r="93" spans="2:12">
-      <c r="B93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
     </row>
     <row r="94" spans="2:12">
       <c r="B94" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
       <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
     </row>
     <row r="95" spans="2:12">
-      <c r="B95" s="30" t="s">
-        <v>26</v>
-      </c>
+      <c r="B95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:12">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="31" t="s">
-        <v>27</v>
+    <row r="98" spans="2:2">
+      <c r="B98" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3313,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDABBED5-86A3-4B6A-9446-6E83C213924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B6416-17BC-4CFA-BB51-DC12CE9D3F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>(Variación porcentual)</t>
   </si>
@@ -116,13 +116,13 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
-  </si>
-  <si>
     <t xml:space="preserve">     El INPP incluye mercancías y servicios finales, excluyendo petróleo.</t>
   </si>
   <si>
     <t xml:space="preserve">  Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
+  </si>
+  <si>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -637,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I93" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I95" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I95" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -882,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N98"/>
+  <dimension ref="B2:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -984,25 +984,25 @@
         <v>2025</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="17">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="E6" s="17">
-        <v>3.93</v>
+        <v>4.24</v>
       </c>
       <c r="F6" s="17">
-        <v>1.83</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G6" s="17">
-        <v>0.32117934472600002</v>
+        <v>-0.19508987538799999</v>
       </c>
       <c r="H6" s="17">
-        <v>7.1505095324869998</v>
+        <v>5.0317662274719996</v>
       </c>
       <c r="I6" s="18">
-        <v>1.604385651349</v>
+        <v>1.2737787121540001</v>
       </c>
     </row>
     <row r="7" spans="2:14" s="10" customFormat="1">
@@ -1010,25 +1010,25 @@
         <v>2025</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="13">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="13">
-        <v>3.64</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F7" s="13">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="G7" s="13">
-        <v>0.31101414616</v>
+        <v>-0.13055130210099999</v>
       </c>
       <c r="H7" s="13">
-        <v>7.0789495459019998</v>
+        <v>6.5592280397879996</v>
       </c>
       <c r="I7" s="14">
-        <v>1.2790981077029999</v>
+        <v>1.4717398028890001</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="10" customFormat="1">
@@ -1036,103 +1036,103 @@
         <v>2025</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="17">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E8" s="17">
-        <v>3.65</v>
+        <v>3.93</v>
       </c>
       <c r="F8" s="17">
-        <v>0.9</v>
+        <v>1.83</v>
       </c>
       <c r="G8" s="17">
-        <v>0.65903225873000004</v>
+        <v>0.32117934472600002</v>
       </c>
       <c r="H8" s="17">
-        <v>7.3149952562139999</v>
+        <v>7.1505095324869998</v>
       </c>
       <c r="I8" s="18">
-        <v>0.96508241869900002</v>
+        <v>1.604385651349</v>
       </c>
     </row>
     <row r="9" spans="2:14" s="10" customFormat="1">
-      <c r="B9" s="19">
+      <c r="B9" s="11">
         <v>2025</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0.41</v>
-      </c>
-      <c r="E9" s="21">
-        <v>3.66</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0.41</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0.30404639613599999</v>
-      </c>
-      <c r="H9" s="21">
-        <v>6.9843789054740002</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.30404639613599999</v>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3.64</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1.33</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.31101414616</v>
+      </c>
+      <c r="H9" s="13">
+        <v>7.0789495459019998</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1.2790981077029999</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="10" customFormat="1">
       <c r="B10" s="15">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="17">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="E10" s="17">
         <v>3.65</v>
       </c>
       <c r="F10" s="17">
-        <v>3.65</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="17">
-        <v>0.59079793727399998</v>
+        <v>0.65903225873000004</v>
       </c>
       <c r="H10" s="17">
-        <v>7.0181837237850004</v>
+        <v>7.3149952562139999</v>
       </c>
       <c r="I10" s="18">
-        <v>7.0181837237850004</v>
+        <v>0.96508241869900002</v>
       </c>
     </row>
     <row r="11" spans="2:14" s="10" customFormat="1">
-      <c r="B11" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="13">
-        <v>3.58</v>
-      </c>
-      <c r="F11" s="13">
-        <v>3.13</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.92993636571899996</v>
-      </c>
-      <c r="H11" s="13">
-        <v>6.5465562420249999</v>
-      </c>
-      <c r="I11" s="14">
-        <v>6.3896359491250001</v>
+      <c r="B11" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="E11" s="21">
+        <v>3.66</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.30404639613599999</v>
+      </c>
+      <c r="H11" s="21">
+        <v>6.9843789054740002</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0.30404639613599999</v>
       </c>
     </row>
     <row r="12" spans="2:14" s="10" customFormat="1">
@@ -1140,77 +1140,77 @@
         <v>2024</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.51</v>
       </c>
       <c r="E12" s="17">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="F12" s="17">
-        <v>3.08</v>
+        <v>3.65</v>
       </c>
       <c r="G12" s="17">
-        <v>0.36347128034499998</v>
+        <v>0.59079793727399998</v>
       </c>
       <c r="H12" s="17">
-        <v>5.5839230062159997</v>
+        <v>7.0181837237850004</v>
       </c>
       <c r="I12" s="18">
-        <v>5.4093956461269999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
+        <v>7.0181837237850004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="10" customFormat="1">
       <c r="B13" s="11">
         <v>2024</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="E13" s="13">
-        <v>3.91</v>
+        <v>3.58</v>
       </c>
       <c r="F13" s="13">
-        <v>2.79</v>
+        <v>3.13</v>
       </c>
       <c r="G13" s="13">
-        <v>0.82606636652200005</v>
+        <v>0.92993636571899996</v>
       </c>
       <c r="H13" s="13">
-        <v>5.9443100216460003</v>
+        <v>6.5465562420249999</v>
       </c>
       <c r="I13" s="14">
-        <v>5.0276503008609996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
+        <v>6.3896359491250001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="10" customFormat="1">
       <c r="B14" s="15">
         <v>2024</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D14" s="17">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E14" s="17">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="F14" s="17">
-        <v>2.5</v>
+        <v>3.08</v>
       </c>
       <c r="G14" s="17">
-        <v>0.369278560704</v>
+        <v>0.36347128034499998</v>
       </c>
       <c r="H14" s="17">
-        <v>5.4435169997889998</v>
+        <v>5.5839230062159997</v>
       </c>
       <c r="I14" s="18">
-        <v>4.1671604236400004</v>
+        <v>5.4093956461269999</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -1218,25 +1218,25 @@
         <v>2024</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D15" s="13">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E15" s="13">
-        <v>4.05</v>
+        <v>3.91</v>
       </c>
       <c r="F15" s="13">
-        <v>2.27</v>
+        <v>2.79</v>
       </c>
       <c r="G15" s="13">
-        <v>0.57640336761699995</v>
+        <v>0.82606636652200005</v>
       </c>
       <c r="H15" s="13">
-        <v>5.2622559551570003</v>
+        <v>5.9443100216460003</v>
       </c>
       <c r="I15" s="14">
-        <v>3.7839086993529998</v>
+        <v>5.0276503008609996</v>
       </c>
     </row>
     <row r="16" spans="2:14">
@@ -1244,25 +1244,25 @@
         <v>2024</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="17">
         <v>0.22</v>
       </c>
       <c r="E16" s="17">
-        <v>4.13</v>
+        <v>4</v>
       </c>
       <c r="F16" s="17">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="G16" s="17">
-        <v>1.2563585232509999</v>
+        <v>0.369278560704</v>
       </c>
       <c r="H16" s="17">
-        <v>4.8260810216649999</v>
+        <v>5.4435169997889998</v>
       </c>
       <c r="I16" s="18">
-        <v>3.1891231186829998</v>
+        <v>4.1671604236400004</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1270,25 +1270,25 @@
         <v>2024</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="13">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="E17" s="13">
-        <v>4.21</v>
+        <v>4.05</v>
       </c>
       <c r="F17" s="13">
-        <v>1.73</v>
+        <v>2.27</v>
       </c>
       <c r="G17" s="13">
-        <v>0.42360958839500001</v>
+        <v>0.57640336761699995</v>
       </c>
       <c r="H17" s="13">
-        <v>3.3687665536420002</v>
+        <v>5.2622559551570003</v>
       </c>
       <c r="I17" s="14">
-        <v>1.9087834320920001</v>
+        <v>3.7839086993529998</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1296,25 +1296,25 @@
         <v>2024</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="17">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E18" s="17">
-        <v>4.37</v>
+        <v>4.13</v>
       </c>
       <c r="F18" s="17">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="G18" s="17">
-        <v>0.25418029563599998</v>
+        <v>1.2563585232509999</v>
       </c>
       <c r="H18" s="17">
-        <v>2.7425824040540001</v>
+        <v>4.8260810216649999</v>
       </c>
       <c r="I18" s="18">
-        <v>1.478909043187</v>
+        <v>3.1891231186829998</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -1322,25 +1322,25 @@
         <v>2024</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="13">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="E19" s="13">
-        <v>4.55</v>
+        <v>4.21</v>
       </c>
       <c r="F19" s="13">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="G19" s="13">
-        <v>0.53214056444000002</v>
+        <v>0.42360958839500001</v>
       </c>
       <c r="H19" s="13">
-        <v>2.3469442441570001</v>
+        <v>3.3687665536420002</v>
       </c>
       <c r="I19" s="14">
-        <v>1.2216236210189999</v>
+        <v>1.9087834320920001</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -1348,129 +1348,129 @@
         <v>2024</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4.37</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.25418029563599998</v>
+      </c>
+      <c r="H20" s="17">
+        <v>2.7425824040540001</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1.478909043187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="E21" s="13">
+        <v>4.55</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1.34</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.53214056444000002</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2.3469442441570001</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1.2216236210189999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D22" s="17">
         <v>0.49</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E22" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F22" s="17">
         <v>0.9</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G22" s="17">
         <v>0.348921618228</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H22" s="17">
         <v>2.3687450634360001</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I22" s="18">
         <v>0.68583345854199995</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="19">
+    <row r="23" spans="2:9">
+      <c r="B23" s="19">
         <v>2024</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D23" s="21">
         <v>0.4</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E23" s="21">
         <v>4.76</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F23" s="21">
         <v>0.4</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G23" s="21">
         <v>0.33574036958300002</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H23" s="21">
         <v>2.1715546272230002</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I23" s="22">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="23">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="23">
         <v>2023</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C24" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D24" s="25">
         <v>0.44</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E24" s="25">
         <v>5.09</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F24" s="25">
         <v>5.09</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G24" s="25">
         <v>0.147495845343</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H24" s="25">
         <v>2.3990681262220002</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I24" s="26">
         <v>2.3990681262220002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0.26</v>
-      </c>
-      <c r="E23" s="13">
-        <v>5.3</v>
-      </c>
-      <c r="F23" s="13">
-        <v>4.63</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1.8048505045E-2</v>
-      </c>
-      <c r="H23" s="13">
-        <v>2.6522066151989998</v>
-      </c>
-      <c r="I23" s="14">
-        <v>2.248256196397</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0.39</v>
-      </c>
-      <c r="E24" s="17">
-        <v>5.5</v>
-      </c>
-      <c r="F24" s="17">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0.70603945590799999</v>
-      </c>
-      <c r="H24" s="17">
-        <v>2.5168997772570001</v>
-      </c>
-      <c r="I24" s="18">
-        <v>2.2298052448400001</v>
       </c>
     </row>
     <row r="25" spans="2:9" hidden="1">
@@ -1478,25 +1478,25 @@
         <v>2023</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="13">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="E25" s="13">
-        <v>5.76</v>
+        <v>5.3</v>
       </c>
       <c r="F25" s="13">
-        <v>3.95</v>
+        <v>4.63</v>
       </c>
       <c r="G25" s="13">
-        <v>0.34946700552499999</v>
+        <v>1.8048505045E-2</v>
       </c>
       <c r="H25" s="13">
-        <v>1.9439072454349999</v>
+        <v>2.6522066151989998</v>
       </c>
       <c r="I25" s="14">
-        <v>1.513082827172</v>
+        <v>2.248256196397</v>
       </c>
     </row>
     <row r="26" spans="2:9" hidden="1">
@@ -1504,25 +1504,25 @@
         <v>2023</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="E26" s="17">
-        <v>6.08</v>
+        <v>5.5</v>
       </c>
       <c r="F26" s="17">
-        <v>3.58</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G26" s="17">
-        <v>0.196740307063</v>
+        <v>0.70603945590799999</v>
       </c>
       <c r="H26" s="17">
-        <v>1.675847035776</v>
+        <v>2.5168997772570001</v>
       </c>
       <c r="I26" s="18">
-        <v>1.159563529703</v>
+        <v>2.2298052448400001</v>
       </c>
     </row>
     <row r="27" spans="2:9" hidden="1">
@@ -1530,25 +1530,25 @@
         <v>2023</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D27" s="13">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="E27" s="13">
-        <v>6.64</v>
+        <v>5.76</v>
       </c>
       <c r="F27" s="13">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="G27" s="13">
-        <v>0.15964518918199999</v>
+        <v>0.34946700552499999</v>
       </c>
       <c r="H27" s="13">
-        <v>1.530754654866</v>
+        <v>1.9439072454349999</v>
       </c>
       <c r="I27" s="14">
-        <v>0.96093268073299998</v>
+        <v>1.513082827172</v>
       </c>
     </row>
     <row r="28" spans="2:9" hidden="1">
@@ -1556,25 +1556,25 @@
         <v>2023</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="E28" s="17">
-        <v>6.89</v>
+        <v>6.08</v>
       </c>
       <c r="F28" s="17">
-        <v>2.89</v>
+        <v>3.58</v>
       </c>
       <c r="G28" s="17">
-        <v>-0.15132890355199999</v>
+        <v>0.196740307063</v>
       </c>
       <c r="H28" s="17">
-        <v>2.1835078429219998</v>
+        <v>1.675847035776</v>
       </c>
       <c r="I28" s="18">
-        <v>0.80001031357200003</v>
+        <v>1.159563529703</v>
       </c>
     </row>
     <row r="29" spans="2:9" hidden="1">
@@ -1582,25 +1582,25 @@
         <v>2023</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="13">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="E29" s="13">
-        <v>7.39</v>
+        <v>6.64</v>
       </c>
       <c r="F29" s="13">
-        <v>2.59</v>
+        <v>3.3</v>
       </c>
       <c r="G29" s="13">
-        <v>-0.18473347948900001</v>
+        <v>0.15964518918199999</v>
       </c>
       <c r="H29" s="13">
-        <v>2.9355319108579998</v>
+        <v>1.530754654866</v>
       </c>
       <c r="I29" s="14">
-        <v>0.95278105024100002</v>
+        <v>0.96093268073299998</v>
       </c>
     </row>
     <row r="30" spans="2:9" hidden="1">
@@ -1608,25 +1608,25 @@
         <v>2023</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="E30" s="17">
-        <v>7.67</v>
+        <v>6.89</v>
       </c>
       <c r="F30" s="17">
-        <v>2.2599999999999998</v>
+        <v>2.89</v>
       </c>
       <c r="G30" s="17">
-        <v>-0.13187559751</v>
+        <v>-0.15132890355199999</v>
       </c>
       <c r="H30" s="17">
-        <v>3.6988889525249999</v>
+        <v>2.1835078429219998</v>
       </c>
       <c r="I30" s="18">
-        <v>1.1396197890190001</v>
+        <v>0.80001031357200003</v>
       </c>
     </row>
     <row r="31" spans="2:9" hidden="1">
@@ -1634,25 +1634,25 @@
         <v>2023</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" s="13">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
       <c r="E31" s="13">
-        <v>8.09</v>
+        <v>7.39</v>
       </c>
       <c r="F31" s="13">
-        <v>1.86</v>
+        <v>2.59</v>
       </c>
       <c r="G31" s="13">
-        <v>0.55355481421800001</v>
+        <v>-0.18473347948900001</v>
       </c>
       <c r="H31" s="13">
-        <v>4.5062159802339998</v>
+        <v>2.9355319108579998</v>
       </c>
       <c r="I31" s="14">
-        <v>1.2731743928670001</v>
+        <v>0.95278105024100002</v>
       </c>
     </row>
     <row r="32" spans="2:9" hidden="1">
@@ -1660,129 +1660,129 @@
         <v>2023</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.39</v>
+      </c>
+      <c r="E32" s="17">
+        <v>7.67</v>
+      </c>
+      <c r="F32" s="17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-0.13187559751</v>
+      </c>
+      <c r="H32" s="17">
+        <v>3.6988889525249999</v>
+      </c>
+      <c r="I32" s="18">
+        <v>1.1396197890190001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="E33" s="13">
+        <v>8.09</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1.86</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.55355481421800001</v>
+      </c>
+      <c r="H33" s="13">
+        <v>4.5062159802339998</v>
+      </c>
+      <c r="I33" s="14">
+        <v>1.2731743928670001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D34" s="17">
         <v>0.61</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E34" s="17">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F34" s="17">
         <v>1.33</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G34" s="17">
         <v>0.15562191903600001</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H34" s="17">
         <v>5.242353451924</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I34" s="18">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="19">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="19">
         <v>2023</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D35" s="21">
         <v>0.71</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E35" s="21">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F35" s="21">
         <v>0.71</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G35" s="21">
         <v>0.55916591546500005</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H35" s="21">
         <v>5.9305104600370004</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I35" s="22">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="23">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="23">
         <v>2022</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C36" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D36" s="25">
         <v>0.65</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E36" s="25">
         <v>8.35</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F36" s="25">
         <v>8.35</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G36" s="25">
         <v>0.39506827189900001</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H36" s="25">
         <v>5.5533388149269998</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I36" s="26">
         <v>5.5533388149269998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="E35" s="13">
-        <v>8.51</v>
-      </c>
-      <c r="F35" s="13">
-        <v>7.65</v>
-      </c>
-      <c r="G35" s="13">
-        <v>-0.113786224344</v>
-      </c>
-      <c r="H35" s="13">
-        <v>6.1787824133119997</v>
-      </c>
-      <c r="I35" s="14">
-        <v>5.1379720456570004</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="17">
-        <v>0.63</v>
-      </c>
-      <c r="E36" s="17">
-        <v>8.42</v>
-      </c>
-      <c r="F36" s="17">
-        <v>7.17</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0.143168274249</v>
-      </c>
-      <c r="H36" s="17">
-        <v>7.2420809480689998</v>
-      </c>
-      <c r="I36" s="18">
-        <v>5.2577408548060003</v>
       </c>
     </row>
     <row r="37" spans="2:9" hidden="1">
@@ -1790,25 +1790,25 @@
         <v>2022</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="13">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="E37" s="13">
-        <v>8.2799999999999994</v>
+        <v>8.51</v>
       </c>
       <c r="F37" s="13">
-        <v>6.5</v>
+        <v>7.65</v>
       </c>
       <c r="G37" s="13">
-        <v>8.5599356230999998E-2</v>
+        <v>-0.113786224344</v>
       </c>
       <c r="H37" s="13">
-        <v>7.9839703932569996</v>
+        <v>6.1787824133119997</v>
       </c>
       <c r="I37" s="14">
-        <v>5.1072606036890003</v>
+        <v>5.1379720456570004</v>
       </c>
     </row>
     <row r="38" spans="2:9" hidden="1">
@@ -1816,25 +1816,25 @@
         <v>2022</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="E38" s="17">
-        <v>8.0500000000000007</v>
+        <v>8.42</v>
       </c>
       <c r="F38" s="17">
-        <v>5.79</v>
+        <v>7.17</v>
       </c>
       <c r="G38" s="17">
-        <v>5.3758625233999997E-2</v>
+        <v>0.143168274249</v>
       </c>
       <c r="H38" s="17">
-        <v>8.2770800745350002</v>
+        <v>7.2420809480689998</v>
       </c>
       <c r="I38" s="18">
-        <v>5.0173664141080003</v>
+        <v>5.2577408548060003</v>
       </c>
     </row>
     <row r="39" spans="2:9" hidden="1">
@@ -1842,25 +1842,25 @@
         <v>2022</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D39" s="13">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="E39" s="13">
-        <v>7.65</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F39" s="13">
-        <v>4.95</v>
+        <v>6.5</v>
       </c>
       <c r="G39" s="13">
-        <v>0.80358335288500005</v>
+        <v>8.5599356230999998E-2</v>
       </c>
       <c r="H39" s="13">
-        <v>8.5613806924040006</v>
+        <v>7.9839703932569996</v>
       </c>
       <c r="I39" s="14">
-        <v>4.9609408552709997</v>
+        <v>5.1072606036890003</v>
       </c>
     </row>
     <row r="40" spans="2:9" hidden="1">
@@ -1868,25 +1868,25 @@
         <v>2022</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="E40" s="17">
-        <v>7.49</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="F40" s="17">
-        <v>4.3</v>
+        <v>5.79</v>
       </c>
       <c r="G40" s="17">
-        <v>0.58351182956699998</v>
+        <v>5.3758625233999997E-2</v>
       </c>
       <c r="H40" s="17">
-        <v>8.1206306866349998</v>
+        <v>8.2770800745350002</v>
       </c>
       <c r="I40" s="18">
-        <v>4.1242159892599997</v>
+        <v>5.0173664141080003</v>
       </c>
     </row>
     <row r="41" spans="2:9" hidden="1">
@@ -1894,25 +1894,25 @@
         <v>2022</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="13">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="E41" s="13">
-        <v>7.28</v>
+        <v>7.65</v>
       </c>
       <c r="F41" s="13">
-        <v>3.5</v>
+        <v>4.95</v>
       </c>
       <c r="G41" s="13">
-        <v>0.55548406395600003</v>
+        <v>0.80358335288500005</v>
       </c>
       <c r="H41" s="13">
-        <v>8.3083117124939996</v>
+        <v>8.5613806924040006</v>
       </c>
       <c r="I41" s="14">
-        <v>3.5201635887329998</v>
+        <v>4.9609408552709997</v>
       </c>
     </row>
     <row r="42" spans="2:9" hidden="1">
@@ -1920,25 +1920,25 @@
         <v>2022</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E42" s="17">
-        <v>7.22</v>
+        <v>7.49</v>
       </c>
       <c r="F42" s="17">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="G42" s="17">
-        <v>0.64562777645299996</v>
+        <v>0.58351182956699998</v>
       </c>
       <c r="H42" s="17">
-        <v>8.3624942961670001</v>
+        <v>8.1206306866349998</v>
       </c>
       <c r="I42" s="18">
-        <v>2.948302176031</v>
+        <v>4.1242159892599997</v>
       </c>
     </row>
     <row r="43" spans="2:9" hidden="1">
@@ -1946,25 +1946,25 @@
         <v>2022</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="13">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="E43" s="13">
-        <v>6.78</v>
+        <v>7.28</v>
       </c>
       <c r="F43" s="13">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="G43" s="13">
-        <v>1.261849903808</v>
+        <v>0.55548406395600003</v>
       </c>
       <c r="H43" s="13">
-        <v>7.8586284732739999</v>
+        <v>8.3083117124939996</v>
       </c>
       <c r="I43" s="14">
-        <v>2.2879030619130001</v>
+        <v>3.5201635887329998</v>
       </c>
     </row>
     <row r="44" spans="2:9" hidden="1">
@@ -1972,129 +1972,129 @@
         <v>2022</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="E44" s="17">
+        <v>7.22</v>
+      </c>
+      <c r="F44" s="17">
+        <v>2.9</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0.64562777645299996</v>
+      </c>
+      <c r="H44" s="17">
+        <v>8.3624942961670001</v>
+      </c>
+      <c r="I44" s="18">
+        <v>2.948302176031</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="E45" s="13">
+        <v>6.78</v>
+      </c>
+      <c r="F45" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="G45" s="13">
+        <v>1.261849903808</v>
+      </c>
+      <c r="H45" s="13">
+        <v>7.8586284732739999</v>
+      </c>
+      <c r="I45" s="14">
+        <v>2.2879030619130001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D46" s="17">
         <v>0.76</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E46" s="17">
         <v>6.59</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F46" s="17">
         <v>1.38</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G46" s="17">
         <v>0.81051788881300002</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H46" s="17">
         <v>7.882525801491</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I46" s="18">
         <v>1.013267246331</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="18" hidden="1" customHeight="1">
-      <c r="B45" s="19">
+    <row r="47" spans="2:9" ht="18" hidden="1" customHeight="1">
+      <c r="B47" s="19">
         <v>2022</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D47" s="21">
         <v>0.62</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E47" s="21">
         <v>6.21</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F47" s="21">
         <v>0.62</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G47" s="21">
         <v>0.201119250019</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H47" s="21">
         <v>7.9360282135400002</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I47" s="22">
         <v>0.201119250019</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="23">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="23">
         <v>2021</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D48" s="25">
         <v>0.8</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E48" s="25">
         <v>5.94</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F48" s="25">
         <v>5.94</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G48" s="25">
         <v>0.98994715934099997</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H48" s="25">
         <v>8.4353053849300004</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I48" s="26">
         <v>8.4353053849300004</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="13">
-        <v>0.37</v>
-      </c>
-      <c r="E47" s="13">
-        <v>5.67</v>
-      </c>
-      <c r="F47" s="13">
-        <v>5.09</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0.88649709343500005</v>
-      </c>
-      <c r="H47" s="13">
-        <v>7.2086688466229996</v>
-      </c>
-      <c r="I47" s="14">
-        <v>7.3723756027340004</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0.49</v>
-      </c>
-      <c r="E48" s="17">
-        <v>5.19</v>
-      </c>
-      <c r="F48" s="17">
-        <v>4.71</v>
-      </c>
-      <c r="G48" s="17">
-        <v>0.83594818763300005</v>
-      </c>
-      <c r="H48" s="17">
-        <v>5.9199708831139999</v>
-      </c>
-      <c r="I48" s="18">
-        <v>6.4288866163060003</v>
       </c>
     </row>
     <row r="49" spans="2:9" hidden="1">
@@ -2102,25 +2102,25 @@
         <v>2021</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" s="13">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="E49" s="13">
-        <v>4.92</v>
+        <v>5.67</v>
       </c>
       <c r="F49" s="13">
-        <v>4.1900000000000004</v>
+        <v>5.09</v>
       </c>
       <c r="G49" s="13">
-        <v>0.35726984603599998</v>
+        <v>0.88649709343500005</v>
       </c>
       <c r="H49" s="13">
-        <v>5.164508955364</v>
+        <v>7.2086688466229996</v>
       </c>
       <c r="I49" s="14">
-        <v>5.5465719608899997</v>
+        <v>7.3723756027340004</v>
       </c>
     </row>
     <row r="50" spans="2:9" hidden="1">
@@ -2128,25 +2128,25 @@
         <v>2021</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="E50" s="17">
-        <v>4.78</v>
+        <v>5.19</v>
       </c>
       <c r="F50" s="17">
-        <v>3.72</v>
+        <v>4.71</v>
       </c>
       <c r="G50" s="17">
-        <v>0.316467458699</v>
+        <v>0.83594818763300005</v>
       </c>
       <c r="H50" s="17">
-        <v>4.5155081427589998</v>
+        <v>5.9199708831139999</v>
       </c>
       <c r="I50" s="18">
-        <v>5.1708283045319998</v>
+        <v>6.4288866163060003</v>
       </c>
     </row>
     <row r="51" spans="2:9" hidden="1">
@@ -2154,25 +2154,25 @@
         <v>2021</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D51" s="13">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="E51" s="13">
-        <v>4.66</v>
+        <v>4.92</v>
       </c>
       <c r="F51" s="13">
-        <v>3.28</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G51" s="13">
-        <v>0.39432934689400001</v>
+        <v>0.35726984603599998</v>
       </c>
       <c r="H51" s="13">
-        <v>4.3958643907160004</v>
+        <v>5.164508955364</v>
       </c>
       <c r="I51" s="14">
-        <v>4.8390468372819999</v>
+        <v>5.5465719608899997</v>
       </c>
     </row>
     <row r="52" spans="2:9" hidden="1">
@@ -2180,25 +2180,25 @@
         <v>2021</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17">
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
       <c r="E52" s="17">
-        <v>4.58</v>
+        <v>4.78</v>
       </c>
       <c r="F52" s="17">
-        <v>2.79</v>
+        <v>3.72</v>
       </c>
       <c r="G52" s="17">
-        <v>0.75810955957199999</v>
+        <v>0.316467458699</v>
       </c>
       <c r="H52" s="17">
-        <v>4.8265532737239996</v>
+        <v>4.5155081427589998</v>
       </c>
       <c r="I52" s="18">
-        <v>4.4272595068890004</v>
+        <v>5.1708283045319998</v>
       </c>
     </row>
     <row r="53" spans="2:9" hidden="1">
@@ -2206,25 +2206,25 @@
         <v>2021</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="13">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="E53" s="13">
-        <v>4.37</v>
+        <v>4.66</v>
       </c>
       <c r="F53" s="13">
-        <v>2.2000000000000002</v>
+        <v>3.28</v>
       </c>
       <c r="G53" s="13">
-        <v>0.60578819891000002</v>
+        <v>0.39432934689400001</v>
       </c>
       <c r="H53" s="13">
-        <v>3.1959619273520001</v>
+        <v>4.3958643907160004</v>
       </c>
       <c r="I53" s="14">
-        <v>3.6415430612540001</v>
+        <v>4.8390468372819999</v>
       </c>
     </row>
     <row r="54" spans="2:9" hidden="1">
@@ -2232,25 +2232,25 @@
         <v>2021</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17">
-        <v>0.37</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E54" s="17">
-        <v>4.13</v>
+        <v>4.58</v>
       </c>
       <c r="F54" s="17">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="G54" s="17">
-        <v>0.17764397458799999</v>
+        <v>0.75810955957199999</v>
       </c>
       <c r="H54" s="17">
-        <v>2.1669307819279999</v>
+        <v>4.8265532737239996</v>
       </c>
       <c r="I54" s="18">
-        <v>3.0174753527510001</v>
+        <v>4.4272595068890004</v>
       </c>
     </row>
     <row r="55" spans="2:9" hidden="1">
@@ -2258,25 +2258,25 @@
         <v>2021</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="13">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="E55" s="13">
-        <v>4.12</v>
+        <v>4.37</v>
       </c>
       <c r="F55" s="13">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G55" s="13">
-        <v>1.284285639338</v>
+        <v>0.60578819891000002</v>
       </c>
       <c r="H55" s="13">
-        <v>4.1277875031009996</v>
+        <v>3.1959619273520001</v>
       </c>
       <c r="I55" s="14">
-        <v>2.8347955347039999</v>
+        <v>3.6415430612540001</v>
       </c>
     </row>
     <row r="56" spans="2:9" hidden="1">
@@ -2284,129 +2284,129 @@
         <v>2021</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="E56" s="17">
+        <v>4.13</v>
+      </c>
+      <c r="F56" s="17">
+        <v>1.67</v>
+      </c>
+      <c r="G56" s="17">
+        <v>0.17764397458799999</v>
+      </c>
+      <c r="H56" s="17">
+        <v>2.1669307819279999</v>
+      </c>
+      <c r="I56" s="18">
+        <v>3.0174753527510001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="E57" s="13">
+        <v>4.12</v>
+      </c>
+      <c r="F57" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="G57" s="13">
+        <v>1.284285639338</v>
+      </c>
+      <c r="H57" s="13">
+        <v>4.1277875031009996</v>
+      </c>
+      <c r="I57" s="14">
+        <v>2.8347955347039999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D58" s="17">
         <v>0.39</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E58" s="17">
         <v>3.87</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F58" s="17">
         <v>0.75</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G58" s="17">
         <v>0.86051306483400003</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H58" s="17">
         <v>5.442223849636</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I58" s="18">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="19">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="19">
         <v>2021</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D59" s="21">
         <v>0.36</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E59" s="21">
         <v>3.84</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F59" s="21">
         <v>0.36</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G59" s="21">
         <v>0.66461723319800003</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H59" s="21">
         <v>5.0089705057009999</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I59" s="22">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="23">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="23">
         <v>2020</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D60" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E60" s="25">
         <v>3.8</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F60" s="25">
         <v>3.8</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G60" s="25">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="H58" s="25">
+      <c r="H60" s="25">
         <v>4.0477807569659996</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I60" s="26">
         <v>4.0477807569659996</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="13">
-        <v>-0.08</v>
-      </c>
-      <c r="E59" s="13">
-        <v>3.66</v>
-      </c>
-      <c r="F59" s="13">
-        <v>3.24</v>
-      </c>
-      <c r="G59" s="13">
-        <v>-0.32620543098400001</v>
-      </c>
-      <c r="H59" s="13">
-        <v>4.5265419274339997</v>
-      </c>
-      <c r="I59" s="14">
-        <v>4.2066608629460003</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="17">
-        <v>0.24</v>
-      </c>
-      <c r="E60" s="17">
-        <v>3.98</v>
-      </c>
-      <c r="F60" s="17">
-        <v>3.33</v>
-      </c>
-      <c r="G60" s="17">
-        <v>0.116747463074</v>
-      </c>
-      <c r="H60" s="17">
-        <v>5.1137554069669999</v>
-      </c>
-      <c r="I60" s="18">
-        <v>4.5477011420390001</v>
       </c>
     </row>
     <row r="61" spans="2:9" hidden="1">
@@ -2414,25 +2414,25 @@
         <v>2020</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D61" s="13">
-        <v>0.32</v>
+        <v>-0.08</v>
       </c>
       <c r="E61" s="13">
-        <v>3.99</v>
+        <v>3.66</v>
       </c>
       <c r="F61" s="13">
-        <v>3.08</v>
+        <v>3.24</v>
       </c>
       <c r="G61" s="13">
-        <v>-0.26206409397699998</v>
+        <v>-0.32620543098400001</v>
       </c>
       <c r="H61" s="13">
-        <v>4.8518955410490001</v>
+        <v>4.5265419274339997</v>
       </c>
       <c r="I61" s="14">
-        <v>4.4257866852900003</v>
+        <v>4.2066608629460003</v>
       </c>
     </row>
     <row r="62" spans="2:9" hidden="1">
@@ -2440,25 +2440,25 @@
         <v>2020</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D62" s="17">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="E62" s="17">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="F62" s="17">
-        <v>2.75</v>
+        <v>3.33</v>
       </c>
       <c r="G62" s="17">
-        <v>0.201630543376</v>
+        <v>0.116747463074</v>
       </c>
       <c r="H62" s="17">
-        <v>5.6406719752800001</v>
+        <v>5.1137554069669999</v>
       </c>
       <c r="I62" s="18">
-        <v>4.7001682325600003</v>
+        <v>4.5477011420390001</v>
       </c>
     </row>
     <row r="63" spans="2:9" hidden="1">
@@ -2466,25 +2466,25 @@
         <v>2020</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D63" s="13">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="E63" s="13">
-        <v>3.85</v>
+        <v>3.99</v>
       </c>
       <c r="F63" s="13">
-        <v>2.4300000000000002</v>
+        <v>3.08</v>
       </c>
       <c r="G63" s="13">
-        <v>0.80850975355200005</v>
+        <v>-0.26206409397699998</v>
       </c>
       <c r="H63" s="13">
-        <v>5.3835626013460001</v>
+        <v>4.8518955410490001</v>
       </c>
       <c r="I63" s="14">
-        <v>4.4894855151449997</v>
+        <v>4.4257866852900003</v>
       </c>
     </row>
     <row r="64" spans="2:9" hidden="1">
@@ -2492,25 +2492,25 @@
         <v>2020</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="17">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="E64" s="17">
-        <v>3.71</v>
+        <v>3.97</v>
       </c>
       <c r="F64" s="17">
-        <v>2.0299999999999998</v>
+        <v>2.75</v>
       </c>
       <c r="G64" s="17">
-        <v>-0.80919658942999995</v>
+        <v>0.201630543376</v>
       </c>
       <c r="H64" s="17">
-        <v>4.684646083144</v>
+        <v>5.6406719752800001</v>
       </c>
       <c r="I64" s="18">
-        <v>3.6514534046699998</v>
+        <v>4.7001682325600003</v>
       </c>
     </row>
     <row r="65" spans="2:9" hidden="1">
@@ -2518,25 +2518,25 @@
         <v>2020</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="13">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E65" s="13">
-        <v>3.64</v>
+        <v>3.85</v>
       </c>
       <c r="F65" s="13">
-        <v>1.65</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G65" s="13">
-        <v>-0.39741471264900002</v>
+        <v>0.80850975355200005</v>
       </c>
       <c r="H65" s="13">
-        <v>6.0913765134869999</v>
+        <v>5.3835626013460001</v>
       </c>
       <c r="I65" s="14">
-        <v>4.4970398874960003</v>
+        <v>4.4894855151449997</v>
       </c>
     </row>
     <row r="66" spans="2:9" hidden="1">
@@ -2544,25 +2544,25 @@
         <v>2020</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D66" s="17">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E66" s="17">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="F66" s="17">
-        <v>1.35</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G66" s="17">
-        <v>2.100320960141</v>
+        <v>-0.80919658942999995</v>
       </c>
       <c r="H66" s="17">
-        <v>6.5491539587240002</v>
+        <v>4.684646083144</v>
       </c>
       <c r="I66" s="18">
-        <v>4.9139834935250004</v>
+        <v>3.6514534046699998</v>
       </c>
     </row>
     <row r="67" spans="2:9" hidden="1">
@@ -2570,25 +2570,25 @@
         <v>2020</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" s="13">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E67" s="13">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="F67" s="13">
-        <v>0.99</v>
+        <v>1.65</v>
       </c>
       <c r="G67" s="13">
-        <v>2.562827607524</v>
+        <v>-0.39741471264900002</v>
       </c>
       <c r="H67" s="13">
-        <v>4.6539310234500002</v>
+        <v>6.0913765134869999</v>
       </c>
       <c r="I67" s="14">
-        <v>2.755782260942</v>
+        <v>4.4970398874960003</v>
       </c>
     </row>
     <row r="68" spans="2:9" hidden="1">
@@ -2596,129 +2596,129 @@
         <v>2020</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68" s="17">
         <v>0.36</v>
       </c>
       <c r="E68" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="F68" s="17">
+        <v>1.35</v>
+      </c>
+      <c r="G68" s="17">
+        <v>2.100320960141</v>
+      </c>
+      <c r="H68" s="17">
+        <v>6.5491539587240002</v>
+      </c>
+      <c r="I68" s="18">
+        <v>4.9139834935250004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E69" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="G69" s="13">
+        <v>2.562827607524</v>
+      </c>
+      <c r="H69" s="13">
+        <v>4.6539310234500002</v>
+      </c>
+      <c r="I69" s="14">
+        <v>2.755782260942</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="E70" s="17">
         <v>3.66</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F70" s="17">
         <v>0.69</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G70" s="17">
         <v>0.44608559013799998</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H70" s="17">
         <v>2.2791453993499999</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I70" s="18">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="19">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="19">
         <v>2020</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D71" s="21">
         <v>0.33</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E71" s="21">
         <v>3.73</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F71" s="21">
         <v>0.33</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G71" s="21">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H71" s="21">
         <v>1.84862881086</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I71" s="22">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="23">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="23">
         <v>2019</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="25">
+      <c r="D72" s="25">
         <v>0.41</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E72" s="25">
         <v>3.59</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F72" s="25">
         <v>3.59</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G72" s="25">
         <v>0.306967963314</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H72" s="25">
         <v>1.586696971267</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I72" s="26">
         <v>1.586696971267</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="E71" s="13">
-        <v>3.65</v>
-      </c>
-      <c r="F71" s="13">
-        <v>3.17</v>
-      </c>
-      <c r="G71" s="13">
-        <v>0.23374608609399999</v>
-      </c>
-      <c r="H71" s="13">
-        <v>1.8270378469140001</v>
-      </c>
-      <c r="I71" s="14">
-        <v>1.2758126717789999</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="E72" s="17">
-        <v>3.68</v>
-      </c>
-      <c r="F72" s="17">
-        <v>2.94</v>
-      </c>
-      <c r="G72" s="17">
-        <v>-0.13266383391</v>
-      </c>
-      <c r="H72" s="17">
-        <v>3.0075460228350002</v>
-      </c>
-      <c r="I72" s="18">
-        <v>1.0396364761120001</v>
       </c>
     </row>
     <row r="73" spans="2:9" hidden="1">
@@ -2726,25 +2726,25 @@
         <v>2019</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="13">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="E73" s="13">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="F73" s="13">
-        <v>2.69</v>
+        <v>3.17</v>
       </c>
       <c r="G73" s="13">
-        <v>0.48824121081100003</v>
+        <v>0.23374608609399999</v>
       </c>
       <c r="H73" s="13">
-        <v>3.4825490942520001</v>
+        <v>1.8270378469140001</v>
       </c>
       <c r="I73" s="14">
-        <v>1.173857594512</v>
+        <v>1.2758126717789999</v>
       </c>
     </row>
     <row r="74" spans="2:9" hidden="1">
@@ -2752,25 +2752,25 @@
         <v>2019</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D74" s="17">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E74" s="17">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="F74" s="17">
-        <v>2.39</v>
+        <v>2.94</v>
       </c>
       <c r="G74" s="17">
-        <v>-4.2241234551999997E-2</v>
+        <v>-0.13266383391</v>
       </c>
       <c r="H74" s="17">
-        <v>3.5690342385120002</v>
+        <v>3.0075460228350002</v>
       </c>
       <c r="I74" s="18">
-        <v>0.68228518624599999</v>
+        <v>1.0396364761120001</v>
       </c>
     </row>
     <row r="75" spans="2:9" hidden="1">
@@ -2778,25 +2778,25 @@
         <v>2019</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D75" s="13">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="E75" s="13">
-        <v>3.82</v>
+        <v>3.75</v>
       </c>
       <c r="F75" s="13">
-        <v>2.1800000000000002</v>
+        <v>2.69</v>
       </c>
       <c r="G75" s="13">
-        <v>0.139935538533</v>
+        <v>0.48824121081100003</v>
       </c>
       <c r="H75" s="13">
-        <v>3.6017852246089999</v>
+        <v>3.4825490942520001</v>
       </c>
       <c r="I75" s="14">
-        <v>0.72483259903599995</v>
+        <v>1.173857594512</v>
       </c>
     </row>
     <row r="76" spans="2:9" hidden="1">
@@ -2804,25 +2804,25 @@
         <v>2019</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" s="17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E76" s="17">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="F76" s="17">
-        <v>1.91</v>
+        <v>2.39</v>
       </c>
       <c r="G76" s="17">
-        <v>0.523708729436</v>
+        <v>-4.2241234551999997E-2</v>
       </c>
       <c r="H76" s="17">
-        <v>2.8051480354380001</v>
+        <v>3.5690342385120002</v>
       </c>
       <c r="I76" s="18">
-        <v>0.58407972539399999</v>
+        <v>0.68228518624599999</v>
       </c>
     </row>
     <row r="77" spans="2:9" hidden="1">
@@ -2830,25 +2830,25 @@
         <v>2019</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77" s="13">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="E77" s="13">
-        <v>3.77</v>
+        <v>3.82</v>
       </c>
       <c r="F77" s="13">
-        <v>1.6</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G77" s="13">
-        <v>3.2364017068000003E-2</v>
+        <v>0.139935538533</v>
       </c>
       <c r="H77" s="13">
-        <v>3.4106486148780002</v>
+        <v>3.6017852246089999</v>
       </c>
       <c r="I77" s="14">
-        <v>6.0056474956E-2</v>
+        <v>0.72483259903599995</v>
       </c>
     </row>
     <row r="78" spans="2:9" hidden="1">
@@ -2856,25 +2856,25 @@
         <v>2019</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="17">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="E78" s="17">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
       <c r="F78" s="17">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="G78" s="17">
-        <v>0.28423080087500002</v>
+        <v>0.523708729436</v>
       </c>
       <c r="H78" s="17">
-        <v>4.691393512895</v>
+        <v>2.8051480354380001</v>
       </c>
       <c r="I78" s="18">
-        <v>2.7683498397E-2</v>
+        <v>0.58407972539399999</v>
       </c>
     </row>
     <row r="79" spans="2:9" hidden="1">
@@ -2882,25 +2882,25 @@
         <v>2019</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" s="13">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="E79" s="13">
-        <v>3.55</v>
+        <v>3.77</v>
       </c>
       <c r="F79" s="13">
-        <v>0.98</v>
+        <v>1.6</v>
       </c>
       <c r="G79" s="13">
-        <v>0.23549287496900001</v>
+        <v>3.2364017068000003E-2</v>
       </c>
       <c r="H79" s="13">
-        <v>4.3140852336069999</v>
+        <v>3.4106486148780002</v>
       </c>
       <c r="I79" s="14">
-        <v>-0.25582018272399998</v>
+        <v>6.0056474956E-2</v>
       </c>
     </row>
     <row r="80" spans="2:9" hidden="1">
@@ -2908,103 +2908,103 @@
         <v>2019</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="E80" s="17">
+        <v>3.87</v>
+      </c>
+      <c r="F80" s="17">
+        <v>1.44</v>
+      </c>
+      <c r="G80" s="17">
+        <v>0.28423080087500002</v>
+      </c>
+      <c r="H80" s="17">
+        <v>4.691393512895</v>
+      </c>
+      <c r="I80" s="18">
+        <v>2.7683498397E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="E81" s="13">
+        <v>3.55</v>
+      </c>
+      <c r="F81" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="G81" s="13">
+        <v>0.23549287496900001</v>
+      </c>
+      <c r="H81" s="13">
+        <v>4.3140852336069999</v>
+      </c>
+      <c r="I81" s="14">
+        <v>-0.25582018272399998</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D82" s="17">
         <v>0.43</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E82" s="17">
         <v>3.54</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F82" s="17">
         <v>0.63</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G82" s="17">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H82" s="17">
         <v>4.5288462181250004</v>
       </c>
-      <c r="I80" s="18">
+      <c r="I82" s="18">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="19">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="19">
         <v>2019</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D83" s="21">
         <v>0.2</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E83" s="21">
         <v>3.6</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F83" s="21">
         <v>0.2</v>
       </c>
-      <c r="G81" s="21">
+      <c r="G83" s="21">
         <v>-0.513324016898</v>
       </c>
-      <c r="H81" s="21">
+      <c r="H83" s="21">
         <v>4.7656059104970003</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I83" s="22">
         <v>-0.513324016898</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="16">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="17">
-        <v>0.47</v>
-      </c>
-      <c r="E82" s="17">
-        <v>3.68</v>
-      </c>
-      <c r="F82" s="17">
-        <v>3.68</v>
-      </c>
-      <c r="G82" s="17">
-        <v>0.54428116703600005</v>
-      </c>
-      <c r="H82" s="17">
-        <v>5.9416820029600004</v>
-      </c>
-      <c r="I82" s="17">
-        <v>5.9416820029600004</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="E83" s="27">
-        <v>3.63</v>
-      </c>
-      <c r="F83" s="27">
-        <v>3.2</v>
-      </c>
-      <c r="G83" s="27">
-        <v>1.395782803059</v>
-      </c>
-      <c r="H83" s="27">
-        <v>5.803199134233</v>
-      </c>
-      <c r="I83" s="13">
-        <v>5.3681828277810002</v>
       </c>
     </row>
     <row r="84" spans="2:12" hidden="1">
@@ -3012,25 +3012,25 @@
         <v>2018</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D84" s="17">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="E84" s="17">
-        <v>3.73</v>
+        <v>3.68</v>
       </c>
       <c r="F84" s="17">
-        <v>2.94</v>
+        <v>3.68</v>
       </c>
       <c r="G84" s="17">
-        <v>0.327858654438</v>
+        <v>0.54428116703600005</v>
       </c>
       <c r="H84" s="17">
-        <v>5.3038402515170002</v>
+        <v>5.9416820029600004</v>
       </c>
       <c r="I84" s="17">
-        <v>3.9177172017480002</v>
+        <v>5.9416820029600004</v>
       </c>
     </row>
     <row r="85" spans="2:12" hidden="1">
@@ -3038,25 +3038,25 @@
         <v>2018</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D85" s="27">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="E85" s="27">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="F85" s="27">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="G85" s="27">
-        <v>0.57222387372000005</v>
+        <v>1.395782803059</v>
       </c>
       <c r="H85" s="27">
-        <v>6.0001919453579999</v>
+        <v>5.803199134233</v>
       </c>
       <c r="I85" s="13">
-        <v>3.5781273471350001</v>
+        <v>5.3681828277810002</v>
       </c>
     </row>
     <row r="86" spans="2:12" hidden="1">
@@ -3064,25 +3064,25 @@
         <v>2018</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D86" s="17">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="E86" s="17">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
       <c r="F86" s="17">
-        <v>2.29</v>
+        <v>2.94</v>
       </c>
       <c r="G86" s="17">
-        <v>-1.0632219447E-2</v>
+        <v>0.327858654438</v>
       </c>
       <c r="H86" s="17">
-        <v>5.557540466841</v>
+        <v>5.3038402515170002</v>
       </c>
       <c r="I86" s="17">
-        <v>2.988800841462</v>
+        <v>3.9177172017480002</v>
       </c>
     </row>
     <row r="87" spans="2:12" hidden="1">
@@ -3090,25 +3090,25 @@
         <v>2018</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D87" s="27">
-        <v>0.28999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="E87" s="27">
-        <v>3.63</v>
+        <v>3.67</v>
       </c>
       <c r="F87" s="27">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="G87" s="27">
-        <v>-0.63008204946799995</v>
+        <v>0.57222387372000005</v>
       </c>
       <c r="H87" s="27">
-        <v>5.7518140773019999</v>
+        <v>6.0001919453579999</v>
       </c>
       <c r="I87" s="13">
-        <v>2.999752001124</v>
+        <v>3.5781273471350001</v>
       </c>
     </row>
     <row r="88" spans="2:12" hidden="1">
@@ -3116,25 +3116,25 @@
         <v>2018</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="E88" s="17">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="F88" s="17">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="G88" s="17">
-        <v>1.1157721138700001</v>
+        <v>-1.0632219447E-2</v>
       </c>
       <c r="H88" s="17">
-        <v>6.3180830350320001</v>
+        <v>5.557540466841</v>
       </c>
       <c r="I88" s="17">
-        <v>3.6528500027540001</v>
+        <v>2.988800841462</v>
       </c>
     </row>
     <row r="89" spans="2:12" hidden="1">
@@ -3142,77 +3142,77 @@
         <v>2018</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89" s="27">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E89" s="27">
-        <v>3.69</v>
+        <v>3.63</v>
       </c>
       <c r="F89" s="27">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="G89" s="27">
-        <v>1.27126872918</v>
+        <v>-0.63008204946799995</v>
       </c>
       <c r="H89" s="27">
-        <v>4.8472071616769998</v>
+        <v>5.7518140773019999</v>
       </c>
       <c r="I89" s="13">
-        <v>2.5090822488370002</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
+        <v>2.999752001124</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" hidden="1">
       <c r="B90" s="16">
         <v>2018</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D90" s="17">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="E90" s="17">
-        <v>3.71</v>
+        <v>3.62</v>
       </c>
       <c r="F90" s="17">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G90" s="17">
-        <v>-7.7194043074000004E-2</v>
+        <v>1.1157721138700001</v>
       </c>
       <c r="H90" s="17">
-        <v>3.7330131426480002</v>
+        <v>6.3180830350320001</v>
       </c>
       <c r="I90" s="17">
-        <v>1.2222751182939999</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
+        <v>3.6528500027540001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" hidden="1">
       <c r="B91" s="12">
         <v>2018</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D91" s="27">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="E91" s="27">
-        <v>4.0199999999999996</v>
+        <v>3.69</v>
       </c>
       <c r="F91" s="27">
-        <v>1.1100000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="G91" s="27">
-        <v>0.441856886936</v>
+        <v>1.27126872918</v>
       </c>
       <c r="H91" s="27">
-        <v>3.5773911178570001</v>
+        <v>4.8472071616769998</v>
       </c>
       <c r="I91" s="13">
-        <v>1.300473049094</v>
+        <v>2.5090822488370002</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
@@ -3220,90 +3220,142 @@
         <v>2018</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D92" s="17">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="E92" s="17">
-        <v>4.2699999999999996</v>
+        <v>3.71</v>
       </c>
       <c r="F92" s="17">
-        <v>0.77</v>
+        <v>1.25</v>
       </c>
       <c r="G92" s="17">
-        <v>0.24983929023699999</v>
+        <v>-7.7194043074000004E-2</v>
       </c>
       <c r="H92" s="17">
-        <v>2.9845963579829999</v>
+        <v>3.7330131426480002</v>
       </c>
       <c r="I92" s="17">
-        <v>0.85483899717699996</v>
-      </c>
-      <c r="L92" s="28"/>
-    </row>
-    <row r="93" spans="2:12" hidden="1">
+        <v>1.2222751182939999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
       <c r="B93" s="12">
         <v>2018</v>
       </c>
       <c r="C93" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="E93" s="27">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F93" s="27">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G93" s="27">
+        <v>0.441856886936</v>
+      </c>
+      <c r="H93" s="27">
+        <v>3.5773911178570001</v>
+      </c>
+      <c r="I93" s="13">
+        <v>1.300473049094</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B94" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="17">
+        <v>0.49</v>
+      </c>
+      <c r="E94" s="17">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F94" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="G94" s="17">
+        <v>0.24983929023699999</v>
+      </c>
+      <c r="H94" s="17">
+        <v>2.9845963579829999</v>
+      </c>
+      <c r="I94" s="17">
+        <v>0.85483899717699996</v>
+      </c>
+      <c r="L94" s="28"/>
+    </row>
+    <row r="95" spans="2:12" hidden="1">
+      <c r="B95" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D95" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E93" s="27">
+      <c r="E95" s="27">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F93" s="27">
+      <c r="F95" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G93" s="27">
+      <c r="G95" s="27">
         <v>0.60349194694300001</v>
       </c>
-      <c r="H93" s="27">
+      <c r="H95" s="27">
         <v>3.161283780502</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I95" s="13">
         <v>0.60349194694300001</v>
       </c>
     </row>
-    <row r="94" spans="2:12">
-      <c r="B94" s="2" t="s">
+    <row r="96" spans="2:12">
+      <c r="B96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-    </row>
-    <row r="95" spans="2:12">
-      <c r="B95" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="2:12">
-      <c r="B96" s="30" t="s">
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="31" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="31" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B6416-17BC-4CFA-BB51-DC12CE9D3F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9E3C0-BD93-465C-A644-E65819A806B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_5.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="29">
   <si>
     <t>(Variación porcentual)</t>
   </si>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">  Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -637,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I95" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I95" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I96" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I96" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -882,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N100"/>
+  <dimension ref="B2:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -980,2381 +980,2407 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="10" customFormat="1">
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>2025</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2.85</v>
+      </c>
+      <c r="G6" s="13">
+        <v>-0.181274797756</v>
+      </c>
+      <c r="H6" s="13">
+        <v>4.240524213674</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1.090194874614</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="10" customFormat="1">
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D7" s="17">
         <v>0.39</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>4.24</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>-0.19508987538799999</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="17">
         <v>5.0317662274719996</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="18">
         <v>1.2737787121540001</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="10" customFormat="1">
-      <c r="B7" s="11">
+    <row r="8" spans="2:14" s="10" customFormat="1">
+      <c r="B8" s="11">
         <v>2025</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <v>0.3</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>4.0599999999999996</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>2.13</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>-0.13055130210099999</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="13">
         <v>6.5592280397879996</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>1.4717398028890001</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="10" customFormat="1">
-      <c r="B8" s="15">
+    <row r="9" spans="2:14" s="10" customFormat="1">
+      <c r="B9" s="15">
         <v>2025</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="17">
         <v>0.49</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>3.93</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>1.83</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>0.32117934472600002</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>7.1505095324869998</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="18">
         <v>1.604385651349</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="10" customFormat="1">
-      <c r="B9" s="11">
+    <row r="10" spans="2:14" s="10" customFormat="1">
+      <c r="B10" s="11">
         <v>2025</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>0.43</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>3.64</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>1.33</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>0.31101414616</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>7.0789495459019998</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>1.2790981077029999</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="10" customFormat="1">
-      <c r="B10" s="15">
+    <row r="11" spans="2:14" s="10" customFormat="1">
+      <c r="B11" s="15">
         <v>2025</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="17">
         <v>0.48</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>3.65</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>0.9</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>0.65903225873000004</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H11" s="17">
         <v>7.3149952562139999</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="18">
         <v>0.96508241869900002</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="10" customFormat="1">
-      <c r="B11" s="19">
+    <row r="12" spans="2:14" s="10" customFormat="1">
+      <c r="B12" s="19">
         <v>2025</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D12" s="21">
         <v>0.41</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E12" s="21">
         <v>3.66</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F12" s="21">
         <v>0.41</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G12" s="21">
         <v>0.30404639613599999</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H12" s="21">
         <v>6.9843789054740002</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I12" s="22">
         <v>0.30404639613599999</v>
       </c>
     </row>
-    <row r="12" spans="2:14" s="10" customFormat="1">
-      <c r="B12" s="15">
+    <row r="13" spans="2:14" s="10" customFormat="1">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="17">
         <v>0.51</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>3.65</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>3.65</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>0.59079793727399998</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>7.0181837237850004</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="18">
         <v>7.0181837237850004</v>
       </c>
     </row>
-    <row r="13" spans="2:14" s="10" customFormat="1">
-      <c r="B13" s="11">
+    <row r="14" spans="2:14" s="10" customFormat="1">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>0.05</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>3.58</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>3.13</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>0.92993636571899996</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>6.5465562420249999</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>6.3896359491250001</v>
       </c>
     </row>
-    <row r="14" spans="2:14" s="10" customFormat="1">
-      <c r="B14" s="15">
+    <row r="15" spans="2:14" s="10" customFormat="1">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>3.8</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>3.08</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>0.36347128034499998</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="17">
         <v>5.5839230062159997</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I15" s="18">
         <v>5.4093956461269999</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="11">
+    <row r="16" spans="2:14">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>3.91</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>2.79</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>0.82606636652200005</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>5.9443100216460003</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>5.0276503008609996</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="15">
+    <row r="17" spans="2:9">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="17">
         <v>0.22</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>4</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>2.5</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="17">
         <v>0.369278560704</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="17">
         <v>5.4435169997889998</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="18">
         <v>4.1671604236400004</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="11">
+    <row r="18" spans="2:9">
+      <c r="B18" s="11">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>0.32</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>4.05</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>2.27</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>0.57640336761699995</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>5.2622559551570003</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>3.7839086993529998</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="15">
+    <row r="19" spans="2:9">
+      <c r="B19" s="15">
         <v>2024</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="17">
         <v>0.22</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="17">
         <v>4.13</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>1.95</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G19" s="17">
         <v>1.2563585232509999</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H19" s="17">
         <v>4.8260810216649999</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="18">
         <v>3.1891231186829998</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="11">
+    <row r="20" spans="2:9">
+      <c r="B20" s="11">
         <v>2024</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>0.17</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>4.21</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>1.73</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>0.42360958839500001</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>3.3687665536420002</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I20" s="14">
         <v>1.9087834320920001</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="15">
+    <row r="21" spans="2:9">
+      <c r="B21" s="15">
         <v>2024</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="17">
         <v>0.21</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>4.37</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>1.55</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>0.25418029563599998</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H21" s="17">
         <v>2.7425824040540001</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="18">
         <v>1.478909043187</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="11">
+    <row r="22" spans="2:9">
+      <c r="B22" s="11">
         <v>2024</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>0.44</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>4.55</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>1.34</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>0.53214056444000002</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>2.3469442441570001</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>1.2216236210189999</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="15">
+    <row r="23" spans="2:9">
+      <c r="B23" s="15">
         <v>2024</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="17">
         <v>0.49</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>0.9</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="17">
         <v>0.348921618228</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H23" s="17">
         <v>2.3687450634360001</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="18">
         <v>0.68583345854199995</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="19">
+    <row r="24" spans="2:9">
+      <c r="B24" s="19">
         <v>2024</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D24" s="21">
         <v>0.4</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E24" s="21">
         <v>4.76</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F24" s="21">
         <v>0.4</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G24" s="21">
         <v>0.33574036958300002</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H24" s="21">
         <v>2.1715546272230002</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I24" s="22">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="23">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="23">
         <v>2023</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C25" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D25" s="25">
         <v>0.44</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E25" s="25">
         <v>5.09</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F25" s="25">
         <v>5.09</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G25" s="25">
         <v>0.147495845343</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H25" s="25">
         <v>2.3990681262220002</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I25" s="26">
         <v>2.3990681262220002</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="11">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>0.26</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>5.3</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>4.63</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>1.8048505045E-2</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>2.6522066151989998</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>2.248256196397</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="15">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="17">
         <v>0.39</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>5.5</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="17">
         <v>0.70603945590799999</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H27" s="17">
         <v>2.5168997772570001</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="18">
         <v>2.2298052448400001</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="11">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>0.36</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>5.76</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>3.95</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>0.34946700552499999</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>1.9439072454349999</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>1.513082827172</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="15">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="17">
         <v>0.27</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>6.08</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>3.58</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="17">
         <v>0.196740307063</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="17">
         <v>1.675847035776</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I29" s="18">
         <v>1.159563529703</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="11">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="11">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <v>0.39</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>6.64</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>3.3</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>0.15964518918199999</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>1.530754654866</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="14">
         <v>0.96093268073299998</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="15">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="15">
         <v>2023</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="17">
         <v>0.3</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>6.89</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>2.89</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G31" s="17">
         <v>-0.15132890355199999</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H31" s="17">
         <v>2.1835078429219998</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I31" s="18">
         <v>0.80001031357200003</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="11">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="11">
         <v>2023</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>0.32</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>7.39</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>2.59</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>-0.18473347948900001</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>2.9355319108579998</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I32" s="14">
         <v>0.95278105024100002</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="15">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="15">
         <v>2023</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="17">
         <v>0.39</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>7.67</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G33" s="17">
         <v>-0.13187559751</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="17">
         <v>3.6988889525249999</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I33" s="18">
         <v>1.1396197890190001</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="11">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="11">
         <v>2023</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>0.52</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>8.09</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>1.86</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>0.55355481421800001</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>4.5062159802339998</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="14">
         <v>1.2731743928670001</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="15">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="15">
         <v>2023</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="17">
         <v>0.61</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>1.33</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G35" s="17">
         <v>0.15562191903600001</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <v>5.242353451924</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I35" s="18">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="19">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="19">
         <v>2023</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D36" s="21">
         <v>0.71</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E36" s="21">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F36" s="21">
         <v>0.71</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G36" s="21">
         <v>0.55916591546500005</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H36" s="21">
         <v>5.9305104600370004</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I36" s="22">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="23">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="23">
         <v>2022</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D37" s="25">
         <v>0.65</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E37" s="25">
         <v>8.35</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F37" s="25">
         <v>8.35</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G37" s="25">
         <v>0.39506827189900001</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H37" s="25">
         <v>5.5533388149269998</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I37" s="26">
         <v>5.5533388149269998</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="11">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>0.45</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>8.51</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>7.65</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>-0.113786224344</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>6.1787824133119997</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="14">
         <v>5.1379720456570004</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="15">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="17">
         <v>0.63</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>8.42</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>7.17</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G39" s="17">
         <v>0.143168274249</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H39" s="17">
         <v>7.2420809480689998</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I39" s="18">
         <v>5.2577408548060003</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="11">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>0.67</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>6.5</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>8.5599356230999998E-2</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>7.9839703932569996</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="14">
         <v>5.1072606036890003</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="15">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <v>0.8</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>5.79</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="17">
         <v>5.3758625233999997E-2</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="17">
         <v>8.2770800745350002</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I41" s="18">
         <v>5.0173664141080003</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="11">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="11">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <v>0.62</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>7.65</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>4.95</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>0.80358335288500005</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>8.5613806924040006</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I42" s="14">
         <v>4.9609408552709997</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="15">
+    <row r="43" spans="2:9" hidden="1">
+      <c r="B43" s="15">
         <v>2022</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <v>0.77</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>7.49</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>4.3</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G43" s="17">
         <v>0.58351182956699998</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H43" s="17">
         <v>8.1206306866349998</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I43" s="18">
         <v>4.1242159892599997</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1">
-      <c r="B43" s="11">
+    <row r="44" spans="2:9" hidden="1">
+      <c r="B44" s="11">
         <v>2022</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <v>0.59</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>7.28</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>3.5</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>0.55548406395600003</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>8.3083117124939996</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I44" s="14">
         <v>3.5201635887329998</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1">
-      <c r="B44" s="15">
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="15">
         <v>2022</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="17">
         <v>0.78</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>7.22</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>2.9</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="17">
         <v>0.64562777645299996</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="17">
         <v>8.3624942961670001</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I45" s="18">
         <v>2.948302176031</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="11">
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="11">
         <v>2022</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <v>0.72</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>6.78</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>2.1</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>1.261849903808</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>7.8586284732739999</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="14">
         <v>2.2879030619130001</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="15">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="15">
         <v>2022</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C47" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="17">
         <v>0.76</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>6.59</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>1.38</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G47" s="17">
         <v>0.81051788881300002</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H47" s="17">
         <v>7.882525801491</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I47" s="18">
         <v>1.013267246331</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="18" hidden="1" customHeight="1">
-      <c r="B47" s="19">
+    <row r="48" spans="2:9" ht="18" hidden="1" customHeight="1">
+      <c r="B48" s="19">
         <v>2022</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D48" s="21">
         <v>0.62</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E48" s="21">
         <v>6.21</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F48" s="21">
         <v>0.62</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G48" s="21">
         <v>0.201119250019</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H48" s="21">
         <v>7.9360282135400002</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I48" s="22">
         <v>0.201119250019</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="23">
+    <row r="49" spans="2:9" hidden="1">
+      <c r="B49" s="23">
         <v>2021</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D49" s="25">
         <v>0.8</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E49" s="25">
         <v>5.94</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F49" s="25">
         <v>5.94</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G49" s="25">
         <v>0.98994715934099997</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H49" s="25">
         <v>8.4353053849300004</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I49" s="26">
         <v>8.4353053849300004</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="11">
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>0.37</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>5.67</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>5.09</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>0.88649709343500005</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>7.2086688466229996</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I50" s="14">
         <v>7.3723756027340004</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="15">
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="17">
         <v>0.49</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>5.19</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>4.71</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="17">
         <v>0.83594818763300005</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H51" s="17">
         <v>5.9199708831139999</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I51" s="18">
         <v>6.4288866163060003</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="11">
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>0.46</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>4.92</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>0.35726984603599998</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>5.164508955364</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="14">
         <v>5.5465719608899997</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="15">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <v>0.43</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>4.78</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>3.72</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="17">
         <v>0.316467458699</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="17">
         <v>4.5155081427589998</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I53" s="18">
         <v>5.1708283045319998</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="11">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="11">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <v>0.48</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>4.66</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>3.28</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>0.39432934689400001</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>4.3958643907160004</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I54" s="14">
         <v>4.8390468372819999</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="15">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="15">
         <v>2021</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>4.58</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>2.79</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G55" s="17">
         <v>0.75810955957199999</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H55" s="17">
         <v>4.8265532737239996</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I55" s="18">
         <v>4.4272595068890004</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="11">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="11">
         <v>2021</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>0.53</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>4.37</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>0.60578819891000002</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>3.1959619273520001</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I56" s="14">
         <v>3.6415430612540001</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="15">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="15">
         <v>2021</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <v>0.37</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>4.13</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>1.67</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="17">
         <v>0.17764397458799999</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H57" s="17">
         <v>2.1669307819279999</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I57" s="18">
         <v>3.0174753527510001</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="11">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="11">
         <v>2021</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <v>0.54</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>4.12</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>1.3</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>1.284285639338</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>4.1277875031009996</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I58" s="14">
         <v>2.8347955347039999</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="15">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="15">
         <v>2021</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="17">
         <v>0.39</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>3.87</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>0.75</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="17">
         <v>0.86051306483400003</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H59" s="17">
         <v>5.442223849636</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I59" s="18">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="19">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="19">
         <v>2021</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D60" s="21">
         <v>0.36</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E60" s="21">
         <v>3.84</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F60" s="21">
         <v>0.36</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G60" s="21">
         <v>0.66461723319800003</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H60" s="21">
         <v>5.0089705057009999</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I60" s="22">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="23">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="23">
         <v>2020</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C61" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D61" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E61" s="25">
         <v>3.8</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F61" s="25">
         <v>3.8</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G61" s="25">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H61" s="25">
         <v>4.0477807569659996</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I61" s="26">
         <v>4.0477807569659996</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="11">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <v>-0.08</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>3.66</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>3.24</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>-0.32620543098400001</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>4.5265419274339997</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I62" s="14">
         <v>4.2066608629460003</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="15">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="17">
         <v>0.24</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>3.98</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>3.33</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="17">
         <v>0.116747463074</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H63" s="17">
         <v>5.1137554069669999</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I63" s="18">
         <v>4.5477011420390001</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="11">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>0.32</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>3.99</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>3.08</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>-0.26206409397699998</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>4.8518955410490001</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="14">
         <v>4.4257866852900003</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="15">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="17">
         <v>0.32</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>3.97</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>2.75</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="17">
         <v>0.201630543376</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="17">
         <v>5.6406719752800001</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I65" s="18">
         <v>4.7001682325600003</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="11">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="11">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <v>0.4</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>3.85</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>0.80850975355200005</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>5.3835626013460001</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I66" s="14">
         <v>4.4894855151449997</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="15">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="15">
         <v>2020</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="17">
         <v>0.37</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>3.71</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="17">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G67" s="17">
         <v>-0.80919658942999995</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H67" s="17">
         <v>4.684646083144</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I67" s="18">
         <v>3.6514534046699998</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="11">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="11">
         <v>2020</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <v>0.3</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>3.64</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>1.65</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>-0.39741471264900002</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H68" s="13">
         <v>6.0913765134869999</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I68" s="14">
         <v>4.4970398874960003</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="15">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="15">
         <v>2020</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="17">
         <v>0.36</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>3.5</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>1.35</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G69" s="17">
         <v>2.100320960141</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H69" s="17">
         <v>6.5491539587240002</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I69" s="18">
         <v>4.9139834935250004</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="11">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="11">
         <v>2020</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>3.6</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>0.99</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>2.562827607524</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>4.6539310234500002</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="14">
         <v>2.755782260942</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="15">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="15">
         <v>2020</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="17">
         <v>0.36</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>3.66</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>0.69</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G71" s="17">
         <v>0.44608559013799998</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H71" s="17">
         <v>2.2791453993499999</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I71" s="18">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="19">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="19">
         <v>2020</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D72" s="21">
         <v>0.33</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E72" s="21">
         <v>3.73</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F72" s="21">
         <v>0.33</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G72" s="21">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="H71" s="21">
+      <c r="H72" s="21">
         <v>1.84862881086</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I72" s="22">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="23">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="23">
         <v>2019</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C73" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D73" s="25">
         <v>0.41</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E73" s="25">
         <v>3.59</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F73" s="25">
         <v>3.59</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G73" s="25">
         <v>0.306967963314</v>
       </c>
-      <c r="H72" s="25">
+      <c r="H73" s="25">
         <v>1.586696971267</v>
       </c>
-      <c r="I72" s="26">
+      <c r="I73" s="26">
         <v>1.586696971267</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="11">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>0.22</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>3.65</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>3.17</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>0.23374608609399999</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>1.8270378469140001</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="14">
         <v>1.2758126717789999</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="15">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="17">
         <v>0.25</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>3.68</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>2.94</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G75" s="17">
         <v>-0.13266383391</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H75" s="17">
         <v>3.0075460228350002</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I75" s="18">
         <v>1.0396364761120001</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="11">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>0.3</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>3.75</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>2.69</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>0.48824121081100003</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>3.4825490942520001</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="14">
         <v>1.173857594512</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="15">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="17">
         <v>0.2</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>3.78</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>2.39</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G77" s="17">
         <v>-4.2241234551999997E-2</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H77" s="17">
         <v>3.5690342385120002</v>
       </c>
-      <c r="I76" s="18">
+      <c r="I77" s="18">
         <v>0.68228518624599999</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="11">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="11">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <v>0.26</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>3.82</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>0.139935538533</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H78" s="13">
         <v>3.6017852246089999</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I78" s="14">
         <v>0.72483259903599995</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="15">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="15">
         <v>2019</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="17">
         <v>0.3</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>3.85</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>1.91</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G79" s="17">
         <v>0.523708729436</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H79" s="17">
         <v>2.8051480354380001</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I79" s="18">
         <v>0.58407972539399999</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="11">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="11">
         <v>2019</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <v>0.16</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>3.77</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>1.6</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>3.2364017068000003E-2</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H80" s="13">
         <v>3.4106486148780002</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I80" s="14">
         <v>6.0056474956E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="15">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="15">
         <v>2019</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="17">
         <v>0.46</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>3.87</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>1.44</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="17">
         <v>0.28423080087500002</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="17">
         <v>4.691393512895</v>
       </c>
-      <c r="I80" s="18">
+      <c r="I81" s="18">
         <v>2.7683498397E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="11">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="11">
         <v>2019</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <v>0.34</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>3.55</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>0.98</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>0.23549287496900001</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>4.3140852336069999</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I82" s="14">
         <v>-0.25582018272399998</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="15">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="15">
         <v>2019</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="17">
         <v>0.43</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>3.54</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>0.63</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G83" s="17">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H83" s="17">
         <v>4.5288462181250004</v>
       </c>
-      <c r="I82" s="18">
+      <c r="I83" s="18">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="19">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="19">
         <v>2019</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D84" s="21">
         <v>0.2</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E84" s="21">
         <v>3.6</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F84" s="21">
         <v>0.2</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G84" s="21">
         <v>-0.513324016898</v>
       </c>
-      <c r="H83" s="21">
+      <c r="H84" s="21">
         <v>4.7656059104970003</v>
       </c>
-      <c r="I83" s="22">
+      <c r="I84" s="22">
         <v>-0.513324016898</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="16">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="17">
         <v>0.47</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>3.68</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>3.68</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="17">
         <v>0.54428116703600005</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="17">
         <v>5.9416820029600004</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="17">
         <v>5.9416820029600004</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="12">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D86" s="27">
         <v>0.25</v>
       </c>
-      <c r="E85" s="27">
+      <c r="E86" s="27">
         <v>3.63</v>
       </c>
-      <c r="F85" s="27">
+      <c r="F86" s="27">
         <v>3.2</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G86" s="27">
         <v>1.395782803059</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H86" s="27">
         <v>5.803199134233</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>5.3681828277810002</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="16">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="17">
         <v>0.31</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>3.73</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>2.94</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G87" s="17">
         <v>0.327858654438</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H87" s="17">
         <v>5.3038402515170002</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I87" s="17">
         <v>3.9177172017480002</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1">
-      <c r="B87" s="12">
+    <row r="88" spans="2:12" hidden="1">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D88" s="27">
         <v>0.32</v>
       </c>
-      <c r="E87" s="27">
+      <c r="E88" s="27">
         <v>3.67</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F88" s="27">
         <v>2.62</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G88" s="27">
         <v>0.57222387372000005</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H88" s="27">
         <v>6.0001919453579999</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>3.5781273471350001</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1">
-      <c r="B88" s="16">
+    <row r="89" spans="2:12" hidden="1">
+      <c r="B89" s="16">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="17">
         <v>0.25</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>3.63</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>2.29</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G89" s="17">
         <v>-1.0632219447E-2</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H89" s="17">
         <v>5.557540466841</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I89" s="17">
         <v>2.988800841462</v>
       </c>
     </row>
-    <row r="89" spans="2:12" hidden="1">
-      <c r="B89" s="12">
+    <row r="90" spans="2:12" hidden="1">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D90" s="27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E89" s="27">
+      <c r="E90" s="27">
         <v>3.63</v>
       </c>
-      <c r="F89" s="27">
+      <c r="F90" s="27">
         <v>2.04</v>
       </c>
-      <c r="G89" s="27">
+      <c r="G90" s="27">
         <v>-0.63008204946799995</v>
       </c>
-      <c r="H89" s="27">
+      <c r="H90" s="27">
         <v>5.7518140773019999</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>2.999752001124</v>
       </c>
     </row>
-    <row r="90" spans="2:12" hidden="1">
-      <c r="B90" s="16">
+    <row r="91" spans="2:12" hidden="1">
+      <c r="B91" s="16">
         <v>2018</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C91" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D91" s="17">
         <v>0.23</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E91" s="17">
         <v>3.62</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F91" s="17">
         <v>1.75</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G91" s="17">
         <v>1.1157721138700001</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H91" s="17">
         <v>6.3180830350320001</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I91" s="17">
         <v>3.6528500027540001</v>
       </c>
     </row>
-    <row r="91" spans="2:12" hidden="1">
-      <c r="B91" s="12">
+    <row r="92" spans="2:12" hidden="1">
+      <c r="B92" s="12">
         <v>2018</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C92" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="27">
+      <c r="D92" s="27">
         <v>0.26</v>
       </c>
-      <c r="E91" s="27">
+      <c r="E92" s="27">
         <v>3.69</v>
       </c>
-      <c r="F91" s="27">
+      <c r="F92" s="27">
         <v>1.51</v>
       </c>
-      <c r="G91" s="27">
+      <c r="G92" s="27">
         <v>1.27126872918</v>
       </c>
-      <c r="H91" s="27">
+      <c r="H92" s="27">
         <v>4.8472071616769998</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>2.5090822488370002</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B92" s="16">
+    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B93" s="16">
         <v>2018</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C93" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D93" s="17">
         <v>0.15</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E93" s="17">
         <v>3.71</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F93" s="17">
         <v>1.25</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G93" s="17">
         <v>-7.7194043074000004E-2</v>
       </c>
-      <c r="H92" s="17">
+      <c r="H93" s="17">
         <v>3.7330131426480002</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I93" s="17">
         <v>1.2222751182939999</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B93" s="12">
+    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B94" s="12">
         <v>2018</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D94" s="27">
         <v>0.33</v>
       </c>
-      <c r="E93" s="27">
+      <c r="E94" s="27">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F93" s="27">
+      <c r="F94" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G93" s="27">
+      <c r="G94" s="27">
         <v>0.441856886936</v>
       </c>
-      <c r="H93" s="27">
+      <c r="H94" s="27">
         <v>3.5773911178570001</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I94" s="13">
         <v>1.300473049094</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B94" s="16">
+    <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B95" s="16">
         <v>2018</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C95" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D95" s="17">
         <v>0.49</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E95" s="17">
         <v>4.2699999999999996</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F95" s="17">
         <v>0.77</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G95" s="17">
         <v>0.24983929023699999</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H95" s="17">
         <v>2.9845963579829999</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I95" s="17">
         <v>0.85483899717699996</v>
       </c>
-      <c r="L94" s="28"/>
-    </row>
-    <row r="95" spans="2:12" hidden="1">
-      <c r="B95" s="12">
+      <c r="L95" s="28"/>
+    </row>
+    <row r="96" spans="2:12" hidden="1">
+      <c r="B96" s="12">
         <v>2018</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C96" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D96" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E95" s="27">
+      <c r="E96" s="27">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F95" s="27">
+      <c r="F96" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G95" s="27">
+      <c r="G96" s="27">
         <v>0.60349194694300001</v>
       </c>
-      <c r="H95" s="27">
+      <c r="H96" s="27">
         <v>3.161283780502</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I96" s="13">
         <v>0.60349194694300001</v>
       </c>
     </row>
-    <row r="96" spans="2:12">
-      <c r="B96" s="2" t="s">
+    <row r="97" spans="2:9">
+      <c r="B97" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
       <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="30" t="s">
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="2" t="s">
+    <row r="100" spans="2:9">
+      <c r="B100" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="31" t="s">
+    <row r="101" spans="2:9">
+      <c r="B101" s="31" t="s">
         <v>27</v>
       </c>
     </row>

--- a/INPP.xlsx
+++ b/INPP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9E3C0-BD93-465C-A644-E65819A806B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8620301-42D3-4C56-933A-7048DB7DE44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
   <si>
     <t>(Variación porcentual)</t>
   </si>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">  Para INPP: INEGI. Banco de Información Económica (BIE). índice Nacional de Precios Productor. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -432,6 +432,16 @@
   <dxfs count="13">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -546,13 +556,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -576,6 +579,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -613,16 +623,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -637,23 +637,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I96" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I96" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}" name="Tabla1" displayName="Tabla1" ref="B5:I97" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="B5:I97" xr:uid="{CB003D15-B8C5-44C1-801F-3C7D5E398EF6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C7A3627A-A431-4685-891D-FF1382085891}" name="Año" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{163B566D-CCF3-43FE-A1BE-BD096E0E6289}" name="Mes" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AECF0452-0CDD-4AE9-83B7-D97CCE08DC8B}" name="Mensual" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{67A42D1C-065E-4D66-BDDA-EEBBA8AFEF19}" name="Anual" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B9874700-438E-4919-AEAC-6297B0BAEADA}" name="Acumulada" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{32325E62-5016-4BBE-9DAF-94691D754552}" name="Mensual " dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{954EB725-C368-47E3-8348-0CBA225A71ED}" name="Anual " dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{187D5208-338B-4B13-B1E4-331A8A3AABC7}" name="Acumulada " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,7 +883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N101"/>
+  <dimension ref="B2:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -980,2407 +981,2433 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="10" customFormat="1">
-      <c r="B6" s="11">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="E6" s="17">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F6" s="17">
+        <v>3.07</v>
+      </c>
+      <c r="G6" s="17">
+        <v>-0.14368884339999999</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3.707771643614</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.94493954280799997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="10" customFormat="1">
+      <c r="B7" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="13">
         <v>0.31</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>4.2300000000000004</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>2.85</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>-0.181274797756</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>4.240524213674</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I7" s="14">
         <v>1.090194874614</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="10" customFormat="1">
-      <c r="B7" s="15">
+    <row r="8" spans="2:14" s="10" customFormat="1">
+      <c r="B8" s="15">
         <v>2025</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="17">
         <v>0.39</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>4.24</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>-0.19508987538799999</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <v>5.0317662274719996</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I8" s="18">
         <v>1.2737787121540001</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="10" customFormat="1">
-      <c r="B8" s="11">
+    <row r="9" spans="2:14" s="10" customFormat="1">
+      <c r="B9" s="11">
         <v>2025</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <v>0.3</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>4.0599999999999996</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>2.13</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>-0.13055130210099999</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="13">
         <v>6.5592280397879996</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>1.4717398028890001</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="10" customFormat="1">
-      <c r="B9" s="15">
+    <row r="10" spans="2:14" s="10" customFormat="1">
+      <c r="B10" s="15">
         <v>2025</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="17">
         <v>0.49</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>3.93</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>1.83</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="17">
         <v>0.32117934472600002</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H10" s="17">
         <v>7.1505095324869998</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I10" s="18">
         <v>1.604385651349</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="10" customFormat="1">
-      <c r="B10" s="11">
+    <row r="11" spans="2:14" s="10" customFormat="1">
+      <c r="B11" s="11">
         <v>2025</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <v>0.43</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>3.64</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>1.33</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>0.31101414616</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>7.0789495459019998</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>1.2790981077029999</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="10" customFormat="1">
-      <c r="B11" s="15">
+    <row r="12" spans="2:14" s="10" customFormat="1">
+      <c r="B12" s="15">
         <v>2025</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="17">
         <v>0.48</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>3.65</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>0.9</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>0.65903225873000004</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H12" s="17">
         <v>7.3149952562139999</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I12" s="18">
         <v>0.96508241869900002</v>
       </c>
     </row>
-    <row r="12" spans="2:14" s="10" customFormat="1">
-      <c r="B12" s="19">
+    <row r="13" spans="2:14" s="10" customFormat="1">
+      <c r="B13" s="19">
         <v>2025</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D13" s="21">
         <v>0.41</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E13" s="21">
         <v>3.66</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F13" s="21">
         <v>0.41</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G13" s="21">
         <v>0.30404639613599999</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H13" s="21">
         <v>6.9843789054740002</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I13" s="22">
         <v>0.30404639613599999</v>
       </c>
     </row>
-    <row r="13" spans="2:14" s="10" customFormat="1">
-      <c r="B13" s="15">
+    <row r="14" spans="2:14" s="10" customFormat="1">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D14" s="17">
         <v>0.51</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>3.65</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>3.65</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>0.59079793727399998</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H14" s="17">
         <v>7.0181837237850004</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <v>7.0181837237850004</v>
       </c>
     </row>
-    <row r="14" spans="2:14" s="10" customFormat="1">
-      <c r="B14" s="11">
+    <row r="15" spans="2:14" s="10" customFormat="1">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <v>0.05</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>3.58</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>3.13</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>0.92993636571899996</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>6.5465562420249999</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>6.3896359491250001</v>
       </c>
     </row>
-    <row r="15" spans="2:14" s="10" customFormat="1">
-      <c r="B15" s="15">
+    <row r="16" spans="2:14" s="10" customFormat="1">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>3.8</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>3.08</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="17">
         <v>0.36347128034499998</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="17">
         <v>5.5839230062159997</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I16" s="18">
         <v>5.4093956461269999</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="11">
+    <row r="17" spans="2:9">
+      <c r="B17" s="11">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>3.91</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>2.79</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>0.82606636652200005</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>5.9443100216460003</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>5.0276503008609996</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="15">
+    <row r="18" spans="2:9">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="17">
         <v>0.22</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>4</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>2.5</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G18" s="17">
         <v>0.369278560704</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H18" s="17">
         <v>5.4435169997889998</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I18" s="18">
         <v>4.1671604236400004</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="11">
+    <row r="19" spans="2:9">
+      <c r="B19" s="11">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>0.32</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>4.05</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>2.27</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>0.57640336761699995</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <v>5.2622559551570003</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>3.7839086993529998</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="15">
+    <row r="20" spans="2:9">
+      <c r="B20" s="15">
         <v>2024</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>0.22</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>4.13</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>1.95</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>1.2563585232509999</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="17">
         <v>4.8260810216649999</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="18">
         <v>3.1891231186829998</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="11">
+    <row r="21" spans="2:9">
+      <c r="B21" s="11">
         <v>2024</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>0.17</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>4.21</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>1.73</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>0.42360958839500001</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>3.3687665536420002</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>1.9087834320920001</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="15">
+    <row r="22" spans="2:9">
+      <c r="B22" s="15">
         <v>2024</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D22" s="17">
         <v>0.21</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="17">
         <v>4.37</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>1.55</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="17">
         <v>0.25418029563599998</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H22" s="17">
         <v>2.7425824040540001</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I22" s="18">
         <v>1.478909043187</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="11">
+    <row r="23" spans="2:9">
+      <c r="B23" s="11">
         <v>2024</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>0.44</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>4.55</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>1.34</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>0.53214056444000002</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>2.3469442441570001</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>1.2216236210189999</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="15">
+    <row r="24" spans="2:9">
+      <c r="B24" s="15">
         <v>2024</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>0.49</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>0.9</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>0.348921618228</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>2.3687450634360001</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <v>0.68583345854199995</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="19">
+    <row r="25" spans="2:9">
+      <c r="B25" s="19">
         <v>2024</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D25" s="21">
         <v>0.4</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E25" s="21">
         <v>4.76</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F25" s="21">
         <v>0.4</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G25" s="21">
         <v>0.33574036958300002</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H25" s="21">
         <v>2.1715546272230002</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I25" s="22">
         <v>0.33574036958300002</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="23">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="23">
         <v>2023</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D26" s="25">
         <v>0.44</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E26" s="25">
         <v>5.09</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F26" s="25">
         <v>5.09</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G26" s="25">
         <v>0.147495845343</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H26" s="25">
         <v>2.3990681262220002</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I26" s="26">
         <v>2.3990681262220002</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="11">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <v>0.26</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>5.3</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>4.63</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>1.8048505045E-2</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>2.6522066151989998</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>2.248256196397</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="15">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D28" s="17">
         <v>0.39</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>5.5</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>0.70603945590799999</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <v>2.5168997772570001</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I28" s="18">
         <v>2.2298052448400001</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="11">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="11">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>0.36</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>5.76</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>3.95</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>0.34946700552499999</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>1.9439072454349999</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>1.513082827172</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="15">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="17">
         <v>0.27</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>6.08</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>3.58</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G30" s="17">
         <v>0.196740307063</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H30" s="17">
         <v>1.675847035776</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I30" s="18">
         <v>1.159563529703</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="11">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="11">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <v>0.39</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>6.64</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>3.3</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>0.15964518918199999</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>1.530754654866</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I31" s="14">
         <v>0.96093268073299998</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="15">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="15">
         <v>2023</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="17">
         <v>0.3</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>6.89</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>2.89</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="17">
         <v>-0.15132890355199999</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="17">
         <v>2.1835078429219998</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I32" s="18">
         <v>0.80001031357200003</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="11">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="11">
         <v>2023</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <v>0.32</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>7.39</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>2.59</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>-0.18473347948900001</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="13">
         <v>2.9355319108579998</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>0.95278105024100002</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="15">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="15">
         <v>2023</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="17">
         <v>0.39</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>7.67</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="17">
         <v>-0.13187559751</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="17">
         <v>3.6988889525249999</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I34" s="18">
         <v>1.1396197890190001</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="11">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="11">
         <v>2023</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>0.52</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>8.09</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>1.86</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>0.55355481421800001</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>4.5062159802339998</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I35" s="14">
         <v>1.2731743928670001</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="15">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="15">
         <v>2023</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <v>0.61</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>1.33</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>0.15562191903600001</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>5.242353451924</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I36" s="18">
         <v>0.71565801922899996</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="19">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="19">
         <v>2023</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D37" s="21">
         <v>0.71</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E37" s="21">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F37" s="21">
         <v>0.71</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G37" s="21">
         <v>0.55916591546500005</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H37" s="21">
         <v>5.9305104600370004</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I37" s="22">
         <v>0.55916591546500005</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="23">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="23">
         <v>2022</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C38" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D38" s="25">
         <v>0.65</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E38" s="25">
         <v>8.35</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F38" s="25">
         <v>8.35</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G38" s="25">
         <v>0.39506827189900001</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H38" s="25">
         <v>5.5533388149269998</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I38" s="26">
         <v>5.5533388149269998</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="11">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <v>0.45</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>8.51</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>7.65</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>-0.113786224344</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>6.1787824133119997</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I39" s="14">
         <v>5.1379720456570004</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="15">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="17">
         <v>0.63</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>8.42</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>7.17</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="17">
         <v>0.143168274249</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <v>7.2420809480689998</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I40" s="18">
         <v>5.2577408548060003</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="11">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="11">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>0.67</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>6.5</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>8.5599356230999998E-2</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>7.9839703932569996</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>5.1072606036890003</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="15">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <v>0.8</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>5.79</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G42" s="17">
         <v>5.3758625233999997E-2</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H42" s="17">
         <v>8.2770800745350002</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I42" s="18">
         <v>5.0173664141080003</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="11">
+    <row r="43" spans="2:9" hidden="1">
+      <c r="B43" s="11">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <v>0.62</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>7.65</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>4.95</v>
       </c>
-      <c r="G42" s="13">
-        <v>0.80358335288500005</v>
-      </c>
-      <c r="H42" s="13">
-        <v>8.5613806924040006</v>
-      </c>
-      <c r="I42" s="14">
-        <v>4.9609408552709997</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" hidden="1">
-      <c r="B43" s="15">
+      <c r="G43" s="13">
+        <v>0.50509285416100003</v>
+      </c>
+      <c r="H43" s="13">
+        <v>9.2678872906390009</v>
+      </c>
+      <c r="I43" s="14">
+        <v>5.6256211200820001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" hidden="1">
+      <c r="B44" s="15">
         <v>2022</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <v>0.77</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>7.49</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>4.3</v>
       </c>
-      <c r="G43" s="17">
-        <v>0.58351182956699998</v>
-      </c>
-      <c r="H43" s="17">
-        <v>8.1206306866349998</v>
-      </c>
-      <c r="I43" s="18">
-        <v>4.1242159892599997</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" hidden="1">
-      <c r="B44" s="11">
+      <c r="G44" s="17">
+        <v>0.59246258175199995</v>
+      </c>
+      <c r="H44" s="17">
+        <v>9.1789199113480002</v>
+      </c>
+      <c r="I44" s="18">
+        <v>5.0947948213440002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="11">
         <v>2022</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <v>0.59</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>7.28</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>3.5</v>
       </c>
-      <c r="G44" s="13">
-        <v>0.55548406395600003</v>
-      </c>
-      <c r="H44" s="13">
-        <v>8.3083117124939996</v>
-      </c>
-      <c r="I44" s="14">
-        <v>3.5201635887329998</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="15">
+      <c r="G45" s="13">
+        <v>0.61868906078100006</v>
+      </c>
+      <c r="H45" s="13">
+        <v>9.4418575395009992</v>
+      </c>
+      <c r="I45" s="14">
+        <v>4.4758147121940004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="15">
         <v>2022</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C46" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <v>0.78</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>7.22</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>2.9</v>
       </c>
-      <c r="G45" s="17">
-        <v>0.64562777645299996</v>
-      </c>
-      <c r="H45" s="17">
-        <v>8.3624942961670001</v>
-      </c>
-      <c r="I45" s="18">
-        <v>2.948302176031</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="11">
+      <c r="G46" s="17">
+        <v>0.585392973383</v>
+      </c>
+      <c r="H46" s="17">
+        <v>9.5002703254380005</v>
+      </c>
+      <c r="I46" s="18">
+        <v>3.8334087706940001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="11">
         <v>2022</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>0.72</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>6.78</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>2.1</v>
       </c>
-      <c r="G46" s="13">
-        <v>1.261849903808</v>
-      </c>
-      <c r="H46" s="13">
-        <v>7.8586284732739999</v>
-      </c>
-      <c r="I46" s="14">
-        <v>2.2879030619130001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="15">
+      <c r="G47" s="13">
+        <v>1.6432212852520001</v>
+      </c>
+      <c r="H47" s="13">
+        <v>9.0318505277920007</v>
+      </c>
+      <c r="I47" s="14">
+        <v>3.229112797889</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="15">
         <v>2022</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <v>0.76</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>6.59</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>1.38</v>
       </c>
-      <c r="G47" s="17">
-        <v>0.81051788881300002</v>
-      </c>
-      <c r="H47" s="17">
-        <v>7.882525801491</v>
-      </c>
-      <c r="I47" s="18">
-        <v>1.013267246331</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="18" hidden="1" customHeight="1">
-      <c r="B48" s="19">
+      <c r="G48" s="17">
+        <v>1.0831854644359999</v>
+      </c>
+      <c r="H48" s="17">
+        <v>8.7736736953100003</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1.560253101569</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="18" hidden="1" customHeight="1">
+      <c r="B49" s="19">
         <v>2022</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D49" s="21">
         <v>0.62</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E49" s="21">
         <v>6.21</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F49" s="21">
         <v>0.62</v>
       </c>
-      <c r="G48" s="21">
-        <v>0.201119250019</v>
-      </c>
-      <c r="H48" s="21">
-        <v>7.9360282135400002</v>
-      </c>
-      <c r="I48" s="22">
-        <v>0.201119250019</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="23">
+      <c r="G49" s="21">
+        <v>0.47195548393199999</v>
+      </c>
+      <c r="H49" s="21">
+        <v>8.7302072225239993</v>
+      </c>
+      <c r="I49" s="22">
+        <v>0.47195548393199999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="23">
         <v>2021</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D50" s="25">
         <v>0.8</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E50" s="25">
         <v>5.94</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F50" s="25">
         <v>5.94</v>
       </c>
-      <c r="G49" s="25">
-        <v>0.98994715934099997</v>
-      </c>
-      <c r="H49" s="25">
-        <v>8.4353053849300004</v>
-      </c>
-      <c r="I49" s="26">
-        <v>8.4353053849300004</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="11">
+      <c r="G50" s="25">
+        <v>0.79100346073000005</v>
+      </c>
+      <c r="H50" s="25">
+        <v>9.1895601530859992</v>
+      </c>
+      <c r="I50" s="26">
+        <v>9.1895601530859992</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <v>0.37</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>5.67</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>5.09</v>
       </c>
-      <c r="G50" s="13">
-        <v>0.88649709343500005</v>
-      </c>
-      <c r="H50" s="13">
-        <v>7.2086688466229996</v>
-      </c>
-      <c r="I50" s="14">
-        <v>7.3723756027340004</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="15">
+      <c r="G51" s="13">
+        <v>0.96431269051900004</v>
+      </c>
+      <c r="H51" s="13">
+        <v>8.32762543652</v>
+      </c>
+      <c r="I51" s="14">
+        <v>8.3326451806070008</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="17">
         <v>0.49</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>5.19</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>4.71</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="17">
         <v>0.83594818763300005</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="17">
         <v>5.9199708831139999</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I52" s="18">
         <v>6.4288866163060003</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="11">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="11">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>0.46</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>4.92</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>0.35726984603599998</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>5.164508955364</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I53" s="14">
         <v>5.5465719608899997</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="15">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <v>0.43</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>4.78</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>3.72</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G54" s="17">
         <v>0.316467458699</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H54" s="17">
         <v>4.5155081427589998</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I54" s="18">
         <v>5.1708283045319998</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="11">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="11">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <v>0.48</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>4.66</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>3.28</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>0.39432934689400001</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>4.3958643907160004</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I55" s="14">
         <v>4.8390468372819999</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="15">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="15">
         <v>2021</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>4.58</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>2.79</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="17">
         <v>0.75810955957199999</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H56" s="17">
         <v>4.8265532737239996</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I56" s="18">
         <v>4.4272595068890004</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="11">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="11">
         <v>2021</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <v>0.53</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>4.37</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>0.60578819891000002</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <v>3.1959619273520001</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="14">
         <v>3.6415430612540001</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="15">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="15">
         <v>2021</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D58" s="17">
         <v>0.37</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>4.13</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="17">
         <v>1.67</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G58" s="17">
         <v>0.17764397458799999</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H58" s="17">
         <v>2.1669307819279999</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I58" s="18">
         <v>3.0174753527510001</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="11">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="11">
         <v>2021</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>0.54</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>4.12</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>1.3</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>1.284285639338</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>4.1277875031009996</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <v>2.8347955347039999</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="15">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="15">
         <v>2021</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="17">
         <v>0.39</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>3.87</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>0.75</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>0.86051306483400003</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="17">
         <v>5.442223849636</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I60" s="18">
         <v>1.5308494161540001</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="19">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="19">
         <v>2021</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C61" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D61" s="21">
         <v>0.36</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E61" s="21">
         <v>3.84</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F61" s="21">
         <v>0.36</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G61" s="21">
         <v>0.66461723319800003</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H61" s="21">
         <v>5.0089705057009999</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I61" s="22">
         <v>0.66461723319800003</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="23">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="23">
         <v>2020</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C62" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D62" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E62" s="25">
         <v>3.8</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F62" s="25">
         <v>3.8</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G62" s="25">
         <v>-0.15246636315199999</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H62" s="25">
         <v>4.0477807569659996</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I62" s="26">
         <v>4.0477807569659996</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="11">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <v>-0.08</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>3.66</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>3.24</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>-0.32620543098400001</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>4.5265419274339997</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="14">
         <v>4.2066608629460003</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="15">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="17">
         <v>0.24</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>3.98</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>3.33</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="17">
         <v>0.116747463074</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H64" s="17">
         <v>5.1137554069669999</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I64" s="18">
         <v>4.5477011420390001</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="11">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="11">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>0.32</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>3.99</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>3.08</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>-0.26206409397699998</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>4.8518955410490001</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="14">
         <v>4.4257866852900003</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="15">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="17">
         <v>0.32</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>3.97</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>2.75</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="17">
         <v>0.201630543376</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H66" s="17">
         <v>5.6406719752800001</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I66" s="18">
         <v>4.7001682325600003</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="11">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="11">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <v>0.4</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>3.85</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>0.80850975355200005</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="13">
         <v>5.3835626013460001</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I67" s="14">
         <v>4.4894855151449997</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="15">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="15">
         <v>2020</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D68" s="17">
         <v>0.37</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>3.71</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="17">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G68" s="17">
         <v>-0.80919658942999995</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H68" s="17">
         <v>4.684646083144</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I68" s="18">
         <v>3.6514534046699998</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="11">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="11">
         <v>2020</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <v>0.3</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>3.64</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>1.65</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>-0.39741471264900002</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="13">
         <v>6.0913765134869999</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="14">
         <v>4.4970398874960003</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="15">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="15">
         <v>2020</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D70" s="17">
         <v>0.36</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>3.5</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="17">
         <v>1.35</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G70" s="17">
         <v>2.100320960141</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H70" s="17">
         <v>6.5491539587240002</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I70" s="18">
         <v>4.9139834935250004</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="11">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="11">
         <v>2020</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>3.6</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>0.99</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>2.562827607524</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>4.6539310234500002</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I71" s="14">
         <v>2.755782260942</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="15">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="15">
         <v>2020</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D72" s="17">
         <v>0.36</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>3.66</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>0.69</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="17">
         <v>0.44608559013799998</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H72" s="17">
         <v>2.2791453993499999</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I72" s="18">
         <v>0.188133125732</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="19">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="19">
         <v>2020</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D73" s="21">
         <v>0.33</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E73" s="21">
         <v>3.73</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F73" s="21">
         <v>0.33</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G73" s="21">
         <v>-0.25680688589400003</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H73" s="21">
         <v>1.84862881086</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I73" s="22">
         <v>-0.25680688589400003</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="23">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="23">
         <v>2019</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C74" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D74" s="25">
         <v>0.41</v>
       </c>
-      <c r="E73" s="25">
+      <c r="E74" s="25">
         <v>3.59</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F74" s="25">
         <v>3.59</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G74" s="25">
         <v>0.306967963314</v>
       </c>
-      <c r="H73" s="25">
+      <c r="H74" s="25">
         <v>1.586696971267</v>
       </c>
-      <c r="I73" s="26">
+      <c r="I74" s="26">
         <v>1.586696971267</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="11">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <v>0.22</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>3.65</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>3.17</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>0.23374608609399999</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>1.8270378469140001</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="14">
         <v>1.2758126717789999</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="15">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D76" s="17">
         <v>0.25</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>3.68</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>2.94</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G76" s="17">
         <v>-0.13266383391</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H76" s="17">
         <v>3.0075460228350002</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I76" s="18">
         <v>1.0396364761120001</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="11">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="11">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>0.3</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>3.75</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>2.69</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>0.48824121081100003</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>3.4825490942520001</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <v>1.173857594512</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="15">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D78" s="17">
         <v>0.2</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>3.78</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>2.39</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G78" s="17">
         <v>-4.2241234551999997E-2</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H78" s="17">
         <v>3.5690342385120002</v>
       </c>
-      <c r="I77" s="18">
+      <c r="I78" s="18">
         <v>0.68228518624599999</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="11">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="11">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <v>0.26</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>3.82</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>0.139935538533</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="13">
         <v>3.6017852246089999</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="14">
         <v>0.72483259903599995</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="15">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="15">
         <v>2019</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D80" s="17">
         <v>0.3</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>3.85</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>1.91</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>0.523708729436</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="17">
         <v>2.8051480354380001</v>
       </c>
-      <c r="I79" s="18">
+      <c r="I80" s="18">
         <v>0.58407972539399999</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="11">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="11">
         <v>2019</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <v>0.16</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>3.77</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>1.6</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>3.2364017068000003E-2</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="13">
         <v>3.4106486148780002</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I81" s="14">
         <v>6.0056474956E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="15">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="15">
         <v>2019</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D82" s="17">
         <v>0.46</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>3.87</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>1.44</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="17">
         <v>0.28423080087500002</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H82" s="17">
         <v>4.691393512895</v>
       </c>
-      <c r="I81" s="18">
+      <c r="I82" s="18">
         <v>2.7683498397E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="11">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="11">
         <v>2019</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <v>0.34</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>3.55</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>0.98</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>0.23549287496900001</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>4.3140852336069999</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I83" s="14">
         <v>-0.25582018272399998</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="15">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="15">
         <v>2019</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D84" s="17">
         <v>0.43</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>3.54</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>0.63</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="17">
         <v>2.3284774522E-2</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H84" s="17">
         <v>4.5288462181250004</v>
       </c>
-      <c r="I83" s="18">
+      <c r="I84" s="18">
         <v>-0.490158768716</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="19">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="19">
         <v>2019</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C85" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D85" s="21">
         <v>0.2</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E85" s="21">
         <v>3.6</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F85" s="21">
         <v>0.2</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G85" s="21">
         <v>-0.513324016898</v>
       </c>
-      <c r="H84" s="21">
+      <c r="H85" s="21">
         <v>4.7656059104970003</v>
       </c>
-      <c r="I84" s="22">
+      <c r="I85" s="22">
         <v>-0.513324016898</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="16">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D86" s="17">
         <v>0.47</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>3.68</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>3.68</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G86" s="17">
         <v>0.54428116703600005</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H86" s="17">
         <v>5.9416820029600004</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I86" s="17">
         <v>5.9416820029600004</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="12">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D87" s="27">
         <v>0.25</v>
       </c>
-      <c r="E86" s="27">
+      <c r="E87" s="27">
         <v>3.63</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F87" s="27">
         <v>3.2</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G87" s="27">
         <v>1.395782803059</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H87" s="27">
         <v>5.803199134233</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>5.3681828277810002</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1">
-      <c r="B87" s="16">
+    <row r="88" spans="2:12" hidden="1">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D88" s="17">
         <v>0.31</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>3.73</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>2.94</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G88" s="17">
         <v>0.327858654438</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H88" s="17">
         <v>5.3038402515170002</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I88" s="17">
         <v>3.9177172017480002</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1">
-      <c r="B88" s="12">
+    <row r="89" spans="2:12" hidden="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D89" s="27">
         <v>0.32</v>
       </c>
-      <c r="E88" s="27">
+      <c r="E89" s="27">
         <v>3.67</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F89" s="27">
         <v>2.62</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G89" s="27">
         <v>0.57222387372000005</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H89" s="27">
         <v>6.0001919453579999</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>3.5781273471350001</v>
       </c>
     </row>
-    <row r="89" spans="2:12" hidden="1">
-      <c r="B89" s="16">
+    <row r="90" spans="2:12" hidden="1">
+      <c r="B90" s="16">
         <v>2018</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C90" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D90" s="17">
         <v>0.25</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>3.63</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>2.29</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G90" s="17">
         <v>-1.0632219447E-2</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H90" s="17">
         <v>5.557540466841</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I90" s="17">
         <v>2.988800841462</v>
       </c>
     </row>
-    <row r="90" spans="2:12" hidden="1">
-      <c r="B90" s="12">
+    <row r="91" spans="2:12" hidden="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D91" s="27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E90" s="27">
+      <c r="E91" s="27">
         <v>3.63</v>
       </c>
-      <c r="F90" s="27">
+      <c r="F91" s="27">
         <v>2.04</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G91" s="27">
         <v>-0.63008204946799995</v>
       </c>
-      <c r="H90" s="27">
+      <c r="H91" s="27">
         <v>5.7518140773019999</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>2.999752001124</v>
       </c>
     </row>
-    <row r="91" spans="2:12" hidden="1">
-      <c r="B91" s="16">
+    <row r="92" spans="2:12" hidden="1">
+      <c r="B92" s="16">
         <v>2018</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D92" s="17">
         <v>0.23</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E92" s="17">
         <v>3.62</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F92" s="17">
         <v>1.75</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G92" s="17">
         <v>1.1157721138700001</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H92" s="17">
         <v>6.3180830350320001</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I92" s="17">
         <v>3.6528500027540001</v>
       </c>
     </row>
-    <row r="92" spans="2:12" hidden="1">
-      <c r="B92" s="12">
+    <row r="93" spans="2:12" hidden="1">
+      <c r="B93" s="12">
         <v>2018</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="27">
+      <c r="D93" s="27">
         <v>0.26</v>
       </c>
-      <c r="E92" s="27">
+      <c r="E93" s="27">
         <v>3.69</v>
       </c>
-      <c r="F92" s="27">
+      <c r="F93" s="27">
         <v>1.51</v>
       </c>
-      <c r="G92" s="27">
+      <c r="G93" s="27">
         <v>1.27126872918</v>
       </c>
-      <c r="H92" s="27">
+      <c r="H93" s="27">
         <v>4.8472071616769998</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I93" s="13">
         <v>2.5090822488370002</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B93" s="16">
+    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B94" s="16">
         <v>2018</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C94" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D94" s="17">
         <v>0.15</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E94" s="17">
         <v>3.71</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F94" s="17">
         <v>1.25</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G94" s="17">
         <v>-7.7194043074000004E-2</v>
       </c>
-      <c r="H93" s="17">
+      <c r="H94" s="17">
         <v>3.7330131426480002</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I94" s="17">
         <v>1.2222751182939999</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B94" s="12">
+    <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B95" s="12">
         <v>2018</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C95" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="27">
+      <c r="D95" s="27">
         <v>0.33</v>
       </c>
-      <c r="E94" s="27">
+      <c r="E95" s="27">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F94" s="27">
+      <c r="F95" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G94" s="27">
+      <c r="G95" s="27">
         <v>0.441856886936</v>
       </c>
-      <c r="H94" s="27">
+      <c r="H95" s="27">
         <v>3.5773911178570001</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I95" s="13">
         <v>1.300473049094</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B95" s="16">
+    <row r="96" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B96" s="16">
         <v>2018</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C96" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D96" s="17">
         <v>0.49</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E96" s="17">
         <v>4.2699999999999996</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F96" s="17">
         <v>0.77</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G96" s="17">
         <v>0.24983929023699999</v>
       </c>
-      <c r="H95" s="17">
+      <c r="H96" s="17">
         <v>2.9845963579829999</v>
       </c>
-      <c r="I95" s="17">
+      <c r="I96" s="17">
         <v>0.85483899717699996</v>
       </c>
-      <c r="L95" s="28"/>
-    </row>
-    <row r="96" spans="2:12" hidden="1">
-      <c r="B96" s="12">
+      <c r="L96" s="28"/>
+    </row>
+    <row r="97" spans="2:9" hidden="1">
+      <c r="B97" s="12">
         <v>2018</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C97" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="27">
+      <c r="D97" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E96" s="27">
+      <c r="E97" s="27">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F96" s="27">
+      <c r="F97" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G96" s="27">
+      <c r="G97" s="27">
         <v>0.60349194694300001</v>
       </c>
-      <c r="H96" s="27">
+      <c r="H97" s="27">
         <v>3.161283780502</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I97" s="13">
         <v>0.60349194694300001</v>
       </c>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
       <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
     </row>
     <row r="99" spans="2:9">
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="2" t="s">
+    <row r="101" spans="2:9">
+      <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="31" t="s">
+    <row r="102" spans="2:9">
+      <c r="B102" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3391,7 +3418,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
